--- a/CONG NO/THEO DOI HANG TRUNG QUOC.xlsx
+++ b/CONG NO/THEO DOI HANG TRUNG QUOC.xlsx
@@ -15,14 +15,14 @@
     <definedName name="_Fill" localSheetId="2" hidden="1">#REF!</definedName>
     <definedName name="_Fill" localSheetId="1" hidden="1">#REF!</definedName>
     <definedName name="_Fill" hidden="1">#REF!</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="2">'19-10'!$A$139:$I$147</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="2">'19-10'!$A$150:$N$201</definedName>
   </definedNames>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="538" uniqueCount="195">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="566" uniqueCount="204">
   <si>
     <t>THEO DÕI HÀNG XUẤT TRUNG QUỐC</t>
   </si>
@@ -570,9 +570,6 @@
     <t>A-153304</t>
   </si>
   <si>
-    <t>An Lạc (T.PHÁT)</t>
-  </si>
-  <si>
     <t>Tiền hàng 29/11/16</t>
   </si>
   <si>
@@ -603,10 +600,40 @@
     <t xml:space="preserve">Còn lại: </t>
   </si>
   <si>
-    <t>CHI PHÍ XUAÁT HAØNG - CAÙ CÔM - SHOUSHAN (Cont 25-&gt;28 - 28/11/16)</t>
-  </si>
-  <si>
     <t>69C-02715</t>
+  </si>
+  <si>
+    <t>34C-07657</t>
+  </si>
+  <si>
+    <t>34C-01862</t>
+  </si>
+  <si>
+    <t>17C-07132</t>
+  </si>
+  <si>
+    <t>CHI PHÍ XUAÁT HAØNG - CAÙ CÔM - SHOUSHAN (Cont 25-&gt;28 &amp; 29-&gt;32 - 28 /11 &amp; 02/12/16)</t>
+  </si>
+  <si>
+    <t>Tiền hàng 07/12/16</t>
+  </si>
+  <si>
+    <t>Chi phí xuất hàng (Cont 25-&gt;32)</t>
+  </si>
+  <si>
+    <t>Ứng trước chi phí xuất hàng</t>
+  </si>
+  <si>
+    <t>Tiền hàng 29/11/16 còn lại</t>
+  </si>
+  <si>
+    <t>1T Khô cá chỉ A</t>
+  </si>
+  <si>
+    <t>1T Khô cá chỉ B</t>
+  </si>
+  <si>
+    <t>1T Khô cá ngân A</t>
   </si>
 </sst>
 </file>
@@ -1141,7 +1168,7 @@
     <xf numFmtId="171" fontId="16" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="191">
+  <cellXfs count="201">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -1608,6 +1635,60 @@
     <xf numFmtId="43" fontId="3" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="43" fontId="3" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="3" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="3" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="2" xfId="22" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="22" fillId="0" borderId="16" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="22" fillId="0" borderId="17" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="22" fillId="0" borderId="18" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="20" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="20" fillId="0" borderId="0" xfId="4" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="20" fillId="0" borderId="0" xfId="22" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="3" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="3" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="3" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="3" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="3" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="3" fillId="0" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="3" fillId="0" borderId="5" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="3" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1626,33 +1707,18 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="14" fontId="3" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="3" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="3" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="3" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="3" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="3" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="3" fillId="0" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="3" fillId="0" borderId="5" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="22" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="164" fontId="22" fillId="0" borderId="19" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="22" fillId="0" borderId="20" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="22" fillId="0" borderId="21" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="164" fontId="21" fillId="0" borderId="7" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1680,6 +1746,21 @@
     <xf numFmtId="164" fontId="21" fillId="0" borderId="9" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="2" xfId="22" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="3" xfId="22" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="4" xfId="22" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="14" xfId="22" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="2" xfId="22" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="164" fontId="22" fillId="0" borderId="22" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1688,30 +1769,6 @@
     </xf>
     <xf numFmtId="164" fontId="22" fillId="0" borderId="24" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="22" fillId="0" borderId="19" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="22" fillId="0" borderId="20" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="22" fillId="0" borderId="21" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="2" xfId="22" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="3" xfId="22" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="4" xfId="22" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="14" xfId="22" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="2" xfId="22" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="38">
@@ -2057,8 +2114,8 @@
   <dimension ref="A1:L45"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="3" topLeftCell="A22" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B24" sqref="B24:B27"/>
+      <pane ySplit="3" topLeftCell="A16" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="L35" sqref="L35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.7109375" defaultRowHeight="18" customHeight="1"/>
@@ -2070,60 +2127,60 @@
     <col min="5" max="5" width="13.5703125" style="1" customWidth="1"/>
     <col min="6" max="6" width="9" style="1" customWidth="1"/>
     <col min="7" max="7" width="6.85546875" style="1" customWidth="1"/>
-    <col min="8" max="8" width="9.7109375" style="1" customWidth="1"/>
+    <col min="8" max="8" width="13" style="1" customWidth="1"/>
     <col min="9" max="9" width="10.7109375" style="1"/>
     <col min="10" max="10" width="9.5703125" style="1" customWidth="1"/>
-    <col min="11" max="11" width="10.7109375" style="1"/>
+    <col min="11" max="11" width="13.5703125" style="1" customWidth="1"/>
     <col min="12" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
     <col min="13" max="16384" width="10.7109375" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:12" ht="27" customHeight="1">
-      <c r="A1" s="160" t="s">
+      <c r="A1" s="178" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="160"/>
-      <c r="C1" s="160"/>
-      <c r="D1" s="160"/>
-      <c r="E1" s="160"/>
-      <c r="F1" s="160"/>
-      <c r="G1" s="160"/>
-      <c r="H1" s="160"/>
-      <c r="I1" s="160"/>
-      <c r="J1" s="160"/>
-      <c r="K1" s="160"/>
+      <c r="B1" s="178"/>
+      <c r="C1" s="178"/>
+      <c r="D1" s="178"/>
+      <c r="E1" s="178"/>
+      <c r="F1" s="178"/>
+      <c r="G1" s="178"/>
+      <c r="H1" s="178"/>
+      <c r="I1" s="178"/>
+      <c r="J1" s="178"/>
+      <c r="K1" s="178"/>
     </row>
     <row r="2" spans="1:12" s="2" customFormat="1" ht="19.5" customHeight="1">
-      <c r="A2" s="156" t="s">
+      <c r="A2" s="174" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="156" t="s">
+      <c r="B2" s="174" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="161" t="s">
+      <c r="C2" s="179" t="s">
         <v>3</v>
       </c>
-      <c r="D2" s="161"/>
-      <c r="E2" s="161"/>
-      <c r="F2" s="161" t="s">
+      <c r="D2" s="179"/>
+      <c r="E2" s="179"/>
+      <c r="F2" s="179" t="s">
         <v>4</v>
       </c>
-      <c r="G2" s="161"/>
-      <c r="H2" s="161"/>
-      <c r="I2" s="156" t="s">
+      <c r="G2" s="179"/>
+      <c r="H2" s="179"/>
+      <c r="I2" s="174" t="s">
         <v>5</v>
       </c>
-      <c r="J2" s="161" t="s">
+      <c r="J2" s="179" t="s">
         <v>6</v>
       </c>
-      <c r="K2" s="161"/>
-      <c r="L2" s="156" t="s">
+      <c r="K2" s="179"/>
+      <c r="L2" s="174" t="s">
         <v>87</v>
       </c>
     </row>
     <row r="3" spans="1:12" s="5" customFormat="1" ht="27" customHeight="1">
-      <c r="A3" s="156"/>
-      <c r="B3" s="156" t="s">
+      <c r="A3" s="174"/>
+      <c r="B3" s="174" t="s">
         <v>2</v>
       </c>
       <c r="C3" s="3" t="s">
@@ -2144,14 +2201,14 @@
       <c r="H3" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="I3" s="156"/>
+      <c r="I3" s="174"/>
       <c r="J3" s="4" t="s">
         <v>13</v>
       </c>
       <c r="K3" s="124" t="s">
         <v>14</v>
       </c>
-      <c r="L3" s="156"/>
+      <c r="L3" s="174"/>
     </row>
     <row r="4" spans="1:12" s="10" customFormat="1" ht="18" customHeight="1">
       <c r="A4" s="6">
@@ -2183,10 +2240,10 @@
       <c r="I4" s="7">
         <v>42595</v>
       </c>
-      <c r="J4" s="162">
+      <c r="J4" s="166">
         <v>42626</v>
       </c>
-      <c r="K4" s="164">
+      <c r="K4" s="173">
         <v>148188</v>
       </c>
       <c r="L4" s="6" t="s">
@@ -2223,8 +2280,8 @@
       <c r="I5" s="12">
         <v>42595</v>
       </c>
-      <c r="J5" s="163"/>
-      <c r="K5" s="165"/>
+      <c r="J5" s="167"/>
+      <c r="K5" s="168"/>
       <c r="L5" s="6" t="s">
         <v>113</v>
       </c>
@@ -2259,10 +2316,10 @@
       <c r="I6" s="12">
         <v>42604</v>
       </c>
-      <c r="J6" s="163">
+      <c r="J6" s="167">
         <v>42633</v>
       </c>
-      <c r="K6" s="165">
+      <c r="K6" s="168">
         <v>148188</v>
       </c>
       <c r="L6" s="6" t="s">
@@ -2299,8 +2356,8 @@
       <c r="I7" s="12">
         <v>42604</v>
       </c>
-      <c r="J7" s="163"/>
-      <c r="K7" s="165"/>
+      <c r="J7" s="167"/>
+      <c r="K7" s="168"/>
       <c r="L7" s="6" t="s">
         <v>113</v>
       </c>
@@ -2335,10 +2392,10 @@
       <c r="I8" s="12">
         <v>42670</v>
       </c>
-      <c r="J8" s="163">
+      <c r="J8" s="167">
         <v>42685</v>
       </c>
-      <c r="K8" s="165">
+      <c r="K8" s="168">
         <v>145588</v>
       </c>
       <c r="L8" s="6" t="s">
@@ -2375,8 +2432,8 @@
       <c r="I9" s="12">
         <v>42670</v>
       </c>
-      <c r="J9" s="163"/>
-      <c r="K9" s="165"/>
+      <c r="J9" s="167"/>
+      <c r="K9" s="168"/>
       <c r="L9" s="6" t="s">
         <v>86</v>
       </c>
@@ -2409,10 +2466,10 @@
         <v>72800</v>
       </c>
       <c r="I10" s="12"/>
-      <c r="J10" s="162">
+      <c r="J10" s="166">
         <v>42689</v>
       </c>
-      <c r="K10" s="165">
+      <c r="K10" s="168">
         <v>145588</v>
       </c>
       <c r="L10" s="6" t="s">
@@ -2447,8 +2504,8 @@
         <v>72800</v>
       </c>
       <c r="I11" s="12"/>
-      <c r="J11" s="163"/>
-      <c r="K11" s="165"/>
+      <c r="J11" s="167"/>
+      <c r="K11" s="168"/>
       <c r="L11" s="6" t="s">
         <v>86</v>
       </c>
@@ -2480,10 +2537,10 @@
         <v>72800</v>
       </c>
       <c r="I12" s="12"/>
-      <c r="J12" s="166">
+      <c r="J12" s="169">
         <v>42696</v>
       </c>
-      <c r="K12" s="168">
+      <c r="K12" s="171">
         <v>291188</v>
       </c>
       <c r="L12" s="6" t="s">
@@ -2517,8 +2574,8 @@
         <v>72800</v>
       </c>
       <c r="I13" s="12"/>
-      <c r="J13" s="167"/>
-      <c r="K13" s="169"/>
+      <c r="J13" s="170"/>
+      <c r="K13" s="172"/>
       <c r="L13" s="6" t="s">
         <v>113</v>
       </c>
@@ -2550,8 +2607,8 @@
         <v>72800</v>
       </c>
       <c r="I14" s="12"/>
-      <c r="J14" s="167"/>
-      <c r="K14" s="169"/>
+      <c r="J14" s="170"/>
+      <c r="K14" s="172"/>
       <c r="L14" s="6" t="s">
         <v>86</v>
       </c>
@@ -2583,8 +2640,8 @@
         <v>72800</v>
       </c>
       <c r="I15" s="12"/>
-      <c r="J15" s="162"/>
-      <c r="K15" s="164"/>
+      <c r="J15" s="166"/>
+      <c r="K15" s="173"/>
       <c r="L15" s="6" t="s">
         <v>86</v>
       </c>
@@ -2616,10 +2673,10 @@
         <v>72800</v>
       </c>
       <c r="I16" s="12"/>
-      <c r="J16" s="162">
+      <c r="J16" s="166">
         <v>42699</v>
       </c>
-      <c r="K16" s="165">
+      <c r="K16" s="168">
         <v>145588</v>
       </c>
       <c r="L16" s="6" t="s">
@@ -2653,8 +2710,8 @@
         <v>72800</v>
       </c>
       <c r="I17" s="12"/>
-      <c r="J17" s="163"/>
-      <c r="K17" s="165"/>
+      <c r="J17" s="167"/>
+      <c r="K17" s="168"/>
       <c r="L17" s="6" t="s">
         <v>113</v>
       </c>
@@ -2687,11 +2744,11 @@
         <v>72800</v>
       </c>
       <c r="I18" s="12"/>
-      <c r="J18" s="162">
+      <c r="J18" s="166">
         <v>42702</v>
       </c>
-      <c r="K18" s="165">
-        <v>145589</v>
+      <c r="K18" s="168">
+        <v>145588</v>
       </c>
       <c r="L18" s="6" t="s">
         <v>113</v>
@@ -2725,8 +2782,8 @@
         <v>72800</v>
       </c>
       <c r="I19" s="12"/>
-      <c r="J19" s="163"/>
-      <c r="K19" s="165"/>
+      <c r="J19" s="167"/>
+      <c r="K19" s="168"/>
       <c r="L19" s="6" t="s">
         <v>113</v>
       </c>
@@ -2759,8 +2816,12 @@
         <v>72800</v>
       </c>
       <c r="I20" s="12"/>
-      <c r="J20" s="162"/>
-      <c r="K20" s="165"/>
+      <c r="J20" s="169">
+        <v>42709</v>
+      </c>
+      <c r="K20" s="171">
+        <v>291188</v>
+      </c>
       <c r="L20" s="6" t="s">
         <v>113</v>
       </c>
@@ -2793,8 +2854,8 @@
         <v>72800</v>
       </c>
       <c r="I21" s="12"/>
-      <c r="J21" s="163"/>
-      <c r="K21" s="165"/>
+      <c r="J21" s="170"/>
+      <c r="K21" s="172"/>
       <c r="L21" s="6" t="s">
         <v>113</v>
       </c>
@@ -2827,8 +2888,8 @@
         <v>72800</v>
       </c>
       <c r="I22" s="12"/>
-      <c r="J22" s="162"/>
-      <c r="K22" s="165"/>
+      <c r="J22" s="170"/>
+      <c r="K22" s="172"/>
       <c r="L22" s="6" t="s">
         <v>113</v>
       </c>
@@ -2861,8 +2922,8 @@
         <v>72800</v>
       </c>
       <c r="I23" s="12"/>
-      <c r="J23" s="163"/>
-      <c r="K23" s="165"/>
+      <c r="J23" s="166"/>
+      <c r="K23" s="173"/>
       <c r="L23" s="6" t="s">
         <v>113</v>
       </c>
@@ -2894,8 +2955,8 @@
         <v>72800</v>
       </c>
       <c r="I24" s="12"/>
-      <c r="J24" s="162"/>
-      <c r="K24" s="165"/>
+      <c r="J24" s="169"/>
+      <c r="K24" s="171"/>
       <c r="L24" s="6" t="s">
         <v>169</v>
       </c>
@@ -2927,8 +2988,8 @@
         <v>72800</v>
       </c>
       <c r="I25" s="12"/>
-      <c r="J25" s="163"/>
-      <c r="K25" s="165"/>
+      <c r="J25" s="170"/>
+      <c r="K25" s="172"/>
       <c r="L25" s="6" t="s">
         <v>169</v>
       </c>
@@ -2961,8 +3022,8 @@
         <v>72800</v>
       </c>
       <c r="I26" s="12"/>
-      <c r="J26" s="162"/>
-      <c r="K26" s="165"/>
+      <c r="J26" s="170"/>
+      <c r="K26" s="172"/>
       <c r="L26" s="6" t="s">
         <v>113</v>
       </c>
@@ -2995,15 +3056,15 @@
         <v>72800</v>
       </c>
       <c r="I27" s="12"/>
-      <c r="J27" s="163"/>
-      <c r="K27" s="165"/>
+      <c r="J27" s="166"/>
+      <c r="K27" s="173"/>
       <c r="L27" s="6" t="s">
         <v>113</v>
       </c>
     </row>
     <row r="28" spans="1:12" s="10" customFormat="1" ht="18" customHeight="1">
       <c r="A28" s="6">
-        <f t="shared" ref="A28:A31" si="7">IF(B28&lt;&gt;"",ROW()-3,"")</f>
+        <f t="shared" ref="A28:A40" si="7">IF(B28&lt;&gt;"",ROW()-3,"")</f>
         <v>25</v>
       </c>
       <c r="B28" s="12">
@@ -3029,8 +3090,8 @@
         <v>72800</v>
       </c>
       <c r="I28" s="12"/>
-      <c r="J28" s="162"/>
-      <c r="K28" s="165"/>
+      <c r="J28" s="169"/>
+      <c r="K28" s="171"/>
       <c r="L28" s="6" t="s">
         <v>169</v>
       </c>
@@ -3063,8 +3124,8 @@
         <v>72800</v>
       </c>
       <c r="I29" s="12"/>
-      <c r="J29" s="163"/>
-      <c r="K29" s="165"/>
+      <c r="J29" s="170"/>
+      <c r="K29" s="172"/>
       <c r="L29" s="6" t="s">
         <v>113</v>
       </c>
@@ -3097,10 +3158,10 @@
         <v>72800</v>
       </c>
       <c r="I30" s="12"/>
-      <c r="J30" s="162"/>
-      <c r="K30" s="165"/>
+      <c r="J30" s="170"/>
+      <c r="K30" s="172"/>
       <c r="L30" s="6" t="s">
-        <v>182</v>
+        <v>86</v>
       </c>
     </row>
     <row r="31" spans="1:12" s="10" customFormat="1" ht="18" customHeight="1">
@@ -3131,139 +3192,219 @@
         <v>72800</v>
       </c>
       <c r="I31" s="12"/>
-      <c r="J31" s="163"/>
-      <c r="K31" s="165"/>
+      <c r="J31" s="166"/>
+      <c r="K31" s="173"/>
       <c r="L31" s="6" t="s">
-        <v>182</v>
+        <v>86</v>
       </c>
     </row>
     <row r="32" spans="1:12" s="10" customFormat="1" ht="18" customHeight="1">
-      <c r="A32" s="6" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="B32" s="12"/>
+      <c r="A32" s="6">
+        <f t="shared" si="7"/>
+        <v>29</v>
+      </c>
+      <c r="B32" s="12">
+        <v>42706</v>
+      </c>
       <c r="C32" s="11"/>
       <c r="D32" s="11"/>
       <c r="E32" s="11"/>
-      <c r="F32" s="153"/>
-      <c r="G32" s="151"/>
+      <c r="F32" s="8">
+        <v>26000</v>
+      </c>
+      <c r="G32" s="158">
+        <v>2.8</v>
+      </c>
       <c r="H32" s="151">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>72800</v>
       </c>
       <c r="I32" s="150"/>
-      <c r="J32" s="154"/>
-      <c r="K32" s="155"/>
-      <c r="L32" s="11"/>
+      <c r="J32" s="169"/>
+      <c r="K32" s="171"/>
+      <c r="L32" s="6" t="s">
+        <v>113</v>
+      </c>
     </row>
     <row r="33" spans="1:12" s="10" customFormat="1" ht="18" customHeight="1">
-      <c r="A33" s="6"/>
-      <c r="B33" s="150"/>
+      <c r="A33" s="6">
+        <f t="shared" si="7"/>
+        <v>30</v>
+      </c>
+      <c r="B33" s="157">
+        <v>42706</v>
+      </c>
       <c r="C33" s="11"/>
       <c r="D33" s="11"/>
       <c r="E33" s="11"/>
-      <c r="F33" s="153"/>
-      <c r="G33" s="151"/>
-      <c r="H33" s="151"/>
+      <c r="F33" s="8">
+        <v>26000</v>
+      </c>
+      <c r="G33" s="158">
+        <v>2.8</v>
+      </c>
+      <c r="H33" s="156">
+        <f t="shared" si="1"/>
+        <v>72800</v>
+      </c>
       <c r="I33" s="150"/>
-      <c r="J33" s="154"/>
-      <c r="K33" s="155"/>
-      <c r="L33" s="11"/>
+      <c r="J33" s="170"/>
+      <c r="K33" s="172"/>
+      <c r="L33" s="6" t="s">
+        <v>113</v>
+      </c>
     </row>
     <row r="34" spans="1:12" s="10" customFormat="1" ht="18" customHeight="1">
-      <c r="A34" s="6"/>
-      <c r="B34" s="150"/>
+      <c r="A34" s="6">
+        <f t="shared" si="7"/>
+        <v>31</v>
+      </c>
+      <c r="B34" s="157">
+        <v>42706</v>
+      </c>
       <c r="C34" s="11"/>
       <c r="D34" s="11"/>
       <c r="E34" s="11"/>
-      <c r="F34" s="153"/>
-      <c r="G34" s="151"/>
-      <c r="H34" s="151"/>
+      <c r="F34" s="8">
+        <v>26000</v>
+      </c>
+      <c r="G34" s="158">
+        <v>2.8</v>
+      </c>
+      <c r="H34" s="156">
+        <f t="shared" si="1"/>
+        <v>72800</v>
+      </c>
       <c r="I34" s="150"/>
-      <c r="J34" s="154"/>
-      <c r="K34" s="155"/>
-      <c r="L34" s="11"/>
+      <c r="J34" s="170"/>
+      <c r="K34" s="172"/>
+      <c r="L34" s="6" t="s">
+        <v>113</v>
+      </c>
     </row>
     <row r="35" spans="1:12" s="10" customFormat="1" ht="18" customHeight="1">
-      <c r="A35" s="6"/>
-      <c r="B35" s="150"/>
+      <c r="A35" s="6">
+        <f t="shared" si="7"/>
+        <v>32</v>
+      </c>
+      <c r="B35" s="157">
+        <v>42706</v>
+      </c>
       <c r="C35" s="11"/>
       <c r="D35" s="11"/>
       <c r="E35" s="11"/>
-      <c r="F35" s="153"/>
-      <c r="G35" s="151"/>
-      <c r="H35" s="151"/>
+      <c r="F35" s="8">
+        <v>26000</v>
+      </c>
+      <c r="G35" s="158">
+        <v>2.68</v>
+      </c>
+      <c r="H35" s="156">
+        <f t="shared" si="1"/>
+        <v>69680</v>
+      </c>
       <c r="I35" s="150"/>
-      <c r="J35" s="154"/>
-      <c r="K35" s="155"/>
-      <c r="L35" s="11"/>
+      <c r="J35" s="166"/>
+      <c r="K35" s="173"/>
+      <c r="L35" s="6" t="s">
+        <v>113</v>
+      </c>
     </row>
     <row r="36" spans="1:12" s="10" customFormat="1" ht="18" customHeight="1">
-      <c r="A36" s="6"/>
+      <c r="A36" s="6" t="str">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
       <c r="B36" s="150"/>
       <c r="C36" s="11"/>
       <c r="D36" s="11"/>
       <c r="E36" s="11"/>
       <c r="F36" s="153"/>
       <c r="G36" s="151"/>
-      <c r="H36" s="151"/>
+      <c r="H36" s="156">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
       <c r="I36" s="150"/>
       <c r="J36" s="154"/>
       <c r="K36" s="155"/>
       <c r="L36" s="11"/>
     </row>
     <row r="37" spans="1:12" s="10" customFormat="1" ht="18" customHeight="1">
-      <c r="A37" s="6"/>
+      <c r="A37" s="6" t="str">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
       <c r="B37" s="150"/>
       <c r="C37" s="11"/>
       <c r="D37" s="11"/>
       <c r="E37" s="11"/>
       <c r="F37" s="153"/>
       <c r="G37" s="151"/>
-      <c r="H37" s="151"/>
+      <c r="H37" s="156">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
       <c r="I37" s="150"/>
       <c r="J37" s="154"/>
       <c r="K37" s="155"/>
       <c r="L37" s="11"/>
     </row>
     <row r="38" spans="1:12" s="10" customFormat="1" ht="18" customHeight="1">
-      <c r="A38" s="6"/>
+      <c r="A38" s="6" t="str">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
       <c r="B38" s="150"/>
       <c r="C38" s="11"/>
       <c r="D38" s="11"/>
       <c r="E38" s="11"/>
       <c r="F38" s="153"/>
       <c r="G38" s="151"/>
-      <c r="H38" s="151"/>
+      <c r="H38" s="156">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
       <c r="I38" s="150"/>
       <c r="J38" s="154"/>
       <c r="K38" s="155"/>
       <c r="L38" s="11"/>
     </row>
     <row r="39" spans="1:12" s="10" customFormat="1" ht="18" customHeight="1">
-      <c r="A39" s="6"/>
+      <c r="A39" s="6" t="str">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
       <c r="B39" s="150"/>
       <c r="C39" s="11"/>
       <c r="D39" s="11"/>
       <c r="E39" s="11"/>
       <c r="F39" s="153"/>
       <c r="G39" s="151"/>
-      <c r="H39" s="151"/>
+      <c r="H39" s="156">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
       <c r="I39" s="150"/>
       <c r="J39" s="154"/>
       <c r="K39" s="155"/>
       <c r="L39" s="11"/>
     </row>
     <row r="40" spans="1:12" s="10" customFormat="1" ht="18" customHeight="1">
-      <c r="A40" s="6"/>
+      <c r="A40" s="6" t="str">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
       <c r="B40" s="150"/>
       <c r="C40" s="11"/>
       <c r="D40" s="11"/>
       <c r="E40" s="11"/>
       <c r="F40" s="153"/>
       <c r="G40" s="151"/>
-      <c r="H40" s="151"/>
+      <c r="H40" s="156">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
       <c r="I40" s="150"/>
       <c r="J40" s="154"/>
       <c r="K40" s="155"/>
@@ -3280,7 +3421,7 @@
       <c r="E41" s="11"/>
       <c r="F41" s="153"/>
       <c r="G41" s="151"/>
-      <c r="H41" s="151">
+      <c r="H41" s="156">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
@@ -3305,8 +3446,8 @@
         <v>0</v>
       </c>
       <c r="I42" s="150"/>
-      <c r="J42" s="163"/>
-      <c r="K42" s="165"/>
+      <c r="J42" s="167"/>
+      <c r="K42" s="168"/>
       <c r="L42" s="11"/>
     </row>
     <row r="43" spans="1:12" s="10" customFormat="1" ht="18" customHeight="1">
@@ -3325,8 +3466,8 @@
         <v>0</v>
       </c>
       <c r="I43" s="150"/>
-      <c r="J43" s="163"/>
-      <c r="K43" s="165"/>
+      <c r="J43" s="167"/>
+      <c r="K43" s="168"/>
       <c r="L43" s="11"/>
     </row>
     <row r="44" spans="1:12" s="10" customFormat="1" ht="9" customHeight="1">
@@ -3344,53 +3485,32 @@
       <c r="L44" s="13"/>
     </row>
     <row r="45" spans="1:12" s="2" customFormat="1" ht="18" customHeight="1">
-      <c r="A45" s="157" t="s">
+      <c r="A45" s="175" t="s">
         <v>24</v>
       </c>
-      <c r="B45" s="158"/>
-      <c r="C45" s="158"/>
-      <c r="D45" s="158"/>
-      <c r="E45" s="159"/>
+      <c r="B45" s="176"/>
+      <c r="C45" s="176"/>
+      <c r="D45" s="176"/>
+      <c r="E45" s="177"/>
       <c r="F45" s="18">
         <f t="shared" ref="F45" si="9">SUM(F4:F44)</f>
-        <v>728000</v>
+        <v>832000</v>
       </c>
       <c r="G45" s="19"/>
       <c r="H45" s="19">
         <f>SUM(H4:H44)</f>
-        <v>2043600</v>
+        <v>2331680</v>
       </c>
       <c r="I45" s="4"/>
       <c r="J45" s="4"/>
       <c r="K45" s="19">
         <f>SUM(K4:K44)</f>
-        <v>1169917</v>
+        <v>1461104</v>
       </c>
       <c r="L45" s="19"/>
     </row>
   </sheetData>
-  <mergeCells count="37">
-    <mergeCell ref="J26:J27"/>
-    <mergeCell ref="K26:K27"/>
-    <mergeCell ref="J18:J19"/>
-    <mergeCell ref="K18:K19"/>
-    <mergeCell ref="J20:J21"/>
-    <mergeCell ref="K20:K21"/>
-    <mergeCell ref="J22:J23"/>
-    <mergeCell ref="K22:K23"/>
-    <mergeCell ref="J24:J25"/>
-    <mergeCell ref="K24:K25"/>
-    <mergeCell ref="J42:J43"/>
-    <mergeCell ref="K42:K43"/>
-    <mergeCell ref="J28:J29"/>
-    <mergeCell ref="K28:K29"/>
-    <mergeCell ref="J30:J31"/>
-    <mergeCell ref="K30:K31"/>
-    <mergeCell ref="K16:K17"/>
-    <mergeCell ref="J10:J11"/>
-    <mergeCell ref="J16:J17"/>
-    <mergeCell ref="J12:J15"/>
-    <mergeCell ref="K12:K15"/>
+  <mergeCells count="33">
     <mergeCell ref="L2:L3"/>
     <mergeCell ref="A45:E45"/>
     <mergeCell ref="A1:K1"/>
@@ -3407,6 +3527,23 @@
     <mergeCell ref="K6:K7"/>
     <mergeCell ref="K8:K9"/>
     <mergeCell ref="K10:K11"/>
+    <mergeCell ref="K16:K17"/>
+    <mergeCell ref="J10:J11"/>
+    <mergeCell ref="J16:J17"/>
+    <mergeCell ref="J12:J15"/>
+    <mergeCell ref="K12:K15"/>
+    <mergeCell ref="J42:J43"/>
+    <mergeCell ref="K42:K43"/>
+    <mergeCell ref="J32:J35"/>
+    <mergeCell ref="K32:K35"/>
+    <mergeCell ref="J28:J31"/>
+    <mergeCell ref="K28:K31"/>
+    <mergeCell ref="J18:J19"/>
+    <mergeCell ref="K18:K19"/>
+    <mergeCell ref="J20:J23"/>
+    <mergeCell ref="K20:K23"/>
+    <mergeCell ref="J24:J27"/>
+    <mergeCell ref="K24:K27"/>
   </mergeCells>
   <pageMargins left="0.16" right="0.16" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="landscape" r:id="rId1"/>
@@ -3443,13 +3580,13 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" ht="47.25" customHeight="1">
-      <c r="A1" s="170" t="s">
+      <c r="A1" s="180" t="s">
         <v>25</v>
       </c>
-      <c r="B1" s="170"/>
-      <c r="C1" s="170"/>
-      <c r="D1" s="170"/>
-      <c r="E1" s="170"/>
+      <c r="B1" s="180"/>
+      <c r="C1" s="180"/>
+      <c r="D1" s="180"/>
+      <c r="E1" s="180"/>
       <c r="F1" s="20"/>
       <c r="G1" s="21"/>
       <c r="H1" s="21"/>
@@ -4434,10 +4571,10 @@
   <sheetPr>
     <tabColor indexed="31"/>
   </sheetPr>
-  <dimension ref="A1:O211"/>
+  <dimension ref="A1:O234"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A155" workbookViewId="0">
-      <selection activeCell="D168" sqref="D168"/>
+    <sheetView tabSelected="1" topLeftCell="A115" workbookViewId="0">
+      <selection activeCell="F199" sqref="F199:I199"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="16.5"/>
@@ -4458,13 +4595,13 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:15" ht="43.5" customHeight="1">
-      <c r="A1" s="170" t="s">
+      <c r="A1" s="180" t="s">
         <v>82</v>
       </c>
-      <c r="B1" s="170"/>
-      <c r="C1" s="170"/>
-      <c r="D1" s="170"/>
-      <c r="E1" s="170"/>
+      <c r="B1" s="180"/>
+      <c r="C1" s="180"/>
+      <c r="D1" s="180"/>
+      <c r="E1" s="180"/>
       <c r="F1" s="107"/>
       <c r="G1" s="21"/>
       <c r="H1" s="21"/>
@@ -5041,13 +5178,13 @@
       <c r="N19" s="24"/>
     </row>
     <row r="21" spans="1:15" ht="43.5" customHeight="1">
-      <c r="A21" s="170" t="s">
+      <c r="A21" s="180" t="s">
         <v>102</v>
       </c>
-      <c r="B21" s="170"/>
-      <c r="C21" s="170"/>
-      <c r="D21" s="170"/>
-      <c r="E21" s="170"/>
+      <c r="B21" s="180"/>
+      <c r="C21" s="180"/>
+      <c r="D21" s="180"/>
+      <c r="E21" s="180"/>
       <c r="F21" s="107"/>
       <c r="G21" s="21"/>
       <c r="H21" s="21"/>
@@ -5306,13 +5443,13 @@
     </row>
     <row r="31" spans="1:15" ht="26.25" customHeight="1"/>
     <row r="32" spans="1:15" ht="43.5" customHeight="1">
-      <c r="A32" s="170" t="s">
+      <c r="A32" s="180" t="s">
         <v>83</v>
       </c>
-      <c r="B32" s="170"/>
-      <c r="C32" s="170"/>
-      <c r="D32" s="170"/>
-      <c r="E32" s="170"/>
+      <c r="B32" s="180"/>
+      <c r="C32" s="180"/>
+      <c r="D32" s="180"/>
+      <c r="E32" s="180"/>
       <c r="F32" s="107"/>
       <c r="G32" s="21"/>
       <c r="H32" s="21"/>
@@ -6098,13 +6235,13 @@
       <c r="F53" s="24"/>
     </row>
     <row r="55" spans="1:15" ht="43.5" customHeight="1">
-      <c r="A55" s="170" t="s">
+      <c r="A55" s="180" t="s">
         <v>114</v>
       </c>
-      <c r="B55" s="170"/>
-      <c r="C55" s="170"/>
-      <c r="D55" s="170"/>
-      <c r="E55" s="170"/>
+      <c r="B55" s="180"/>
+      <c r="C55" s="180"/>
+      <c r="D55" s="180"/>
+      <c r="E55" s="180"/>
       <c r="F55" s="107"/>
       <c r="G55" s="21"/>
       <c r="H55" s="21"/>
@@ -6850,11 +6987,11 @@
       <c r="A77" s="92" t="s">
         <v>1</v>
       </c>
-      <c r="B77" s="186" t="s">
+      <c r="B77" s="193" t="s">
         <v>26</v>
       </c>
-      <c r="C77" s="186"/>
-      <c r="D77" s="186"/>
+      <c r="C77" s="193"/>
+      <c r="D77" s="193"/>
       <c r="E77" s="127" t="s">
         <v>12</v>
       </c>
@@ -6871,11 +7008,11 @@
       <c r="A78" s="75">
         <v>1</v>
       </c>
-      <c r="B78" s="187" t="s">
+      <c r="B78" s="194" t="s">
         <v>118</v>
       </c>
-      <c r="C78" s="187"/>
-      <c r="D78" s="187"/>
+      <c r="C78" s="194"/>
+      <c r="D78" s="194"/>
       <c r="E78" s="135">
         <f>E17</f>
         <v>106334296</v>
@@ -6893,11 +7030,11 @@
       <c r="A79" s="79">
         <v>2</v>
       </c>
-      <c r="B79" s="188" t="s">
+      <c r="B79" s="195" t="s">
         <v>119</v>
       </c>
-      <c r="C79" s="188"/>
-      <c r="D79" s="188"/>
+      <c r="C79" s="195"/>
+      <c r="D79" s="195"/>
       <c r="E79" s="82">
         <f>E28</f>
         <v>5087260</v>
@@ -6915,11 +7052,11 @@
       <c r="A80" s="79">
         <v>3</v>
       </c>
-      <c r="B80" s="188" t="s">
+      <c r="B80" s="195" t="s">
         <v>120</v>
       </c>
-      <c r="C80" s="188"/>
-      <c r="D80" s="188"/>
+      <c r="C80" s="195"/>
+      <c r="D80" s="195"/>
       <c r="E80" s="82">
         <f>E51</f>
         <v>300173928</v>
@@ -6937,11 +7074,11 @@
       <c r="A81" s="79">
         <v>4</v>
       </c>
-      <c r="B81" s="188" t="s">
+      <c r="B81" s="195" t="s">
         <v>121</v>
       </c>
-      <c r="C81" s="188"/>
-      <c r="D81" s="188"/>
+      <c r="C81" s="195"/>
+      <c r="D81" s="195"/>
       <c r="E81" s="82">
         <f>E73</f>
         <v>210184716</v>
@@ -6957,9 +7094,9 @@
     </row>
     <row r="82" spans="1:14" s="128" customFormat="1" ht="10.5" customHeight="1">
       <c r="A82" s="86"/>
-      <c r="B82" s="189"/>
-      <c r="C82" s="189"/>
-      <c r="D82" s="189"/>
+      <c r="B82" s="196"/>
+      <c r="C82" s="196"/>
+      <c r="D82" s="196"/>
       <c r="E82" s="99"/>
       <c r="G82" s="129"/>
       <c r="H82" s="129"/>
@@ -6972,11 +7109,11 @@
     </row>
     <row r="83" spans="1:14" s="128" customFormat="1" ht="16.5" customHeight="1">
       <c r="A83" s="89"/>
-      <c r="B83" s="190" t="s">
+      <c r="B83" s="197" t="s">
         <v>62</v>
       </c>
-      <c r="C83" s="190"/>
-      <c r="D83" s="190"/>
+      <c r="C83" s="197"/>
+      <c r="D83" s="197"/>
       <c r="E83" s="91">
         <f>SUM(E78:E82)</f>
         <v>621780200</v>
@@ -7012,11 +7149,11 @@
       <c r="E85" s="127" t="s">
         <v>12</v>
       </c>
-      <c r="F85" s="177" t="s">
+      <c r="F85" s="190" t="s">
         <v>122</v>
       </c>
-      <c r="G85" s="178"/>
-      <c r="H85" s="179"/>
+      <c r="G85" s="191"/>
+      <c r="H85" s="192"/>
       <c r="I85" s="127" t="s">
         <v>57</v>
       </c>
@@ -7038,9 +7175,9 @@
         <f>C86*D86</f>
         <v>3244428580</v>
       </c>
-      <c r="F86" s="174"/>
-      <c r="G86" s="175"/>
-      <c r="H86" s="176"/>
+      <c r="F86" s="187"/>
+      <c r="G86" s="188"/>
+      <c r="H86" s="189"/>
       <c r="I86" s="82"/>
     </row>
     <row r="87" spans="1:14">
@@ -7056,12 +7193,12 @@
         <f t="shared" ref="E87" si="28">C87*D87</f>
         <v>0</v>
       </c>
-      <c r="F87" s="174">
+      <c r="F87" s="187">
         <f>I87*0.033%</f>
         <v>688392.54</v>
       </c>
-      <c r="G87" s="175"/>
-      <c r="H87" s="176"/>
+      <c r="G87" s="188"/>
+      <c r="H87" s="189"/>
       <c r="I87" s="82">
         <v>2086038000</v>
       </c>
@@ -7079,12 +7216,12 @@
         <f>C88*D88</f>
         <v>0</v>
       </c>
-      <c r="F88" s="174">
+      <c r="F88" s="187">
         <f>I84*0.033%</f>
         <v>176854.25586180002</v>
       </c>
-      <c r="G88" s="175"/>
-      <c r="H88" s="176"/>
+      <c r="G88" s="188"/>
+      <c r="H88" s="189"/>
       <c r="I88" s="82">
         <f>I84-F88</f>
         <v>535745133.20413822</v>
@@ -7096,9 +7233,9 @@
       <c r="C89" s="137"/>
       <c r="D89" s="134"/>
       <c r="E89" s="134"/>
-      <c r="F89" s="183"/>
-      <c r="G89" s="184"/>
-      <c r="H89" s="185"/>
+      <c r="F89" s="181"/>
+      <c r="G89" s="182"/>
+      <c r="H89" s="183"/>
       <c r="I89" s="134"/>
     </row>
     <row r="90" spans="1:14">
@@ -7112,12 +7249,12 @@
         <f>SUM(E86:E89)</f>
         <v>3244428580</v>
       </c>
-      <c r="F90" s="171">
+      <c r="F90" s="184">
         <f>SUM(F86:H89)</f>
         <v>865246.79586180008</v>
       </c>
-      <c r="G90" s="172"/>
-      <c r="H90" s="173"/>
+      <c r="G90" s="185"/>
+      <c r="H90" s="186"/>
       <c r="I90" s="91">
         <f>SUM(I86:I89)</f>
         <v>2621783133.2041383</v>
@@ -7146,11 +7283,11 @@
       <c r="E92" s="127" t="s">
         <v>12</v>
       </c>
-      <c r="F92" s="177" t="s">
+      <c r="F92" s="190" t="s">
         <v>122</v>
       </c>
-      <c r="G92" s="178"/>
-      <c r="H92" s="179"/>
+      <c r="G92" s="191"/>
+      <c r="H92" s="192"/>
       <c r="I92" s="127" t="s">
         <v>57</v>
       </c>
@@ -7172,9 +7309,9 @@
         <f>C93*D93</f>
         <v>3245156520</v>
       </c>
-      <c r="F93" s="180"/>
-      <c r="G93" s="181"/>
-      <c r="H93" s="182"/>
+      <c r="F93" s="198"/>
+      <c r="G93" s="199"/>
+      <c r="H93" s="200"/>
       <c r="I93" s="82"/>
     </row>
     <row r="94" spans="1:14">
@@ -7187,11 +7324,11 @@
       <c r="C94" s="82"/>
       <c r="D94" s="82"/>
       <c r="E94" s="82"/>
-      <c r="F94" s="174">
+      <c r="F94" s="187">
         <v>1791144</v>
       </c>
-      <c r="G94" s="175"/>
-      <c r="H94" s="176"/>
+      <c r="G94" s="188"/>
+      <c r="H94" s="189"/>
       <c r="I94" s="82"/>
     </row>
     <row r="95" spans="1:14">
@@ -7207,9 +7344,9 @@
         <f t="shared" ref="E95" si="29">C95*D95</f>
         <v>0</v>
       </c>
-      <c r="F95" s="174"/>
-      <c r="G95" s="175"/>
-      <c r="H95" s="176"/>
+      <c r="F95" s="187"/>
+      <c r="G95" s="188"/>
+      <c r="H95" s="189"/>
       <c r="I95" s="82"/>
     </row>
     <row r="96" spans="1:14">
@@ -7225,11 +7362,11 @@
         <f t="shared" ref="E96:E97" si="30">C96*D96</f>
         <v>0</v>
       </c>
-      <c r="F96" s="174">
+      <c r="F96" s="187">
         <v>357930</v>
       </c>
-      <c r="G96" s="175"/>
-      <c r="H96" s="176"/>
+      <c r="G96" s="188"/>
+      <c r="H96" s="189"/>
       <c r="I96" s="82">
         <v>1084637000</v>
       </c>
@@ -7247,11 +7384,11 @@
         <f t="shared" si="30"/>
         <v>0</v>
       </c>
-      <c r="F97" s="174">
+      <c r="F97" s="187">
         <v>480480</v>
       </c>
-      <c r="G97" s="175"/>
-      <c r="H97" s="176"/>
+      <c r="G97" s="188"/>
+      <c r="H97" s="189"/>
       <c r="I97" s="82">
         <v>1456000000</v>
       </c>
@@ -7269,11 +7406,11 @@
         <f>C98*D98</f>
         <v>0</v>
       </c>
-      <c r="F98" s="174">
+      <c r="F98" s="187">
         <v>231033</v>
       </c>
-      <c r="G98" s="175"/>
-      <c r="H98" s="176"/>
+      <c r="G98" s="188"/>
+      <c r="H98" s="189"/>
       <c r="I98" s="82">
         <f>I101-F98</f>
         <v>699867789</v>
@@ -7285,9 +7422,9 @@
       <c r="C99" s="137"/>
       <c r="D99" s="134"/>
       <c r="E99" s="134"/>
-      <c r="F99" s="183"/>
-      <c r="G99" s="184"/>
-      <c r="H99" s="185"/>
+      <c r="F99" s="181"/>
+      <c r="G99" s="182"/>
+      <c r="H99" s="183"/>
       <c r="I99" s="134"/>
     </row>
     <row r="100" spans="1:15">
@@ -7301,12 +7438,12 @@
         <f>SUM(E93:E99)</f>
         <v>3245156520</v>
       </c>
-      <c r="F100" s="171">
+      <c r="F100" s="184">
         <f>SUM(F93:H99)</f>
         <v>2860587</v>
       </c>
-      <c r="G100" s="172"/>
-      <c r="H100" s="173"/>
+      <c r="G100" s="185"/>
+      <c r="H100" s="186"/>
       <c r="I100" s="91">
         <f>SUM(I93:I99)</f>
         <v>3240504789</v>
@@ -7345,13 +7482,13 @@
       <c r="E104" s="132"/>
     </row>
     <row r="105" spans="1:15" ht="43.5" customHeight="1">
-      <c r="A105" s="170" t="s">
+      <c r="A105" s="180" t="s">
         <v>153</v>
       </c>
-      <c r="B105" s="170"/>
-      <c r="C105" s="170"/>
-      <c r="D105" s="170"/>
-      <c r="E105" s="170"/>
+      <c r="B105" s="180"/>
+      <c r="C105" s="180"/>
+      <c r="D105" s="180"/>
+      <c r="E105" s="180"/>
       <c r="F105" s="107"/>
       <c r="G105" s="21"/>
       <c r="H105" s="21"/>
@@ -7766,7 +7903,7 @@
         <v>42698</v>
       </c>
       <c r="I115" s="75" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="J115" s="75">
         <f t="shared" si="38"/>
@@ -7813,7 +7950,7 @@
         <v>42698</v>
       </c>
       <c r="I116" s="75" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="J116" s="75">
         <f t="shared" si="38"/>
@@ -7860,7 +7997,7 @@
         <v>42702</v>
       </c>
       <c r="I117" s="75" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="J117" s="75">
         <f t="shared" si="38"/>
@@ -8151,11 +8288,11 @@
       <c r="E128" s="127" t="s">
         <v>12</v>
       </c>
-      <c r="F128" s="177" t="s">
+      <c r="F128" s="190" t="s">
         <v>122</v>
       </c>
-      <c r="G128" s="178"/>
-      <c r="H128" s="179"/>
+      <c r="G128" s="191"/>
+      <c r="H128" s="192"/>
       <c r="I128" s="127" t="s">
         <v>57</v>
       </c>
@@ -8177,9 +8314,9 @@
         <f>C129*D129</f>
         <v>6545906240</v>
       </c>
-      <c r="F129" s="174"/>
-      <c r="G129" s="175"/>
-      <c r="H129" s="176"/>
+      <c r="F129" s="187"/>
+      <c r="G129" s="188"/>
+      <c r="H129" s="189"/>
       <c r="I129" s="82"/>
     </row>
     <row r="130" spans="1:9">
@@ -8192,12 +8329,12 @@
       <c r="C130" s="117"/>
       <c r="D130" s="82"/>
       <c r="E130" s="82"/>
-      <c r="F130" s="174">
+      <c r="F130" s="187">
         <f>F94*2</f>
         <v>3582288</v>
       </c>
-      <c r="G130" s="175"/>
-      <c r="H130" s="176"/>
+      <c r="G130" s="188"/>
+      <c r="H130" s="189"/>
       <c r="I130" s="82"/>
     </row>
     <row r="131" spans="1:9">
@@ -8210,11 +8347,11 @@
       <c r="C131" s="82"/>
       <c r="D131" s="82"/>
       <c r="E131" s="82"/>
-      <c r="F131" s="174">
+      <c r="F131" s="187">
         <v>-1791144</v>
       </c>
-      <c r="G131" s="175"/>
-      <c r="H131" s="176"/>
+      <c r="G131" s="188"/>
+      <c r="H131" s="189"/>
       <c r="I131" s="82"/>
     </row>
     <row r="132" spans="1:9">
@@ -8230,12 +8367,12 @@
         <f t="shared" ref="E132:E134" si="43">C132*D132</f>
         <v>0</v>
       </c>
-      <c r="F132" s="174">
+      <c r="F132" s="187">
         <f>ROUND(I132*0.033%,0)</f>
         <v>1450020</v>
       </c>
-      <c r="G132" s="175"/>
-      <c r="H132" s="176"/>
+      <c r="G132" s="188"/>
+      <c r="H132" s="189"/>
       <c r="I132" s="82">
         <v>4394000000</v>
       </c>
@@ -8253,12 +8390,12 @@
         <f t="shared" si="43"/>
         <v>0</v>
       </c>
-      <c r="F133" s="174">
+      <c r="F133" s="187">
         <f>ROUND(I133*0.033%,0)</f>
         <v>133243</v>
       </c>
-      <c r="G133" s="175"/>
-      <c r="H133" s="176"/>
+      <c r="G133" s="188"/>
+      <c r="H133" s="189"/>
       <c r="I133" s="82">
         <v>403767000</v>
       </c>
@@ -8276,12 +8413,12 @@
         <f t="shared" si="43"/>
         <v>0</v>
       </c>
-      <c r="F134" s="174">
+      <c r="F134" s="187">
         <f t="shared" ref="F134" si="44">ROUND(I134*0.033%,0)</f>
         <v>142501</v>
       </c>
-      <c r="G134" s="175"/>
-      <c r="H134" s="176"/>
+      <c r="G134" s="188"/>
+      <c r="H134" s="189"/>
       <c r="I134" s="82">
         <v>431821000</v>
       </c>
@@ -8299,11 +8436,11 @@
         <f>C135*D135</f>
         <v>0</v>
       </c>
-      <c r="F135" s="174">
+      <c r="F135" s="187">
         <v>298421</v>
       </c>
-      <c r="G135" s="175"/>
-      <c r="H135" s="176"/>
+      <c r="G135" s="188"/>
+      <c r="H135" s="189"/>
       <c r="I135" s="82">
         <v>904008247</v>
       </c>
@@ -8314,9 +8451,9 @@
       <c r="C136" s="137"/>
       <c r="D136" s="134"/>
       <c r="E136" s="134"/>
-      <c r="F136" s="183"/>
-      <c r="G136" s="184"/>
-      <c r="H136" s="185"/>
+      <c r="F136" s="181"/>
+      <c r="G136" s="182"/>
+      <c r="H136" s="183"/>
       <c r="I136" s="134"/>
     </row>
     <row r="137" spans="1:9">
@@ -8330,12 +8467,12 @@
         <f>SUM(E129:E136)</f>
         <v>6545906240</v>
       </c>
-      <c r="F137" s="171">
+      <c r="F137" s="184">
         <f>SUM(F129:H136)</f>
         <v>3815329</v>
       </c>
-      <c r="G137" s="172"/>
-      <c r="H137" s="173"/>
+      <c r="G137" s="185"/>
+      <c r="H137" s="186"/>
       <c r="I137" s="91">
         <f>SUM(I129:I136)</f>
         <v>6133596247</v>
@@ -8357,11 +8494,11 @@
       <c r="E139" s="127" t="s">
         <v>12</v>
       </c>
-      <c r="F139" s="177" t="s">
+      <c r="F139" s="190" t="s">
         <v>122</v>
       </c>
-      <c r="G139" s="178"/>
-      <c r="H139" s="179"/>
+      <c r="G139" s="191"/>
+      <c r="H139" s="192"/>
       <c r="I139" s="127" t="s">
         <v>57</v>
       </c>
@@ -8383,9 +8520,9 @@
         <f>C140*D140</f>
         <v>3299024080</v>
       </c>
-      <c r="F140" s="174"/>
-      <c r="G140" s="175"/>
-      <c r="H140" s="176"/>
+      <c r="F140" s="187"/>
+      <c r="G140" s="188"/>
+      <c r="H140" s="189"/>
       <c r="I140" s="82"/>
     </row>
     <row r="141" spans="1:9">
@@ -8398,11 +8535,11 @@
       <c r="C141" s="117"/>
       <c r="D141" s="82"/>
       <c r="E141" s="82"/>
-      <c r="F141" s="174">
+      <c r="F141" s="187">
         <v>1819968</v>
       </c>
-      <c r="G141" s="175"/>
-      <c r="H141" s="176"/>
+      <c r="G141" s="188"/>
+      <c r="H141" s="189"/>
       <c r="I141" s="82"/>
     </row>
     <row r="142" spans="1:9">
@@ -8418,12 +8555,12 @@
         <f t="shared" ref="E142:E144" si="45">C142*D142</f>
         <v>0</v>
       </c>
-      <c r="F142" s="174">
+      <c r="F142" s="187">
         <f>ROUND(I142*0.033%,0)</f>
         <v>475585</v>
       </c>
-      <c r="G142" s="175"/>
-      <c r="H142" s="176"/>
+      <c r="G142" s="188"/>
+      <c r="H142" s="189"/>
       <c r="I142" s="82">
         <v>1441167000</v>
       </c>
@@ -8441,12 +8578,12 @@
         <f t="shared" si="45"/>
         <v>0</v>
       </c>
-      <c r="F143" s="174">
+      <c r="F143" s="187">
         <f>ROUND(I143*0.033%,0)</f>
         <v>178679</v>
       </c>
-      <c r="G143" s="175"/>
-      <c r="H143" s="176"/>
+      <c r="G143" s="188"/>
+      <c r="H143" s="189"/>
       <c r="I143" s="82">
         <v>541450000</v>
       </c>
@@ -8464,17 +8601,17 @@
         <f t="shared" si="45"/>
         <v>0</v>
       </c>
-      <c r="F144" s="174">
+      <c r="F144" s="187">
         <f t="shared" ref="F144" si="46">ROUND(I144*0.033%,0)</f>
         <v>351889</v>
       </c>
-      <c r="G144" s="175"/>
-      <c r="H144" s="176"/>
+      <c r="G144" s="188"/>
+      <c r="H144" s="189"/>
       <c r="I144" s="82">
         <v>1066331000</v>
       </c>
     </row>
-    <row r="145" spans="1:9">
+    <row r="145" spans="1:15">
       <c r="A145" s="79">
         <v>7</v>
       </c>
@@ -8487,27 +8624,27 @@
         <f>C145*D145</f>
         <v>0</v>
       </c>
-      <c r="F145" s="174">
+      <c r="F145" s="187">
         <v>81592</v>
       </c>
-      <c r="G145" s="175"/>
-      <c r="H145" s="176"/>
+      <c r="G145" s="188"/>
+      <c r="H145" s="189"/>
       <c r="I145" s="82">
         <v>247168367</v>
       </c>
     </row>
-    <row r="146" spans="1:9" ht="6" customHeight="1">
+    <row r="146" spans="1:15" ht="6" customHeight="1">
       <c r="A146" s="133"/>
       <c r="B146" s="136"/>
       <c r="C146" s="137"/>
       <c r="D146" s="134"/>
       <c r="E146" s="134"/>
-      <c r="F146" s="183"/>
-      <c r="G146" s="184"/>
-      <c r="H146" s="185"/>
+      <c r="F146" s="181"/>
+      <c r="G146" s="182"/>
+      <c r="H146" s="183"/>
       <c r="I146" s="134"/>
     </row>
-    <row r="147" spans="1:9">
+    <row r="147" spans="1:15">
       <c r="A147" s="89"/>
       <c r="B147" s="89" t="s">
         <v>62</v>
@@ -8518,1701 +8655,2204 @@
         <f>SUM(E140:E146)</f>
         <v>3299024080</v>
       </c>
-      <c r="F147" s="171">
+      <c r="F147" s="184">
         <f>SUM(F140:H146)</f>
         <v>2907713</v>
       </c>
-      <c r="G147" s="172"/>
-      <c r="H147" s="173"/>
+      <c r="G147" s="185"/>
+      <c r="H147" s="186"/>
       <c r="I147" s="91">
         <f>SUM(I140:I146)</f>
         <v>3296116367</v>
       </c>
     </row>
-    <row r="148" spans="1:9" ht="18" customHeight="1">
+    <row r="148" spans="1:15" ht="18" customHeight="1">
       <c r="I148" s="145"/>
     </row>
-    <row r="149" spans="1:9" ht="31.5" customHeight="1">
-      <c r="A149" s="92" t="s">
+    <row r="149" spans="1:15">
+      <c r="I149" s="145"/>
+    </row>
+    <row r="150" spans="1:15" ht="43.5" customHeight="1">
+      <c r="A150" s="180" t="s">
+        <v>196</v>
+      </c>
+      <c r="B150" s="180"/>
+      <c r="C150" s="180"/>
+      <c r="D150" s="180"/>
+      <c r="E150" s="180"/>
+      <c r="F150" s="107"/>
+      <c r="G150" s="21"/>
+      <c r="H150" s="21"/>
+    </row>
+    <row r="151" spans="1:15" s="44" customFormat="1" ht="17.25" customHeight="1">
+      <c r="B151" s="59"/>
+      <c r="C151" s="114"/>
+      <c r="D151" s="106"/>
+      <c r="E151" s="120"/>
+      <c r="F151" s="63"/>
+      <c r="G151" s="64" t="s">
+        <v>34</v>
+      </c>
+      <c r="I151" s="111"/>
+    </row>
+    <row r="152" spans="1:15" s="104" customFormat="1" ht="36.75" customHeight="1">
+      <c r="A152" s="102" t="s">
         <v>1</v>
       </c>
-      <c r="B149" s="152" t="s">
+      <c r="B152" s="102" t="s">
         <v>26</v>
       </c>
-      <c r="C149" s="126" t="s">
-        <v>55</v>
-      </c>
-      <c r="D149" s="127" t="s">
-        <v>56</v>
-      </c>
-      <c r="E149" s="127" t="s">
+      <c r="C152" s="115" t="s">
+        <v>10</v>
+      </c>
+      <c r="D152" s="103" t="s">
+        <v>11</v>
+      </c>
+      <c r="E152" s="68" t="s">
         <v>12</v>
       </c>
-      <c r="F149" s="177" t="s">
-        <v>122</v>
-      </c>
-      <c r="G149" s="178"/>
-      <c r="H149" s="179"/>
-      <c r="I149" s="127" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="150" spans="1:9">
-      <c r="A150" s="79">
+      <c r="G152" s="66" t="s">
+        <v>35</v>
+      </c>
+      <c r="H152" s="66" t="s">
+        <v>36</v>
+      </c>
+      <c r="I152" s="66" t="s">
+        <v>108</v>
+      </c>
+      <c r="J152" s="66" t="s">
+        <v>37</v>
+      </c>
+      <c r="K152" s="66" t="s">
+        <v>88</v>
+      </c>
+      <c r="L152" s="65" t="s">
+        <v>38</v>
+      </c>
+      <c r="M152" s="68" t="s">
+        <v>111</v>
+      </c>
+      <c r="N152" s="68" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="153" spans="1:15" ht="18.75" customHeight="1">
+      <c r="A153" s="79">
+        <f>ROW()-152</f>
         <v>1</v>
       </c>
-      <c r="B150" s="80" t="s">
-        <v>183</v>
-      </c>
-      <c r="C150" s="117">
-        <v>145588</v>
-      </c>
-      <c r="D150" s="82">
-        <v>22620</v>
-      </c>
-      <c r="E150" s="82">
-        <f>C150*D150</f>
-        <v>3293200560</v>
-      </c>
-      <c r="F150" s="174"/>
-      <c r="G150" s="175"/>
-      <c r="H150" s="176"/>
-      <c r="I150" s="82"/>
-    </row>
-    <row r="151" spans="1:9">
-      <c r="A151" s="79">
+      <c r="B153" s="70" t="s">
+        <v>40</v>
+      </c>
+      <c r="C153" s="116">
+        <v>208000</v>
+      </c>
+      <c r="D153" s="72">
+        <v>300</v>
+      </c>
+      <c r="E153" s="121">
+        <f t="shared" ref="E153:E156" si="47">C153*D153</f>
+        <v>62400000</v>
+      </c>
+      <c r="G153" s="83">
+        <v>42684</v>
+      </c>
+      <c r="H153" s="83">
+        <v>42702</v>
+      </c>
+      <c r="I153" s="75" t="s">
+        <v>126</v>
+      </c>
+      <c r="J153" s="75">
+        <f t="shared" ref="J153:J163" si="48">IF(H153&lt;&gt;"",H153-G153+1,"")</f>
+        <v>19</v>
+      </c>
+      <c r="K153" s="75">
+        <v>38</v>
+      </c>
+      <c r="L153" s="108">
+        <f t="shared" ref="L153:L164" si="49">K153*13</f>
+        <v>494</v>
+      </c>
+      <c r="M153" s="77">
+        <v>20000</v>
+      </c>
+      <c r="N153" s="77">
+        <f t="shared" ref="N153:N164" si="50">IF(J153&lt;&gt;"",M153*L153*J153/1000,"")</f>
+        <v>187720</v>
+      </c>
+      <c r="O153" s="78"/>
+    </row>
+    <row r="154" spans="1:15" ht="18.75" customHeight="1">
+      <c r="A154" s="79">
+        <f t="shared" ref="A154:A167" si="51">ROW()-152</f>
         <v>2</v>
       </c>
-      <c r="B151" s="80" t="s">
-        <v>129</v>
-      </c>
-      <c r="C151" s="117"/>
-      <c r="D151" s="82"/>
-      <c r="E151" s="82"/>
-      <c r="F151" s="174">
-        <v>1825573</v>
-      </c>
-      <c r="G151" s="175"/>
-      <c r="H151" s="176"/>
-      <c r="I151" s="82"/>
-    </row>
-    <row r="152" spans="1:9">
-      <c r="A152" s="79">
+      <c r="B154" s="80" t="s">
+        <v>42</v>
+      </c>
+      <c r="C154" s="117">
+        <v>8</v>
+      </c>
+      <c r="D154" s="82">
+        <v>2000000</v>
+      </c>
+      <c r="E154" s="122">
+        <f t="shared" si="47"/>
+        <v>16000000</v>
+      </c>
+      <c r="G154" s="83">
+        <v>42684</v>
+      </c>
+      <c r="H154" s="83">
+        <v>42702</v>
+      </c>
+      <c r="I154" s="75" t="s">
+        <v>127</v>
+      </c>
+      <c r="J154" s="75">
+        <f t="shared" si="48"/>
+        <v>19</v>
+      </c>
+      <c r="K154" s="75">
+        <v>400</v>
+      </c>
+      <c r="L154" s="108">
+        <f t="shared" si="49"/>
+        <v>5200</v>
+      </c>
+      <c r="M154" s="77">
+        <v>20000</v>
+      </c>
+      <c r="N154" s="77">
+        <f t="shared" si="50"/>
+        <v>1976000</v>
+      </c>
+      <c r="O154" s="78"/>
+    </row>
+    <row r="155" spans="1:15" ht="18.75" customHeight="1">
+      <c r="A155" s="79">
+        <f t="shared" si="51"/>
+        <v>3</v>
+      </c>
+      <c r="B155" s="80" t="s">
+        <v>43</v>
+      </c>
+      <c r="C155" s="117">
+        <v>8</v>
+      </c>
+      <c r="D155" s="82">
+        <v>2000000</v>
+      </c>
+      <c r="E155" s="122">
+        <f t="shared" si="47"/>
+        <v>16000000</v>
+      </c>
+      <c r="G155" s="83">
+        <v>42685</v>
+      </c>
+      <c r="H155" s="83">
+        <v>42702</v>
+      </c>
+      <c r="I155" s="75" t="s">
+        <v>130</v>
+      </c>
+      <c r="J155" s="75">
+        <f t="shared" si="48"/>
+        <v>18</v>
+      </c>
+      <c r="K155" s="75">
+        <v>445</v>
+      </c>
+      <c r="L155" s="108">
+        <f t="shared" si="49"/>
+        <v>5785</v>
+      </c>
+      <c r="M155" s="77">
+        <v>20000</v>
+      </c>
+      <c r="N155" s="77">
+        <f t="shared" si="50"/>
+        <v>2082600</v>
+      </c>
+      <c r="O155" s="78"/>
+    </row>
+    <row r="156" spans="1:15" ht="18.75" customHeight="1">
+      <c r="A156" s="79">
+        <f t="shared" si="51"/>
         <v>4</v>
       </c>
-      <c r="B152" s="147" t="s">
-        <v>158</v>
-      </c>
-      <c r="C152" s="82"/>
-      <c r="D152" s="82"/>
-      <c r="E152" s="82">
-        <f t="shared" ref="E152:E153" si="47">C152*D152</f>
-        <v>0</v>
-      </c>
-      <c r="F152" s="174">
-        <f>ROUND(I152*0.033%,0)</f>
-        <v>497640</v>
-      </c>
-      <c r="G152" s="175"/>
-      <c r="H152" s="176"/>
-      <c r="I152" s="82">
-        <v>1508000000</v>
-      </c>
-    </row>
-    <row r="153" spans="1:9">
-      <c r="A153" s="79">
+      <c r="B156" s="80" t="s">
+        <v>44</v>
+      </c>
+      <c r="C156" s="117">
+        <v>8</v>
+      </c>
+      <c r="D156" s="82">
+        <v>600000</v>
+      </c>
+      <c r="E156" s="122">
+        <f t="shared" si="47"/>
+        <v>4800000</v>
+      </c>
+      <c r="G156" s="83"/>
+      <c r="H156" s="83"/>
+      <c r="I156" s="75" t="s">
+        <v>134</v>
+      </c>
+      <c r="J156" s="75" t="str">
+        <f t="shared" si="48"/>
+        <v/>
+      </c>
+      <c r="K156" s="75">
+        <v>-11</v>
+      </c>
+      <c r="L156" s="108">
+        <f t="shared" si="49"/>
+        <v>-143</v>
+      </c>
+      <c r="M156" s="77"/>
+      <c r="N156" s="77" t="str">
+        <f t="shared" si="50"/>
+        <v/>
+      </c>
+      <c r="O156" s="78"/>
+    </row>
+    <row r="157" spans="1:15" ht="18.75" customHeight="1">
+      <c r="A157" s="79">
+        <f t="shared" si="51"/>
         <v>5</v>
       </c>
-      <c r="B153" s="80" t="s">
-        <v>148</v>
-      </c>
-      <c r="C153" s="81"/>
-      <c r="D153" s="82"/>
-      <c r="E153" s="82">
-        <f t="shared" si="47"/>
-        <v>0</v>
-      </c>
-      <c r="F153" s="174">
-        <f>ROUND(I153*0.033%,0)</f>
-        <v>552552</v>
-      </c>
-      <c r="G153" s="175"/>
-      <c r="H153" s="176"/>
-      <c r="I153" s="82">
-        <v>1674400000</v>
-      </c>
-    </row>
-    <row r="154" spans="1:9">
-      <c r="A154" s="79">
+      <c r="B157" s="80" t="s">
+        <v>80</v>
+      </c>
+      <c r="C157" s="117">
+        <v>8</v>
+      </c>
+      <c r="D157" s="82">
+        <f>750*22600</f>
+        <v>16950000</v>
+      </c>
+      <c r="E157" s="122">
+        <f>C157*D157</f>
+        <v>135600000</v>
+      </c>
+      <c r="G157" s="83">
+        <v>42685</v>
+      </c>
+      <c r="H157" s="83">
+        <v>42702</v>
+      </c>
+      <c r="I157" s="75" t="s">
+        <v>92</v>
+      </c>
+      <c r="J157" s="75">
+        <f t="shared" si="48"/>
+        <v>18</v>
+      </c>
+      <c r="K157" s="75">
+        <v>505</v>
+      </c>
+      <c r="L157" s="108">
+        <f t="shared" si="49"/>
+        <v>6565</v>
+      </c>
+      <c r="M157" s="77">
+        <v>20000</v>
+      </c>
+      <c r="N157" s="77">
+        <f t="shared" si="50"/>
+        <v>2363400</v>
+      </c>
+      <c r="O157" s="78"/>
+    </row>
+    <row r="158" spans="1:15" ht="18.75" customHeight="1">
+      <c r="A158" s="79">
+        <f t="shared" si="51"/>
+        <v>6</v>
+      </c>
+      <c r="B158" s="80" t="s">
+        <v>46</v>
+      </c>
+      <c r="C158" s="117">
+        <v>8</v>
+      </c>
+      <c r="D158" s="82">
+        <v>7378778</v>
+      </c>
+      <c r="E158" s="122">
+        <f t="shared" ref="E158:E160" si="52">C158*D158</f>
+        <v>59030224</v>
+      </c>
+      <c r="G158" s="83">
+        <v>42685</v>
+      </c>
+      <c r="H158" s="83">
+        <v>42702</v>
+      </c>
+      <c r="I158" s="75" t="s">
+        <v>131</v>
+      </c>
+      <c r="J158" s="75">
+        <f t="shared" si="48"/>
+        <v>18</v>
+      </c>
+      <c r="K158" s="75">
+        <v>353</v>
+      </c>
+      <c r="L158" s="108">
+        <f t="shared" si="49"/>
+        <v>4589</v>
+      </c>
+      <c r="M158" s="77">
+        <v>20000</v>
+      </c>
+      <c r="N158" s="77">
+        <f t="shared" si="50"/>
+        <v>1652040</v>
+      </c>
+      <c r="O158" s="78"/>
+    </row>
+    <row r="159" spans="1:15" ht="18.75" customHeight="1">
+      <c r="A159" s="79">
+        <f t="shared" si="51"/>
         <v>7</v>
       </c>
-      <c r="B154" s="80" t="s">
-        <v>61</v>
-      </c>
-      <c r="C154" s="81"/>
-      <c r="D154" s="82"/>
-      <c r="E154" s="82">
-        <f>C154*D154</f>
-        <v>0</v>
-      </c>
-      <c r="F154" s="174"/>
-      <c r="G154" s="175"/>
-      <c r="H154" s="176"/>
-      <c r="I154" s="82"/>
-    </row>
-    <row r="155" spans="1:9" ht="6" customHeight="1">
-      <c r="A155" s="133"/>
-      <c r="B155" s="136"/>
-      <c r="C155" s="137"/>
-      <c r="D155" s="134"/>
-      <c r="E155" s="134"/>
-      <c r="F155" s="183"/>
-      <c r="G155" s="184"/>
-      <c r="H155" s="185"/>
-      <c r="I155" s="134"/>
-    </row>
-    <row r="156" spans="1:9">
-      <c r="A156" s="89"/>
-      <c r="B156" s="89" t="s">
-        <v>62</v>
-      </c>
-      <c r="C156" s="90"/>
-      <c r="D156" s="91"/>
-      <c r="E156" s="91">
-        <f>SUM(E150:E155)</f>
-        <v>3293200560</v>
-      </c>
-      <c r="F156" s="171">
-        <f>SUM(F150:H155)</f>
-        <v>2875765</v>
-      </c>
-      <c r="G156" s="172"/>
-      <c r="H156" s="173"/>
-      <c r="I156" s="91">
-        <f>SUM(I150:I155)</f>
-        <v>3182400000</v>
-      </c>
-    </row>
-    <row r="157" spans="1:9">
-      <c r="I157" s="145"/>
-    </row>
-    <row r="158" spans="1:9">
-      <c r="G158" s="22" t="s">
-        <v>192</v>
-      </c>
-      <c r="I158" s="145">
-        <f>E156-F156-I156</f>
-        <v>107924795</v>
-      </c>
-    </row>
-    <row r="159" spans="1:9">
-      <c r="I159" s="145"/>
-    </row>
-    <row r="160" spans="1:9" ht="43.5" customHeight="1">
-      <c r="A160" s="170" t="s">
-        <v>193</v>
-      </c>
-      <c r="B160" s="170"/>
-      <c r="C160" s="170"/>
-      <c r="D160" s="170"/>
-      <c r="E160" s="170"/>
-      <c r="F160" s="107"/>
-      <c r="G160" s="21"/>
-      <c r="H160" s="21"/>
-    </row>
-    <row r="161" spans="1:15" s="44" customFormat="1" ht="17.25" customHeight="1">
-      <c r="B161" s="59"/>
-      <c r="C161" s="114"/>
-      <c r="D161" s="106"/>
-      <c r="E161" s="120"/>
-      <c r="F161" s="63"/>
-      <c r="G161" s="64" t="s">
-        <v>34</v>
-      </c>
-      <c r="I161" s="111"/>
-    </row>
-    <row r="162" spans="1:15" s="104" customFormat="1" ht="36.75" customHeight="1">
-      <c r="A162" s="102" t="s">
-        <v>1</v>
-      </c>
-      <c r="B162" s="102" t="s">
-        <v>26</v>
-      </c>
-      <c r="C162" s="115" t="s">
+      <c r="B159" s="80" t="s">
+        <v>47</v>
+      </c>
+      <c r="C159" s="117">
+        <v>8</v>
+      </c>
+      <c r="D159" s="82">
+        <v>5600000</v>
+      </c>
+      <c r="E159" s="122">
+        <f t="shared" si="52"/>
+        <v>44800000</v>
+      </c>
+      <c r="G159" s="83">
+        <v>42685</v>
+      </c>
+      <c r="H159" s="83">
+        <v>42702</v>
+      </c>
+      <c r="I159" s="75" t="s">
+        <v>132</v>
+      </c>
+      <c r="J159" s="75">
+        <f t="shared" si="48"/>
+        <v>18</v>
+      </c>
+      <c r="K159" s="75">
+        <f>900</f>
+        <v>900</v>
+      </c>
+      <c r="L159" s="108">
+        <f t="shared" si="49"/>
+        <v>11700</v>
+      </c>
+      <c r="M159" s="77">
+        <v>20000</v>
+      </c>
+      <c r="N159" s="77">
+        <f t="shared" si="50"/>
+        <v>4212000</v>
+      </c>
+      <c r="O159" s="78"/>
+    </row>
+    <row r="160" spans="1:15" ht="18.75" customHeight="1">
+      <c r="A160" s="79">
+        <f t="shared" si="51"/>
+        <v>8</v>
+      </c>
+      <c r="B160" s="80" t="s">
+        <v>48</v>
+      </c>
+      <c r="C160" s="117">
+        <v>8</v>
+      </c>
+      <c r="D160" s="82">
+        <f>88*22500</f>
+        <v>1980000</v>
+      </c>
+      <c r="E160" s="122">
+        <f t="shared" si="52"/>
+        <v>15840000</v>
+      </c>
+      <c r="G160" s="83">
+        <v>42685</v>
+      </c>
+      <c r="H160" s="83">
+        <v>42702</v>
+      </c>
+      <c r="I160" s="75" t="s">
+        <v>133</v>
+      </c>
+      <c r="J160" s="75">
+        <f t="shared" si="48"/>
+        <v>18</v>
+      </c>
+      <c r="K160" s="75">
+        <v>900</v>
+      </c>
+      <c r="L160" s="108">
+        <f t="shared" si="49"/>
+        <v>11700</v>
+      </c>
+      <c r="M160" s="77">
+        <v>20000</v>
+      </c>
+      <c r="N160" s="77">
+        <f t="shared" si="50"/>
+        <v>4212000</v>
+      </c>
+      <c r="O160" s="78"/>
+    </row>
+    <row r="161" spans="1:15" ht="18.75" customHeight="1">
+      <c r="A161" s="79">
+        <f t="shared" si="51"/>
+        <v>9</v>
+      </c>
+      <c r="B161" s="80" t="s">
+        <v>49</v>
+      </c>
+      <c r="C161" s="117">
+        <v>8</v>
+      </c>
+      <c r="D161" s="82">
+        <v>1350000</v>
+      </c>
+      <c r="E161" s="122">
+        <f>C161*D161</f>
+        <v>10800000</v>
+      </c>
+      <c r="G161" s="83">
+        <v>42688</v>
+      </c>
+      <c r="H161" s="83">
+        <v>42702</v>
+      </c>
+      <c r="I161" s="75" t="s">
+        <v>92</v>
+      </c>
+      <c r="J161" s="75">
+        <f t="shared" si="48"/>
+        <v>15</v>
+      </c>
+      <c r="K161" s="75">
+        <v>404</v>
+      </c>
+      <c r="L161" s="108">
+        <f t="shared" si="49"/>
+        <v>5252</v>
+      </c>
+      <c r="M161" s="77">
+        <v>20000</v>
+      </c>
+      <c r="N161" s="77">
+        <f t="shared" si="50"/>
+        <v>1575600</v>
+      </c>
+      <c r="O161" s="78"/>
+    </row>
+    <row r="162" spans="1:15" ht="18.75" customHeight="1">
+      <c r="A162" s="79">
+        <f t="shared" si="51"/>
         <v>10</v>
       </c>
-      <c r="D162" s="103" t="s">
-        <v>11</v>
-      </c>
-      <c r="E162" s="68" t="s">
-        <v>12</v>
-      </c>
-      <c r="G162" s="66" t="s">
-        <v>35</v>
-      </c>
-      <c r="H162" s="66" t="s">
-        <v>36</v>
-      </c>
-      <c r="I162" s="66" t="s">
-        <v>108</v>
-      </c>
-      <c r="J162" s="66" t="s">
-        <v>37</v>
-      </c>
-      <c r="K162" s="66" t="s">
-        <v>88</v>
-      </c>
-      <c r="L162" s="65" t="s">
-        <v>38</v>
-      </c>
-      <c r="M162" s="68" t="s">
-        <v>111</v>
-      </c>
-      <c r="N162" s="68" t="s">
-        <v>12</v>
-      </c>
+      <c r="B162" s="80" t="s">
+        <v>84</v>
+      </c>
+      <c r="C162" s="117">
+        <v>8</v>
+      </c>
+      <c r="D162" s="82">
+        <v>2500000</v>
+      </c>
+      <c r="E162" s="122">
+        <f t="shared" ref="E162" si="53">C162*D162</f>
+        <v>20000000</v>
+      </c>
+      <c r="G162" s="83">
+        <v>42693</v>
+      </c>
+      <c r="H162" s="83"/>
+      <c r="I162" s="75" t="s">
+        <v>154</v>
+      </c>
+      <c r="J162" s="75" t="str">
+        <f t="shared" si="48"/>
+        <v/>
+      </c>
+      <c r="K162" s="75">
+        <v>-34</v>
+      </c>
+      <c r="L162" s="108">
+        <f t="shared" si="49"/>
+        <v>-442</v>
+      </c>
+      <c r="M162" s="77"/>
+      <c r="N162" s="77" t="str">
+        <f t="shared" si="50"/>
+        <v/>
+      </c>
+      <c r="O162" s="78"/>
     </row>
     <row r="163" spans="1:15" ht="18.75" customHeight="1">
       <c r="A163" s="79">
-        <f>ROW()-162</f>
+        <f t="shared" si="51"/>
+        <v>11</v>
+      </c>
+      <c r="B163" s="80" t="s">
+        <v>50</v>
+      </c>
+      <c r="C163" s="117">
+        <v>208</v>
+      </c>
+      <c r="D163" s="82">
+        <v>50000</v>
+      </c>
+      <c r="E163" s="122">
+        <f>C163*D163</f>
+        <v>10400000</v>
+      </c>
+      <c r="G163" s="83">
+        <v>42699</v>
+      </c>
+      <c r="H163" s="83">
+        <v>42702</v>
+      </c>
+      <c r="I163" s="75" t="s">
+        <v>96</v>
+      </c>
+      <c r="J163" s="75">
+        <f t="shared" si="48"/>
+        <v>4</v>
+      </c>
+      <c r="K163" s="75">
+        <v>100</v>
+      </c>
+      <c r="L163" s="108">
+        <f t="shared" si="49"/>
+        <v>1300</v>
+      </c>
+      <c r="M163" s="77">
+        <v>20000</v>
+      </c>
+      <c r="N163" s="77">
+        <f t="shared" si="50"/>
+        <v>104000</v>
+      </c>
+      <c r="O163" s="78"/>
+    </row>
+    <row r="164" spans="1:15" ht="18.75" customHeight="1">
+      <c r="A164" s="79">
+        <f t="shared" si="51"/>
+        <v>12</v>
+      </c>
+      <c r="B164" s="80" t="s">
+        <v>201</v>
+      </c>
+      <c r="C164" s="117">
+        <v>10</v>
+      </c>
+      <c r="D164" s="82">
+        <v>140000</v>
+      </c>
+      <c r="E164" s="122">
+        <f>C164*D164</f>
+        <v>1400000</v>
+      </c>
+      <c r="G164" s="83">
+        <v>42705</v>
+      </c>
+      <c r="H164" s="83">
+        <v>42705</v>
+      </c>
+      <c r="I164" s="75" t="s">
+        <v>193</v>
+      </c>
+      <c r="J164" s="75">
+        <f>IF(H164&lt;&gt;"",H164-G164,"")</f>
+        <v>0</v>
+      </c>
+      <c r="K164" s="75">
+        <v>2000</v>
+      </c>
+      <c r="L164" s="108">
+        <f t="shared" si="49"/>
+        <v>26000</v>
+      </c>
+      <c r="M164" s="77">
+        <v>20000</v>
+      </c>
+      <c r="N164" s="77">
+        <f t="shared" si="50"/>
+        <v>0</v>
+      </c>
+      <c r="O164" s="78"/>
+    </row>
+    <row r="165" spans="1:15" ht="18.75" customHeight="1">
+      <c r="A165" s="79">
+        <f t="shared" si="51"/>
+        <v>13</v>
+      </c>
+      <c r="B165" s="80" t="s">
+        <v>202</v>
+      </c>
+      <c r="C165" s="117">
+        <v>10</v>
+      </c>
+      <c r="D165" s="82">
+        <v>110000</v>
+      </c>
+      <c r="E165" s="122">
+        <f t="shared" ref="E165:E166" si="54">C165*D165</f>
+        <v>1100000</v>
+      </c>
+      <c r="G165" s="83">
+        <v>42705</v>
+      </c>
+      <c r="H165" s="83">
+        <v>42705</v>
+      </c>
+      <c r="I165" s="75" t="s">
+        <v>194</v>
+      </c>
+      <c r="J165" s="75">
+        <f t="shared" ref="J165:J166" si="55">IF(H165&lt;&gt;"",H165-G165,"")</f>
+        <v>0</v>
+      </c>
+      <c r="K165" s="75">
+        <v>2000</v>
+      </c>
+      <c r="L165" s="108">
+        <f t="shared" ref="L165:L171" si="56">K165*13</f>
+        <v>26000</v>
+      </c>
+      <c r="M165" s="77">
+        <v>20000</v>
+      </c>
+      <c r="N165" s="77">
+        <f t="shared" ref="N165:N171" si="57">IF(J165&lt;&gt;"",M165*L165*J165/1000,"")</f>
+        <v>0</v>
+      </c>
+      <c r="O165" s="78"/>
+    </row>
+    <row r="166" spans="1:15" ht="18.75" customHeight="1">
+      <c r="A166" s="79">
+        <f t="shared" si="51"/>
+        <v>14</v>
+      </c>
+      <c r="B166" s="80" t="s">
+        <v>203</v>
+      </c>
+      <c r="C166" s="117">
+        <v>10</v>
+      </c>
+      <c r="D166" s="82">
+        <v>110000</v>
+      </c>
+      <c r="E166" s="122">
+        <f t="shared" si="54"/>
+        <v>1100000</v>
+      </c>
+      <c r="G166" s="83">
+        <v>42705</v>
+      </c>
+      <c r="H166" s="83">
+        <v>42705</v>
+      </c>
+      <c r="I166" s="75" t="s">
+        <v>195</v>
+      </c>
+      <c r="J166" s="75">
+        <f t="shared" si="55"/>
+        <v>0</v>
+      </c>
+      <c r="K166" s="75">
+        <v>1999</v>
+      </c>
+      <c r="L166" s="108">
+        <f t="shared" si="56"/>
+        <v>25987</v>
+      </c>
+      <c r="M166" s="77">
+        <v>20000</v>
+      </c>
+      <c r="N166" s="77">
+        <f t="shared" si="57"/>
+        <v>0</v>
+      </c>
+      <c r="O166" s="78"/>
+    </row>
+    <row r="167" spans="1:15" ht="18.75" customHeight="1">
+      <c r="A167" s="79">
+        <f t="shared" si="51"/>
+        <v>15</v>
+      </c>
+      <c r="B167" s="80" t="s">
+        <v>51</v>
+      </c>
+      <c r="C167" s="117"/>
+      <c r="D167" s="82"/>
+      <c r="E167" s="122">
+        <f>N173</f>
+        <v>21434660</v>
+      </c>
+      <c r="G167" s="83">
+        <v>42699</v>
+      </c>
+      <c r="H167" s="83">
+        <v>42706</v>
+      </c>
+      <c r="I167" s="75" t="s">
+        <v>96</v>
+      </c>
+      <c r="J167" s="75">
+        <f t="shared" ref="J167:J171" si="58">IF(H167&lt;&gt;"",H167-G167+1,"")</f>
+        <v>8</v>
+      </c>
+      <c r="K167" s="75">
+        <v>200</v>
+      </c>
+      <c r="L167" s="108">
+        <f t="shared" si="56"/>
+        <v>2600</v>
+      </c>
+      <c r="M167" s="77">
+        <v>20000</v>
+      </c>
+      <c r="N167" s="77">
+        <f t="shared" si="57"/>
+        <v>416000</v>
+      </c>
+      <c r="O167" s="78"/>
+    </row>
+    <row r="168" spans="1:15" ht="18.75" customHeight="1">
+      <c r="A168" s="79"/>
+      <c r="B168" s="80"/>
+      <c r="C168" s="117"/>
+      <c r="D168" s="82"/>
+      <c r="E168" s="122"/>
+      <c r="G168" s="83">
+        <v>42699</v>
+      </c>
+      <c r="H168" s="83">
+        <v>42706</v>
+      </c>
+      <c r="I168" s="75" t="s">
+        <v>89</v>
+      </c>
+      <c r="J168" s="75">
+        <f t="shared" si="58"/>
+        <v>8</v>
+      </c>
+      <c r="K168" s="75">
+        <v>400</v>
+      </c>
+      <c r="L168" s="108">
+        <f t="shared" si="56"/>
+        <v>5200</v>
+      </c>
+      <c r="M168" s="77">
+        <v>20000</v>
+      </c>
+      <c r="N168" s="77">
+        <f t="shared" si="57"/>
+        <v>832000</v>
+      </c>
+      <c r="O168" s="78"/>
+    </row>
+    <row r="169" spans="1:15" ht="18.75" customHeight="1">
+      <c r="A169" s="79"/>
+      <c r="B169" s="80"/>
+      <c r="C169" s="117"/>
+      <c r="D169" s="82"/>
+      <c r="E169" s="122"/>
+      <c r="G169" s="83">
+        <v>42702</v>
+      </c>
+      <c r="H169" s="83">
+        <v>42706</v>
+      </c>
+      <c r="I169" s="75" t="s">
+        <v>91</v>
+      </c>
+      <c r="J169" s="75">
+        <f t="shared" si="58"/>
+        <v>5</v>
+      </c>
+      <c r="K169" s="75">
+        <v>413</v>
+      </c>
+      <c r="L169" s="108">
+        <f t="shared" si="56"/>
+        <v>5369</v>
+      </c>
+      <c r="M169" s="77">
+        <v>20000</v>
+      </c>
+      <c r="N169" s="77">
+        <f t="shared" si="57"/>
+        <v>536900</v>
+      </c>
+      <c r="O169" s="78"/>
+    </row>
+    <row r="170" spans="1:15" ht="18.75" customHeight="1">
+      <c r="A170" s="79"/>
+      <c r="B170" s="80"/>
+      <c r="C170" s="117"/>
+      <c r="D170" s="82"/>
+      <c r="E170" s="122"/>
+      <c r="G170" s="83">
+        <v>42702</v>
+      </c>
+      <c r="H170" s="83">
+        <v>42706</v>
+      </c>
+      <c r="I170" s="75" t="s">
+        <v>186</v>
+      </c>
+      <c r="J170" s="75">
+        <f t="shared" si="58"/>
+        <v>5</v>
+      </c>
+      <c r="K170" s="75">
+        <v>418</v>
+      </c>
+      <c r="L170" s="108">
+        <f t="shared" si="56"/>
+        <v>5434</v>
+      </c>
+      <c r="M170" s="77">
+        <v>20000</v>
+      </c>
+      <c r="N170" s="77">
+        <f t="shared" si="57"/>
+        <v>543400</v>
+      </c>
+      <c r="O170" s="78"/>
+    </row>
+    <row r="171" spans="1:15" ht="18.75" customHeight="1">
+      <c r="A171" s="79"/>
+      <c r="B171" s="80"/>
+      <c r="C171" s="117"/>
+      <c r="D171" s="82"/>
+      <c r="E171" s="122"/>
+      <c r="G171" s="83">
+        <v>42702</v>
+      </c>
+      <c r="H171" s="83">
+        <v>42706</v>
+      </c>
+      <c r="I171" s="75" t="s">
+        <v>187</v>
+      </c>
+      <c r="J171" s="75">
+        <f t="shared" si="58"/>
+        <v>5</v>
+      </c>
+      <c r="K171" s="75">
+        <f>582-12</f>
+        <v>570</v>
+      </c>
+      <c r="L171" s="108">
+        <f t="shared" si="56"/>
+        <v>7410</v>
+      </c>
+      <c r="M171" s="77">
+        <v>20000</v>
+      </c>
+      <c r="N171" s="77">
+        <f t="shared" si="57"/>
+        <v>741000</v>
+      </c>
+      <c r="O171" s="78"/>
+    </row>
+    <row r="172" spans="1:15" ht="7.5" customHeight="1">
+      <c r="A172" s="79"/>
+      <c r="B172" s="80"/>
+      <c r="C172" s="117"/>
+      <c r="D172" s="82"/>
+      <c r="E172" s="122"/>
+      <c r="G172" s="85"/>
+      <c r="H172" s="85"/>
+      <c r="I172" s="86"/>
+      <c r="J172" s="86"/>
+      <c r="K172" s="86"/>
+      <c r="L172" s="87"/>
+      <c r="M172" s="88"/>
+      <c r="N172" s="88"/>
+    </row>
+    <row r="173" spans="1:15" ht="18.75" customHeight="1">
+      <c r="A173" s="89"/>
+      <c r="B173" s="89" t="s">
+        <v>53</v>
+      </c>
+      <c r="C173" s="118"/>
+      <c r="D173" s="91"/>
+      <c r="E173" s="93">
+        <f>SUM(E153:E172)</f>
+        <v>420704884</v>
+      </c>
+      <c r="F173" s="23"/>
+      <c r="G173" s="92"/>
+      <c r="H173" s="92"/>
+      <c r="I173" s="92" t="s">
+        <v>53</v>
+      </c>
+      <c r="J173" s="92"/>
+      <c r="K173" s="109">
+        <f>SUM(K153:K172)</f>
+        <v>12000</v>
+      </c>
+      <c r="L173" s="109">
+        <f>SUM(L153:L172)</f>
+        <v>156000</v>
+      </c>
+      <c r="M173" s="109"/>
+      <c r="N173" s="93">
+        <f>SUM(N153:N172)</f>
+        <v>21434660</v>
+      </c>
+    </row>
+    <row r="174" spans="1:15" ht="7.5" customHeight="1"/>
+    <row r="175" spans="1:15" s="22" customFormat="1">
+      <c r="A175" s="24"/>
+      <c r="B175" s="24"/>
+      <c r="C175" s="119"/>
+      <c r="D175" s="26" t="s">
+        <v>54</v>
+      </c>
+      <c r="E175" s="123">
+        <f>E173/C153</f>
+        <v>2022.6196346153847</v>
+      </c>
+      <c r="F175" s="24"/>
+    </row>
+    <row r="177" spans="1:14" ht="31.5" customHeight="1">
+      <c r="A177" s="92" t="s">
         <v>1</v>
       </c>
-      <c r="B163" s="70" t="s">
+      <c r="B177" s="152" t="s">
+        <v>26</v>
+      </c>
+      <c r="C177" s="126" t="s">
+        <v>55</v>
+      </c>
+      <c r="D177" s="127" t="s">
+        <v>56</v>
+      </c>
+      <c r="E177" s="127" t="s">
+        <v>12</v>
+      </c>
+      <c r="F177" s="190" t="s">
+        <v>122</v>
+      </c>
+      <c r="G177" s="191"/>
+      <c r="H177" s="192"/>
+      <c r="I177" s="127" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="178" spans="1:14">
+      <c r="A178" s="79">
+        <v>1</v>
+      </c>
+      <c r="B178" s="80" t="s">
+        <v>182</v>
+      </c>
+      <c r="C178" s="117">
+        <v>145588</v>
+      </c>
+      <c r="D178" s="82">
+        <v>22620</v>
+      </c>
+      <c r="E178" s="82">
+        <f>C178*D178</f>
+        <v>3293200560</v>
+      </c>
+      <c r="F178" s="187"/>
+      <c r="G178" s="188"/>
+      <c r="H178" s="189"/>
+      <c r="I178" s="82"/>
+    </row>
+    <row r="179" spans="1:14">
+      <c r="A179" s="79">
+        <v>2</v>
+      </c>
+      <c r="B179" s="80" t="s">
+        <v>129</v>
+      </c>
+      <c r="C179" s="117"/>
+      <c r="D179" s="82"/>
+      <c r="E179" s="82"/>
+      <c r="F179" s="187">
+        <v>1825573</v>
+      </c>
+      <c r="G179" s="188"/>
+      <c r="H179" s="189"/>
+      <c r="I179" s="82"/>
+    </row>
+    <row r="180" spans="1:14">
+      <c r="A180" s="79">
+        <v>3</v>
+      </c>
+      <c r="B180" s="147" t="s">
+        <v>158</v>
+      </c>
+      <c r="C180" s="82"/>
+      <c r="D180" s="82"/>
+      <c r="E180" s="82">
+        <f t="shared" ref="E180:E181" si="59">C180*D180</f>
+        <v>0</v>
+      </c>
+      <c r="F180" s="187">
+        <f>ROUND(I180*0.033%,0)</f>
+        <v>497640</v>
+      </c>
+      <c r="G180" s="188"/>
+      <c r="H180" s="189"/>
+      <c r="I180" s="82">
+        <v>1508000000</v>
+      </c>
+    </row>
+    <row r="181" spans="1:14">
+      <c r="A181" s="79">
+        <v>4</v>
+      </c>
+      <c r="B181" s="80" t="s">
+        <v>148</v>
+      </c>
+      <c r="C181" s="81"/>
+      <c r="D181" s="82"/>
+      <c r="E181" s="82">
+        <f t="shared" si="59"/>
+        <v>0</v>
+      </c>
+      <c r="F181" s="187">
+        <f>ROUND(I181*0.033%,0)</f>
+        <v>552453</v>
+      </c>
+      <c r="G181" s="188"/>
+      <c r="H181" s="189"/>
+      <c r="I181" s="82">
+        <v>1674100000</v>
+      </c>
+    </row>
+    <row r="182" spans="1:14">
+      <c r="A182" s="79">
+        <v>5</v>
+      </c>
+      <c r="B182" s="80" t="s">
+        <v>61</v>
+      </c>
+      <c r="C182" s="81"/>
+      <c r="D182" s="82"/>
+      <c r="E182" s="82">
+        <f>C182*D182</f>
+        <v>0</v>
+      </c>
+      <c r="F182" s="187"/>
+      <c r="G182" s="188"/>
+      <c r="H182" s="189"/>
+      <c r="I182" s="82"/>
+    </row>
+    <row r="183" spans="1:14" ht="6" customHeight="1">
+      <c r="A183" s="133"/>
+      <c r="B183" s="136"/>
+      <c r="C183" s="137"/>
+      <c r="D183" s="134"/>
+      <c r="E183" s="134"/>
+      <c r="F183" s="181"/>
+      <c r="G183" s="182"/>
+      <c r="H183" s="183"/>
+      <c r="I183" s="134"/>
+    </row>
+    <row r="184" spans="1:14">
+      <c r="A184" s="89"/>
+      <c r="B184" s="89" t="s">
+        <v>62</v>
+      </c>
+      <c r="C184" s="90"/>
+      <c r="D184" s="91"/>
+      <c r="E184" s="91">
+        <f>SUM(E178:E183)</f>
+        <v>3293200560</v>
+      </c>
+      <c r="F184" s="184">
+        <f>SUM(F178:H183)</f>
+        <v>2875666</v>
+      </c>
+      <c r="G184" s="185"/>
+      <c r="H184" s="186"/>
+      <c r="I184" s="91">
+        <f>SUM(I178:I183)</f>
+        <v>3182100000</v>
+      </c>
+    </row>
+    <row r="185" spans="1:14" ht="6.75" customHeight="1">
+      <c r="I185" s="145"/>
+    </row>
+    <row r="186" spans="1:14" s="23" customFormat="1">
+      <c r="C186" s="163"/>
+      <c r="D186" s="100"/>
+      <c r="E186" s="164"/>
+      <c r="G186" s="27" t="s">
+        <v>191</v>
+      </c>
+      <c r="H186" s="27"/>
+      <c r="I186" s="165">
+        <f>E184-F184-I184</f>
+        <v>108224894</v>
+      </c>
+      <c r="J186" s="27"/>
+      <c r="K186" s="27"/>
+      <c r="L186" s="27"/>
+      <c r="M186" s="27"/>
+      <c r="N186" s="27"/>
+    </row>
+    <row r="187" spans="1:14" s="23" customFormat="1">
+      <c r="C187" s="163"/>
+      <c r="D187" s="100"/>
+      <c r="E187" s="164"/>
+      <c r="G187" s="27"/>
+      <c r="H187" s="27"/>
+      <c r="I187" s="165"/>
+      <c r="J187" s="27"/>
+      <c r="K187" s="27"/>
+      <c r="L187" s="27"/>
+      <c r="M187" s="27"/>
+      <c r="N187" s="27"/>
+    </row>
+    <row r="188" spans="1:14" ht="31.5" customHeight="1">
+      <c r="A188" s="92" t="s">
+        <v>1</v>
+      </c>
+      <c r="B188" s="159" t="s">
+        <v>26</v>
+      </c>
+      <c r="C188" s="126" t="s">
+        <v>55</v>
+      </c>
+      <c r="D188" s="127" t="s">
+        <v>56</v>
+      </c>
+      <c r="E188" s="127" t="s">
+        <v>12</v>
+      </c>
+      <c r="F188" s="190" t="s">
+        <v>122</v>
+      </c>
+      <c r="G188" s="191"/>
+      <c r="H188" s="192"/>
+      <c r="I188" s="127" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="189" spans="1:14">
+      <c r="A189" s="79">
+        <v>1</v>
+      </c>
+      <c r="B189" s="80" t="s">
+        <v>197</v>
+      </c>
+      <c r="C189" s="117">
+        <v>291188</v>
+      </c>
+      <c r="D189" s="82">
+        <v>22650</v>
+      </c>
+      <c r="E189" s="82">
+        <f>C189*D189</f>
+        <v>6595408200</v>
+      </c>
+      <c r="F189" s="187"/>
+      <c r="G189" s="188"/>
+      <c r="H189" s="189"/>
+      <c r="I189" s="82"/>
+    </row>
+    <row r="190" spans="1:14">
+      <c r="A190" s="79">
+        <v>2</v>
+      </c>
+      <c r="B190" s="80" t="s">
+        <v>200</v>
+      </c>
+      <c r="C190" s="117"/>
+      <c r="D190" s="82"/>
+      <c r="E190" s="82">
+        <f>E184-I184-F184</f>
+        <v>108224894</v>
+      </c>
+      <c r="F190" s="187"/>
+      <c r="G190" s="188"/>
+      <c r="H190" s="189"/>
+      <c r="I190" s="82"/>
+    </row>
+    <row r="191" spans="1:14">
+      <c r="A191" s="79">
+        <v>3</v>
+      </c>
+      <c r="B191" s="80" t="s">
+        <v>129</v>
+      </c>
+      <c r="C191" s="117"/>
+      <c r="D191" s="82"/>
+      <c r="E191" s="82"/>
+      <c r="F191" s="187">
+        <f>1825573*2</f>
+        <v>3651146</v>
+      </c>
+      <c r="G191" s="188"/>
+      <c r="H191" s="189"/>
+      <c r="I191" s="82"/>
+    </row>
+    <row r="192" spans="1:14">
+      <c r="A192" s="79">
+        <v>4</v>
+      </c>
+      <c r="B192" s="80" t="s">
+        <v>198</v>
+      </c>
+      <c r="C192" s="117"/>
+      <c r="D192" s="82"/>
+      <c r="E192" s="82"/>
+      <c r="F192" s="160"/>
+      <c r="G192" s="161"/>
+      <c r="H192" s="162"/>
+      <c r="I192" s="82">
+        <f>E173</f>
+        <v>420704884</v>
+      </c>
+    </row>
+    <row r="193" spans="1:15">
+      <c r="A193" s="79">
+        <v>5</v>
+      </c>
+      <c r="B193" s="80" t="s">
+        <v>199</v>
+      </c>
+      <c r="C193" s="117"/>
+      <c r="D193" s="82"/>
+      <c r="E193" s="82"/>
+      <c r="F193" s="160"/>
+      <c r="G193" s="161"/>
+      <c r="H193" s="162"/>
+      <c r="I193" s="82">
+        <v>300000000</v>
+      </c>
+    </row>
+    <row r="194" spans="1:15">
+      <c r="A194" s="79">
+        <v>6</v>
+      </c>
+      <c r="B194" s="80" t="s">
+        <v>148</v>
+      </c>
+      <c r="C194" s="82"/>
+      <c r="D194" s="82"/>
+      <c r="E194" s="82">
+        <f t="shared" ref="E194:E195" si="60">C194*D194</f>
+        <v>0</v>
+      </c>
+      <c r="F194" s="187">
+        <f>ROUND(I194*0.033%,0)</f>
+        <v>963198</v>
+      </c>
+      <c r="G194" s="188"/>
+      <c r="H194" s="189"/>
+      <c r="I194" s="82">
+        <f>2918480500+300000</f>
+        <v>2918780500</v>
+      </c>
+    </row>
+    <row r="195" spans="1:15">
+      <c r="A195" s="79">
+        <v>7</v>
+      </c>
+      <c r="B195" s="147" t="s">
+        <v>158</v>
+      </c>
+      <c r="C195" s="81"/>
+      <c r="D195" s="82"/>
+      <c r="E195" s="82">
+        <f t="shared" si="60"/>
+        <v>0</v>
+      </c>
+      <c r="F195" s="187">
+        <f>ROUND(I195*0.033%,0)</f>
+        <v>602224</v>
+      </c>
+      <c r="G195" s="188"/>
+      <c r="H195" s="189"/>
+      <c r="I195" s="82">
+        <v>1824920500</v>
+      </c>
+    </row>
+    <row r="196" spans="1:15">
+      <c r="A196" s="79">
+        <v>8</v>
+      </c>
+      <c r="B196" s="147" t="s">
+        <v>159</v>
+      </c>
+      <c r="C196" s="81"/>
+      <c r="D196" s="82"/>
+      <c r="E196" s="82"/>
+      <c r="F196" s="187">
+        <f>ROUND(I196*0.033%,0)</f>
+        <v>182381</v>
+      </c>
+      <c r="G196" s="188"/>
+      <c r="H196" s="189"/>
+      <c r="I196" s="82">
+        <v>552669000</v>
+      </c>
+    </row>
+    <row r="197" spans="1:15">
+      <c r="A197" s="79">
+        <v>9</v>
+      </c>
+      <c r="B197" s="80" t="s">
+        <v>61</v>
+      </c>
+      <c r="C197" s="81"/>
+      <c r="D197" s="82"/>
+      <c r="E197" s="82">
+        <f>C197*D197</f>
+        <v>0</v>
+      </c>
+      <c r="F197" s="187">
+        <v>224782.55613005161</v>
+      </c>
+      <c r="G197" s="188"/>
+      <c r="H197" s="189"/>
+      <c r="I197" s="82">
+        <v>680934478.44386995</v>
+      </c>
+    </row>
+    <row r="198" spans="1:15" ht="6" customHeight="1">
+      <c r="A198" s="133"/>
+      <c r="B198" s="136"/>
+      <c r="C198" s="137"/>
+      <c r="D198" s="134"/>
+      <c r="E198" s="134"/>
+      <c r="F198" s="181"/>
+      <c r="G198" s="182"/>
+      <c r="H198" s="183"/>
+      <c r="I198" s="134"/>
+    </row>
+    <row r="199" spans="1:15">
+      <c r="A199" s="89"/>
+      <c r="B199" s="89" t="s">
+        <v>62</v>
+      </c>
+      <c r="C199" s="90"/>
+      <c r="D199" s="91"/>
+      <c r="E199" s="91">
+        <f>SUM(E189:E198)</f>
+        <v>6703633094</v>
+      </c>
+      <c r="F199" s="184">
+        <f>SUM(F189:H198)</f>
+        <v>5623731.5561300516</v>
+      </c>
+      <c r="G199" s="185"/>
+      <c r="H199" s="186"/>
+      <c r="I199" s="91">
+        <f>SUM(I189:I198)</f>
+        <v>6698009362.4438696</v>
+      </c>
+    </row>
+    <row r="200" spans="1:15" ht="6.75" customHeight="1">
+      <c r="I200" s="145"/>
+    </row>
+    <row r="201" spans="1:15" s="23" customFormat="1">
+      <c r="C201" s="163"/>
+      <c r="D201" s="100"/>
+      <c r="E201" s="164"/>
+      <c r="G201" s="27"/>
+      <c r="H201" s="27"/>
+      <c r="I201" s="165"/>
+      <c r="J201" s="27"/>
+      <c r="K201" s="27"/>
+      <c r="L201" s="27"/>
+      <c r="M201" s="27"/>
+      <c r="N201" s="27"/>
+    </row>
+    <row r="202" spans="1:15" s="23" customFormat="1">
+      <c r="C202" s="163"/>
+      <c r="D202" s="100"/>
+      <c r="E202" s="164"/>
+      <c r="G202" s="27"/>
+      <c r="H202" s="27"/>
+      <c r="I202" s="165"/>
+      <c r="J202" s="27"/>
+      <c r="K202" s="27"/>
+      <c r="L202" s="27"/>
+      <c r="M202" s="27"/>
+      <c r="N202" s="27"/>
+    </row>
+    <row r="205" spans="1:15" ht="43.5" customHeight="1">
+      <c r="A205" s="180" t="s">
+        <v>123</v>
+      </c>
+      <c r="B205" s="180"/>
+      <c r="C205" s="180"/>
+      <c r="D205" s="180"/>
+      <c r="E205" s="180"/>
+      <c r="F205" s="107"/>
+      <c r="G205" s="21"/>
+      <c r="H205" s="21"/>
+    </row>
+    <row r="206" spans="1:15" s="44" customFormat="1" ht="17.25" customHeight="1">
+      <c r="B206" s="59"/>
+      <c r="C206" s="114"/>
+      <c r="D206" s="106"/>
+      <c r="E206" s="120"/>
+      <c r="F206" s="63"/>
+      <c r="G206" s="64" t="s">
+        <v>34</v>
+      </c>
+      <c r="I206" s="111"/>
+    </row>
+    <row r="207" spans="1:15" s="104" customFormat="1" ht="36.75" customHeight="1">
+      <c r="A207" s="102" t="s">
+        <v>1</v>
+      </c>
+      <c r="B207" s="102" t="s">
+        <v>26</v>
+      </c>
+      <c r="C207" s="115" t="s">
+        <v>10</v>
+      </c>
+      <c r="D207" s="103" t="s">
+        <v>11</v>
+      </c>
+      <c r="E207" s="68" t="s">
+        <v>12</v>
+      </c>
+      <c r="G207" s="66" t="s">
+        <v>35</v>
+      </c>
+      <c r="H207" s="66" t="s">
+        <v>36</v>
+      </c>
+      <c r="I207" s="66" t="s">
+        <v>108</v>
+      </c>
+      <c r="J207" s="66" t="s">
+        <v>37</v>
+      </c>
+      <c r="K207" s="66" t="s">
+        <v>88</v>
+      </c>
+      <c r="L207" s="65" t="s">
+        <v>38</v>
+      </c>
+      <c r="M207" s="68" t="s">
+        <v>111</v>
+      </c>
+      <c r="N207" s="68" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="208" spans="1:15" ht="18.75" customHeight="1">
+      <c r="A208" s="79">
+        <f>ROW()-77</f>
+        <v>131</v>
+      </c>
+      <c r="B208" s="70" t="s">
         <v>40</v>
       </c>
-      <c r="C163" s="116">
+      <c r="C208" s="116">
         <f>26000*4</f>
         <v>104000</v>
       </c>
-      <c r="D163" s="72">
+      <c r="D208" s="72">
         <v>300</v>
       </c>
-      <c r="E163" s="121">
-        <f t="shared" ref="E163:E166" si="48">C163*D163</f>
+      <c r="E208" s="121">
+        <f t="shared" ref="E208:E211" si="61">C208*D208</f>
         <v>31200000</v>
       </c>
-      <c r="G163" s="83">
-        <v>42684</v>
-      </c>
-      <c r="H163" s="83">
+      <c r="G208" s="83">
         <v>42702</v>
       </c>
-      <c r="I163" s="75" t="s">
-        <v>126</v>
-      </c>
-      <c r="J163" s="75">
-        <f t="shared" ref="J163:J173" si="49">IF(H163&lt;&gt;"",H163-G163+1,"")</f>
-        <v>19</v>
-      </c>
-      <c r="K163" s="75">
-        <v>38</v>
-      </c>
-      <c r="L163" s="108">
-        <f t="shared" ref="L163:L174" si="50">K163*13</f>
-        <v>494</v>
-      </c>
-      <c r="M163" s="77">
-        <v>20000</v>
-      </c>
-      <c r="N163" s="77">
-        <f t="shared" ref="N163:N174" si="51">IF(J163&lt;&gt;"",M163*L163*J163/1000,"")</f>
-        <v>187720</v>
-      </c>
-      <c r="O163" s="78"/>
-    </row>
-    <row r="164" spans="1:15" ht="18.75" customHeight="1">
-      <c r="A164" s="79">
-        <f t="shared" ref="A164:A174" si="52">ROW()-162</f>
-        <v>2</v>
-      </c>
-      <c r="B164" s="80" t="s">
+      <c r="H208" s="83"/>
+      <c r="I208" s="75" t="s">
+        <v>187</v>
+      </c>
+      <c r="J208" s="75" t="str">
+        <f t="shared" ref="J208:J212" si="62">IF(H208&lt;&gt;"",H208-G208+1,"")</f>
+        <v/>
+      </c>
+      <c r="K208" s="75">
+        <v>12</v>
+      </c>
+      <c r="L208" s="108">
+        <f t="shared" ref="L208:L215" si="63">K208*13</f>
+        <v>156</v>
+      </c>
+      <c r="M208" s="77"/>
+      <c r="N208" s="77"/>
+      <c r="O208" s="78"/>
+    </row>
+    <row r="209" spans="1:15" ht="18.75" customHeight="1">
+      <c r="A209" s="79">
+        <f t="shared" ref="A209:A219" si="64">ROW()-77</f>
+        <v>132</v>
+      </c>
+      <c r="B209" s="80" t="s">
         <v>42</v>
       </c>
-      <c r="C164" s="117">
+      <c r="C209" s="117">
         <v>4</v>
       </c>
-      <c r="D164" s="82">
+      <c r="D209" s="82">
         <v>2000000</v>
       </c>
-      <c r="E164" s="122">
-        <f t="shared" si="48"/>
+      <c r="E209" s="122">
+        <f t="shared" si="61"/>
         <v>8000000</v>
       </c>
-      <c r="G164" s="83">
-        <v>42684</v>
-      </c>
-      <c r="H164" s="83">
+      <c r="G209" s="83">
         <v>42702</v>
       </c>
-      <c r="I164" s="75" t="s">
+      <c r="H209" s="83"/>
+      <c r="I209" s="75" t="s">
+        <v>105</v>
+      </c>
+      <c r="J209" s="75" t="str">
+        <f t="shared" si="62"/>
+        <v/>
+      </c>
+      <c r="K209" s="75">
+        <v>500</v>
+      </c>
+      <c r="L209" s="108">
+        <f t="shared" si="63"/>
+        <v>6500</v>
+      </c>
+      <c r="M209" s="77"/>
+      <c r="N209" s="77"/>
+      <c r="O209" s="78"/>
+    </row>
+    <row r="210" spans="1:15" ht="18.75" customHeight="1">
+      <c r="A210" s="79">
+        <f t="shared" si="64"/>
+        <v>133</v>
+      </c>
+      <c r="B210" s="80" t="s">
+        <v>43</v>
+      </c>
+      <c r="C210" s="117">
+        <v>4</v>
+      </c>
+      <c r="D210" s="82">
+        <v>2000000</v>
+      </c>
+      <c r="E210" s="122">
+        <f t="shared" si="61"/>
+        <v>8000000</v>
+      </c>
+      <c r="G210" s="83">
+        <v>42702</v>
+      </c>
+      <c r="H210" s="83"/>
+      <c r="I210" s="75" t="s">
+        <v>188</v>
+      </c>
+      <c r="J210" s="75" t="str">
+        <f t="shared" si="62"/>
+        <v/>
+      </c>
+      <c r="K210" s="75">
+        <v>500</v>
+      </c>
+      <c r="L210" s="108">
+        <f t="shared" si="63"/>
+        <v>6500</v>
+      </c>
+      <c r="M210" s="77"/>
+      <c r="N210" s="77"/>
+      <c r="O210" s="78"/>
+    </row>
+    <row r="211" spans="1:15" ht="18.75" customHeight="1">
+      <c r="A211" s="79">
+        <f t="shared" si="64"/>
+        <v>134</v>
+      </c>
+      <c r="B211" s="80" t="s">
+        <v>44</v>
+      </c>
+      <c r="C211" s="117">
+        <v>4</v>
+      </c>
+      <c r="D211" s="82">
+        <v>600000</v>
+      </c>
+      <c r="E211" s="122">
+        <f t="shared" si="61"/>
+        <v>2400000</v>
+      </c>
+      <c r="G211" s="83">
+        <v>42702</v>
+      </c>
+      <c r="H211" s="83"/>
+      <c r="I211" s="75" t="s">
+        <v>189</v>
+      </c>
+      <c r="J211" s="75" t="str">
+        <f t="shared" si="62"/>
+        <v/>
+      </c>
+      <c r="K211" s="75">
+        <v>810</v>
+      </c>
+      <c r="L211" s="108">
+        <f t="shared" si="63"/>
+        <v>10530</v>
+      </c>
+      <c r="M211" s="77"/>
+      <c r="N211" s="77"/>
+      <c r="O211" s="78"/>
+    </row>
+    <row r="212" spans="1:15" ht="18.75" customHeight="1">
+      <c r="A212" s="79">
+        <f t="shared" si="64"/>
+        <v>135</v>
+      </c>
+      <c r="B212" s="80" t="s">
+        <v>80</v>
+      </c>
+      <c r="C212" s="117">
+        <v>4</v>
+      </c>
+      <c r="D212" s="82">
+        <v>16725000</v>
+      </c>
+      <c r="E212" s="122">
+        <f>C212*D212</f>
+        <v>66900000</v>
+      </c>
+      <c r="G212" s="83">
+        <v>42702</v>
+      </c>
+      <c r="H212" s="83"/>
+      <c r="I212" s="75" t="s">
+        <v>190</v>
+      </c>
+      <c r="J212" s="75" t="str">
+        <f t="shared" si="62"/>
+        <v/>
+      </c>
+      <c r="K212" s="75">
+        <v>682</v>
+      </c>
+      <c r="L212" s="108">
+        <f t="shared" si="63"/>
+        <v>8866</v>
+      </c>
+      <c r="M212" s="77"/>
+      <c r="N212" s="77"/>
+      <c r="O212" s="78"/>
+    </row>
+    <row r="213" spans="1:15" ht="18.75" customHeight="1">
+      <c r="A213" s="79">
+        <f t="shared" si="64"/>
+        <v>136</v>
+      </c>
+      <c r="B213" s="80" t="s">
+        <v>46</v>
+      </c>
+      <c r="C213" s="117">
+        <v>4</v>
+      </c>
+      <c r="D213" s="82">
+        <v>7378778</v>
+      </c>
+      <c r="E213" s="122">
+        <f t="shared" ref="E213:E215" si="65">C213*D213</f>
+        <v>29515112</v>
+      </c>
+      <c r="G213" s="83">
+        <v>42702</v>
+      </c>
+      <c r="H213" s="83"/>
+      <c r="I213" s="75" t="s">
         <v>127</v>
       </c>
-      <c r="J164" s="75">
-        <f t="shared" si="49"/>
-        <v>19</v>
-      </c>
-      <c r="K164" s="75">
-        <v>400</v>
-      </c>
-      <c r="L164" s="108">
-        <f t="shared" si="50"/>
-        <v>5200</v>
-      </c>
-      <c r="M164" s="77">
-        <v>20000</v>
-      </c>
-      <c r="N164" s="77">
-        <f t="shared" si="51"/>
-        <v>1976000</v>
-      </c>
-      <c r="O164" s="78"/>
-    </row>
-    <row r="165" spans="1:15" ht="18.75" customHeight="1">
-      <c r="A165" s="79">
-        <f t="shared" si="52"/>
-        <v>3</v>
-      </c>
-      <c r="B165" s="80" t="s">
-        <v>43</v>
-      </c>
-      <c r="C165" s="117">
+      <c r="J213" s="75"/>
+      <c r="K213" s="75">
+        <v>894</v>
+      </c>
+      <c r="L213" s="108">
+        <f t="shared" si="63"/>
+        <v>11622</v>
+      </c>
+      <c r="M213" s="77"/>
+      <c r="N213" s="77"/>
+      <c r="O213" s="78"/>
+    </row>
+    <row r="214" spans="1:15" ht="18.75" customHeight="1">
+      <c r="A214" s="79">
+        <f t="shared" si="64"/>
+        <v>137</v>
+      </c>
+      <c r="B214" s="80" t="s">
+        <v>47</v>
+      </c>
+      <c r="C214" s="117">
         <v>4</v>
       </c>
-      <c r="D165" s="82">
-        <v>2000000</v>
-      </c>
-      <c r="E165" s="122">
-        <f t="shared" si="48"/>
-        <v>8000000</v>
-      </c>
-      <c r="G165" s="83">
-        <v>42685</v>
-      </c>
-      <c r="H165" s="83">
-        <v>42702</v>
-      </c>
-      <c r="I165" s="75" t="s">
-        <v>130</v>
-      </c>
-      <c r="J165" s="75">
-        <f t="shared" si="49"/>
-        <v>18</v>
-      </c>
-      <c r="K165" s="75">
+      <c r="D214" s="82">
+        <v>5600000</v>
+      </c>
+      <c r="E214" s="122">
+        <f t="shared" si="65"/>
+        <v>22400000</v>
+      </c>
+      <c r="G214" s="83">
+        <v>42703</v>
+      </c>
+      <c r="H214" s="83"/>
+      <c r="I214" s="75" t="s">
+        <v>90</v>
+      </c>
+      <c r="J214" s="75"/>
+      <c r="K214" s="75">
         <v>445</v>
       </c>
-      <c r="L165" s="108">
-        <f t="shared" si="50"/>
+      <c r="L214" s="108">
+        <f t="shared" si="63"/>
         <v>5785</v>
       </c>
-      <c r="M165" s="77">
-        <v>20000</v>
-      </c>
-      <c r="N165" s="77">
-        <f t="shared" si="51"/>
-        <v>2082600</v>
-      </c>
-      <c r="O165" s="78"/>
-    </row>
-    <row r="166" spans="1:15" ht="18.75" customHeight="1">
-      <c r="A166" s="79">
-        <f t="shared" si="52"/>
+      <c r="M214" s="77"/>
+      <c r="N214" s="77"/>
+      <c r="O214" s="78"/>
+    </row>
+    <row r="215" spans="1:15" ht="18.75" customHeight="1">
+      <c r="A215" s="79">
+        <f t="shared" si="64"/>
+        <v>138</v>
+      </c>
+      <c r="B215" s="80" t="s">
+        <v>48</v>
+      </c>
+      <c r="C215" s="117">
         <v>4</v>
       </c>
-      <c r="B166" s="80" t="s">
-        <v>44</v>
-      </c>
-      <c r="C166" s="117">
-        <v>4</v>
-      </c>
-      <c r="D166" s="82">
-        <v>600000</v>
-      </c>
-      <c r="E166" s="122">
-        <f t="shared" si="48"/>
-        <v>2400000</v>
-      </c>
-      <c r="G166" s="83"/>
-      <c r="H166" s="83"/>
-      <c r="I166" s="75" t="s">
-        <v>134</v>
-      </c>
-      <c r="J166" s="75" t="str">
-        <f t="shared" si="49"/>
-        <v/>
-      </c>
-      <c r="K166" s="75">
-        <v>-11</v>
-      </c>
-      <c r="L166" s="108">
-        <f t="shared" si="50"/>
-        <v>-143</v>
-      </c>
-      <c r="M166" s="77"/>
-      <c r="N166" s="77" t="str">
-        <f t="shared" si="51"/>
-        <v/>
-      </c>
-      <c r="O166" s="78"/>
-    </row>
-    <row r="167" spans="1:15" ht="18.75" customHeight="1">
-      <c r="A167" s="79">
-        <f t="shared" si="52"/>
-        <v>5</v>
-      </c>
-      <c r="B167" s="80" t="s">
-        <v>80</v>
-      </c>
-      <c r="C167" s="117">
-        <v>4</v>
-      </c>
-      <c r="D167" s="82">
-        <f>750*22600</f>
-        <v>16950000</v>
-      </c>
-      <c r="E167" s="122">
-        <f>C167*D167</f>
-        <v>67800000</v>
-      </c>
-      <c r="G167" s="83">
-        <v>42685</v>
-      </c>
-      <c r="H167" s="83">
-        <v>42702</v>
-      </c>
-      <c r="I167" s="75" t="s">
-        <v>92</v>
-      </c>
-      <c r="J167" s="75">
-        <f t="shared" si="49"/>
-        <v>18</v>
-      </c>
-      <c r="K167" s="75">
-        <v>505</v>
-      </c>
-      <c r="L167" s="108">
-        <f t="shared" si="50"/>
-        <v>6565</v>
-      </c>
-      <c r="M167" s="77">
-        <v>20000</v>
-      </c>
-      <c r="N167" s="77">
-        <f t="shared" si="51"/>
-        <v>2363400</v>
-      </c>
-      <c r="O167" s="78"/>
-    </row>
-    <row r="168" spans="1:15" ht="18.75" customHeight="1">
-      <c r="A168" s="79">
-        <f t="shared" si="52"/>
-        <v>6</v>
-      </c>
-      <c r="B168" s="80" t="s">
-        <v>46</v>
-      </c>
-      <c r="C168" s="117">
-        <v>4</v>
-      </c>
-      <c r="D168" s="82">
-        <v>7378778</v>
-      </c>
-      <c r="E168" s="122">
-        <f t="shared" ref="E168:E170" si="53">C168*D168</f>
-        <v>29515112</v>
-      </c>
-      <c r="G168" s="83">
-        <v>42685</v>
-      </c>
-      <c r="H168" s="83">
-        <v>42702</v>
-      </c>
-      <c r="I168" s="75" t="s">
-        <v>131</v>
-      </c>
-      <c r="J168" s="75">
-        <f t="shared" si="49"/>
-        <v>18</v>
-      </c>
-      <c r="K168" s="75">
-        <v>353</v>
-      </c>
-      <c r="L168" s="108">
-        <f t="shared" si="50"/>
-        <v>4589</v>
-      </c>
-      <c r="M168" s="77">
-        <v>20000</v>
-      </c>
-      <c r="N168" s="77">
-        <f t="shared" si="51"/>
-        <v>1652040</v>
-      </c>
-      <c r="O168" s="78"/>
-    </row>
-    <row r="169" spans="1:15" ht="18.75" customHeight="1">
-      <c r="A169" s="79">
-        <f t="shared" si="52"/>
-        <v>7</v>
-      </c>
-      <c r="B169" s="80" t="s">
-        <v>47</v>
-      </c>
-      <c r="C169" s="117">
-        <v>4</v>
-      </c>
-      <c r="D169" s="82">
-        <v>5600000</v>
-      </c>
-      <c r="E169" s="122">
-        <f t="shared" si="53"/>
-        <v>22400000</v>
-      </c>
-      <c r="G169" s="83">
-        <v>42685</v>
-      </c>
-      <c r="H169" s="83">
-        <v>42702</v>
-      </c>
-      <c r="I169" s="75" t="s">
-        <v>132</v>
-      </c>
-      <c r="J169" s="75">
-        <f t="shared" si="49"/>
-        <v>18</v>
-      </c>
-      <c r="K169" s="75">
-        <f>900</f>
-        <v>900</v>
-      </c>
-      <c r="L169" s="108">
-        <f t="shared" si="50"/>
-        <v>11700</v>
-      </c>
-      <c r="M169" s="77">
-        <v>20000</v>
-      </c>
-      <c r="N169" s="77">
-        <f t="shared" si="51"/>
-        <v>4212000</v>
-      </c>
-      <c r="O169" s="78"/>
-    </row>
-    <row r="170" spans="1:15" ht="18.75" customHeight="1">
-      <c r="A170" s="79">
-        <f t="shared" si="52"/>
-        <v>8</v>
-      </c>
-      <c r="B170" s="80" t="s">
-        <v>48</v>
-      </c>
-      <c r="C170" s="117">
-        <v>4</v>
-      </c>
-      <c r="D170" s="82">
+      <c r="D215" s="82">
         <f>88*22500</f>
         <v>1980000</v>
       </c>
-      <c r="E170" s="122">
-        <f t="shared" si="53"/>
+      <c r="E215" s="122">
+        <f t="shared" si="65"/>
         <v>7920000</v>
       </c>
-      <c r="G170" s="83">
-        <v>42685</v>
-      </c>
-      <c r="H170" s="83">
-        <v>42702</v>
-      </c>
-      <c r="I170" s="75" t="s">
-        <v>133</v>
-      </c>
-      <c r="J170" s="75">
-        <f t="shared" si="49"/>
-        <v>18</v>
-      </c>
-      <c r="K170" s="75">
-        <v>900</v>
-      </c>
-      <c r="L170" s="108">
-        <f t="shared" si="50"/>
-        <v>11700</v>
-      </c>
-      <c r="M170" s="77">
-        <v>20000</v>
-      </c>
-      <c r="N170" s="77">
-        <f t="shared" si="51"/>
-        <v>4212000</v>
-      </c>
-      <c r="O170" s="78"/>
-    </row>
-    <row r="171" spans="1:15" ht="18.75" customHeight="1">
-      <c r="A171" s="79">
-        <f t="shared" si="52"/>
-        <v>9</v>
-      </c>
-      <c r="B171" s="80" t="s">
+      <c r="G215" s="83">
+        <v>42703</v>
+      </c>
+      <c r="H215" s="83"/>
+      <c r="I215" s="75" t="s">
+        <v>192</v>
+      </c>
+      <c r="J215" s="75"/>
+      <c r="K215" s="75">
+        <v>372</v>
+      </c>
+      <c r="L215" s="108">
+        <f t="shared" si="63"/>
+        <v>4836</v>
+      </c>
+      <c r="M215" s="77"/>
+      <c r="N215" s="77"/>
+      <c r="O215" s="78"/>
+    </row>
+    <row r="216" spans="1:15" ht="18.75" customHeight="1">
+      <c r="A216" s="79">
+        <f t="shared" si="64"/>
+        <v>139</v>
+      </c>
+      <c r="B216" s="80" t="s">
         <v>49</v>
       </c>
-      <c r="C171" s="117">
+      <c r="C216" s="117">
         <v>4</v>
       </c>
-      <c r="D171" s="82">
+      <c r="D216" s="82">
         <v>1350000</v>
       </c>
-      <c r="E171" s="122">
-        <f>C171*D171</f>
+      <c r="E216" s="122">
+        <f>C216*D216</f>
         <v>5400000</v>
       </c>
-      <c r="G171" s="83">
-        <v>42688</v>
-      </c>
-      <c r="H171" s="83">
-        <v>42702</v>
-      </c>
-      <c r="I171" s="75" t="s">
-        <v>92</v>
-      </c>
-      <c r="J171" s="75">
-        <f t="shared" si="49"/>
-        <v>15</v>
-      </c>
-      <c r="K171" s="75">
-        <v>404</v>
-      </c>
-      <c r="L171" s="108">
-        <f t="shared" si="50"/>
-        <v>5252</v>
-      </c>
-      <c r="M171" s="77">
-        <v>20000</v>
-      </c>
-      <c r="N171" s="77">
-        <f t="shared" si="51"/>
-        <v>1575600</v>
-      </c>
-      <c r="O171" s="78"/>
-    </row>
-    <row r="172" spans="1:15" ht="18.75" customHeight="1">
-      <c r="A172" s="79">
-        <f t="shared" si="52"/>
-        <v>10</v>
-      </c>
-      <c r="B172" s="80" t="s">
+      <c r="G216" s="83">
+        <v>42703</v>
+      </c>
+      <c r="H216" s="83"/>
+      <c r="I216" s="75" t="s">
+        <v>95</v>
+      </c>
+      <c r="J216" s="75"/>
+      <c r="K216" s="75">
+        <v>550</v>
+      </c>
+      <c r="L216" s="108">
+        <f t="shared" ref="L216:L225" si="66">K216*13</f>
+        <v>7150</v>
+      </c>
+      <c r="M216" s="77"/>
+      <c r="N216" s="77"/>
+      <c r="O216" s="78"/>
+    </row>
+    <row r="217" spans="1:15" ht="18.75" customHeight="1">
+      <c r="A217" s="79">
+        <f t="shared" si="64"/>
+        <v>140</v>
+      </c>
+      <c r="B217" s="80" t="s">
         <v>84</v>
       </c>
-      <c r="C172" s="117">
+      <c r="C217" s="117">
         <v>4</v>
       </c>
-      <c r="D172" s="82">
+      <c r="D217" s="82">
         <v>2500000</v>
       </c>
-      <c r="E172" s="122">
-        <f t="shared" ref="E172" si="54">C172*D172</f>
+      <c r="E217" s="122">
+        <f t="shared" ref="E217" si="67">C217*D217</f>
         <v>10000000</v>
       </c>
-      <c r="G172" s="83">
-        <v>42693</v>
-      </c>
-      <c r="H172" s="83"/>
-      <c r="I172" s="75" t="s">
-        <v>154</v>
-      </c>
-      <c r="J172" s="75" t="str">
-        <f t="shared" si="49"/>
-        <v/>
-      </c>
-      <c r="K172" s="75">
-        <v>-34</v>
-      </c>
-      <c r="L172" s="108">
-        <f t="shared" si="50"/>
-        <v>-442</v>
-      </c>
-      <c r="M172" s="77"/>
-      <c r="N172" s="77" t="str">
-        <f t="shared" si="51"/>
-        <v/>
-      </c>
-      <c r="O172" s="78"/>
-    </row>
-    <row r="173" spans="1:15" ht="18.75" customHeight="1">
-      <c r="A173" s="79">
-        <f t="shared" si="52"/>
-        <v>11</v>
-      </c>
-      <c r="B173" s="80" t="s">
+      <c r="G217" s="83">
+        <v>42703</v>
+      </c>
+      <c r="H217" s="83"/>
+      <c r="I217" s="75" t="s">
+        <v>132</v>
+      </c>
+      <c r="J217" s="75"/>
+      <c r="K217" s="75">
+        <v>683</v>
+      </c>
+      <c r="L217" s="108">
+        <f t="shared" si="66"/>
+        <v>8879</v>
+      </c>
+      <c r="M217" s="77"/>
+      <c r="N217" s="77"/>
+      <c r="O217" s="78"/>
+    </row>
+    <row r="218" spans="1:15" ht="18.75" customHeight="1">
+      <c r="A218" s="79">
+        <f t="shared" si="64"/>
+        <v>141</v>
+      </c>
+      <c r="B218" s="80" t="s">
         <v>50</v>
       </c>
-      <c r="C173" s="117">
+      <c r="C218" s="117">
         <v>104</v>
       </c>
-      <c r="D173" s="82">
+      <c r="D218" s="82">
         <v>50000</v>
       </c>
-      <c r="E173" s="122">
-        <f>C173*D173</f>
+      <c r="E218" s="122">
+        <f>C218*D218</f>
         <v>5200000</v>
       </c>
-      <c r="G173" s="83">
-        <v>42699</v>
-      </c>
-      <c r="H173" s="83">
-        <v>42702</v>
-      </c>
-      <c r="I173" s="75" t="s">
-        <v>96</v>
-      </c>
-      <c r="J173" s="75">
-        <f t="shared" si="49"/>
-        <v>4</v>
-      </c>
-      <c r="K173" s="75">
-        <v>100</v>
-      </c>
-      <c r="L173" s="108">
-        <f t="shared" si="50"/>
-        <v>1300</v>
-      </c>
-      <c r="M173" s="77">
-        <v>20000</v>
-      </c>
-      <c r="N173" s="77">
-        <f t="shared" si="51"/>
-        <v>104000</v>
-      </c>
-      <c r="O173" s="78"/>
-    </row>
-    <row r="174" spans="1:15" ht="18.75" customHeight="1">
-      <c r="A174" s="79">
-        <f t="shared" si="52"/>
-        <v>12</v>
-      </c>
-      <c r="B174" s="80" t="s">
+      <c r="G218" s="83"/>
+      <c r="H218" s="83"/>
+      <c r="I218" s="75"/>
+      <c r="J218" s="75"/>
+      <c r="K218" s="75"/>
+      <c r="L218" s="108">
+        <f t="shared" si="66"/>
+        <v>0</v>
+      </c>
+      <c r="M218" s="77"/>
+      <c r="N218" s="77"/>
+      <c r="O218" s="78"/>
+    </row>
+    <row r="219" spans="1:15" ht="18.75" customHeight="1">
+      <c r="A219" s="79">
+        <f t="shared" si="64"/>
+        <v>142</v>
+      </c>
+      <c r="B219" s="80" t="s">
         <v>51</v>
       </c>
-      <c r="C174" s="117"/>
-      <c r="D174" s="82"/>
-      <c r="E174" s="122">
-        <f>N176</f>
-        <v>18365360</v>
-      </c>
-      <c r="G174" s="83"/>
-      <c r="H174" s="83"/>
-      <c r="I174" s="75"/>
-      <c r="J174" s="75"/>
-      <c r="K174" s="75"/>
-      <c r="L174" s="108">
-        <f t="shared" si="50"/>
+      <c r="C219" s="117"/>
+      <c r="D219" s="82"/>
+      <c r="E219" s="122">
+        <f>N228</f>
         <v>0</v>
       </c>
-      <c r="M174" s="77"/>
-      <c r="N174" s="77" t="str">
-        <f t="shared" si="51"/>
-        <v/>
-      </c>
-      <c r="O174" s="78"/>
-    </row>
-    <row r="175" spans="1:15" ht="7.5" customHeight="1">
-      <c r="A175" s="79"/>
-      <c r="B175" s="80"/>
-      <c r="C175" s="117"/>
-      <c r="D175" s="82"/>
-      <c r="E175" s="122"/>
-      <c r="G175" s="85"/>
-      <c r="H175" s="85"/>
-      <c r="I175" s="86"/>
-      <c r="J175" s="86"/>
-      <c r="K175" s="86"/>
-      <c r="L175" s="87"/>
-      <c r="M175" s="88"/>
-      <c r="N175" s="88"/>
-    </row>
-    <row r="176" spans="1:15" ht="18.75" customHeight="1">
-      <c r="A176" s="89"/>
-      <c r="B176" s="89" t="s">
+      <c r="G219" s="83"/>
+      <c r="H219" s="83"/>
+      <c r="I219" s="75"/>
+      <c r="J219" s="75"/>
+      <c r="K219" s="75"/>
+      <c r="L219" s="108">
+        <f t="shared" si="66"/>
+        <v>0</v>
+      </c>
+      <c r="M219" s="77"/>
+      <c r="N219" s="77"/>
+      <c r="O219" s="78"/>
+    </row>
+    <row r="220" spans="1:15" ht="18.75" customHeight="1">
+      <c r="A220" s="79"/>
+      <c r="B220" s="80"/>
+      <c r="C220" s="117"/>
+      <c r="D220" s="82"/>
+      <c r="E220" s="122"/>
+      <c r="G220" s="83"/>
+      <c r="H220" s="83"/>
+      <c r="I220" s="75"/>
+      <c r="J220" s="75"/>
+      <c r="K220" s="75"/>
+      <c r="L220" s="108">
+        <f t="shared" si="66"/>
+        <v>0</v>
+      </c>
+      <c r="M220" s="77"/>
+      <c r="N220" s="77"/>
+      <c r="O220" s="78"/>
+    </row>
+    <row r="221" spans="1:15" ht="18.75" customHeight="1">
+      <c r="A221" s="79"/>
+      <c r="B221" s="80"/>
+      <c r="C221" s="117"/>
+      <c r="D221" s="82"/>
+      <c r="E221" s="122"/>
+      <c r="G221" s="83"/>
+      <c r="H221" s="83"/>
+      <c r="I221" s="75"/>
+      <c r="J221" s="75"/>
+      <c r="K221" s="75"/>
+      <c r="L221" s="108">
+        <f t="shared" si="66"/>
+        <v>0</v>
+      </c>
+      <c r="M221" s="77"/>
+      <c r="N221" s="77"/>
+      <c r="O221" s="78"/>
+    </row>
+    <row r="222" spans="1:15" ht="18.75" customHeight="1">
+      <c r="A222" s="79"/>
+      <c r="B222" s="80"/>
+      <c r="C222" s="117"/>
+      <c r="D222" s="82"/>
+      <c r="E222" s="122"/>
+      <c r="G222" s="83"/>
+      <c r="H222" s="83"/>
+      <c r="I222" s="75"/>
+      <c r="J222" s="75"/>
+      <c r="K222" s="75"/>
+      <c r="L222" s="108">
+        <f t="shared" si="66"/>
+        <v>0</v>
+      </c>
+      <c r="M222" s="77"/>
+      <c r="N222" s="77"/>
+      <c r="O222" s="78"/>
+    </row>
+    <row r="223" spans="1:15" ht="18.75" customHeight="1">
+      <c r="A223" s="79"/>
+      <c r="B223" s="80"/>
+      <c r="C223" s="117"/>
+      <c r="D223" s="82"/>
+      <c r="E223" s="122"/>
+      <c r="G223" s="83"/>
+      <c r="H223" s="83"/>
+      <c r="I223" s="75"/>
+      <c r="J223" s="75"/>
+      <c r="K223" s="75"/>
+      <c r="L223" s="108">
+        <f t="shared" si="66"/>
+        <v>0</v>
+      </c>
+      <c r="M223" s="77"/>
+      <c r="N223" s="77"/>
+      <c r="O223" s="78"/>
+    </row>
+    <row r="224" spans="1:15" ht="18.75" customHeight="1">
+      <c r="A224" s="79"/>
+      <c r="B224" s="80"/>
+      <c r="C224" s="117"/>
+      <c r="D224" s="82"/>
+      <c r="E224" s="122"/>
+      <c r="G224" s="83"/>
+      <c r="H224" s="83"/>
+      <c r="I224" s="75"/>
+      <c r="J224" s="75"/>
+      <c r="K224" s="75"/>
+      <c r="L224" s="108">
+        <f t="shared" si="66"/>
+        <v>0</v>
+      </c>
+      <c r="M224" s="77"/>
+      <c r="N224" s="77"/>
+      <c r="O224" s="78"/>
+    </row>
+    <row r="225" spans="1:15" ht="18.75" customHeight="1">
+      <c r="A225" s="79"/>
+      <c r="B225" s="80"/>
+      <c r="C225" s="117"/>
+      <c r="D225" s="82"/>
+      <c r="E225" s="122"/>
+      <c r="G225" s="83"/>
+      <c r="H225" s="83"/>
+      <c r="I225" s="75"/>
+      <c r="J225" s="75"/>
+      <c r="K225" s="75"/>
+      <c r="L225" s="108">
+        <f t="shared" si="66"/>
+        <v>0</v>
+      </c>
+      <c r="M225" s="77"/>
+      <c r="N225" s="77"/>
+      <c r="O225" s="78"/>
+    </row>
+    <row r="226" spans="1:15" ht="18.75" customHeight="1">
+      <c r="A226" s="79"/>
+      <c r="B226" s="80"/>
+      <c r="C226" s="117"/>
+      <c r="D226" s="82"/>
+      <c r="E226" s="122"/>
+      <c r="G226" s="83"/>
+      <c r="H226" s="83"/>
+      <c r="I226" s="75"/>
+      <c r="J226" s="75"/>
+      <c r="K226" s="75"/>
+      <c r="L226" s="108">
+        <f t="shared" ref="L226" si="68">K226*13</f>
+        <v>0</v>
+      </c>
+      <c r="M226" s="77"/>
+      <c r="N226" s="77"/>
+      <c r="O226" s="78"/>
+    </row>
+    <row r="227" spans="1:15" ht="18.75" customHeight="1">
+      <c r="A227" s="79"/>
+      <c r="B227" s="80"/>
+      <c r="C227" s="117"/>
+      <c r="D227" s="82"/>
+      <c r="E227" s="122"/>
+      <c r="G227" s="85"/>
+      <c r="H227" s="85"/>
+      <c r="I227" s="86"/>
+      <c r="J227" s="86"/>
+      <c r="K227" s="86"/>
+      <c r="L227" s="87"/>
+      <c r="M227" s="88"/>
+      <c r="N227" s="88"/>
+      <c r="O227" s="78"/>
+    </row>
+    <row r="228" spans="1:15" ht="18.75" customHeight="1">
+      <c r="A228" s="79"/>
+      <c r="B228" s="80"/>
+      <c r="C228" s="117"/>
+      <c r="D228" s="82"/>
+      <c r="E228" s="122"/>
+      <c r="G228" s="92"/>
+      <c r="H228" s="92"/>
+      <c r="I228" s="92" t="s">
         <v>53</v>
       </c>
-      <c r="C176" s="118"/>
-      <c r="D176" s="91"/>
-      <c r="E176" s="93">
-        <f>SUM(E163:E175)</f>
-        <v>216200472</v>
-      </c>
-      <c r="F176" s="23"/>
-      <c r="G176" s="92"/>
-      <c r="H176" s="92"/>
-      <c r="I176" s="92" t="s">
+      <c r="J228" s="92"/>
+      <c r="K228" s="109">
+        <f>SUM(K208:K227)</f>
+        <v>5448</v>
+      </c>
+      <c r="L228" s="109">
+        <f>SUM(L208:L227)</f>
+        <v>70824</v>
+      </c>
+      <c r="M228" s="109"/>
+      <c r="N228" s="93">
+        <f>SUM(N208:N227)</f>
+        <v>0</v>
+      </c>
+      <c r="O228" s="78"/>
+    </row>
+    <row r="229" spans="1:15" ht="18.75" customHeight="1">
+      <c r="A229" s="79"/>
+      <c r="B229" s="80"/>
+      <c r="C229" s="117"/>
+      <c r="D229" s="82"/>
+      <c r="E229" s="122"/>
+      <c r="O229" s="78"/>
+    </row>
+    <row r="230" spans="1:15" ht="18.75" customHeight="1">
+      <c r="A230" s="79"/>
+      <c r="B230" s="80"/>
+      <c r="C230" s="117"/>
+      <c r="D230" s="82"/>
+      <c r="E230" s="122"/>
+      <c r="O230" s="78"/>
+    </row>
+    <row r="231" spans="1:15" ht="7.5" customHeight="1">
+      <c r="A231" s="79"/>
+      <c r="B231" s="80"/>
+      <c r="C231" s="117"/>
+      <c r="D231" s="82"/>
+      <c r="E231" s="122"/>
+    </row>
+    <row r="232" spans="1:15" ht="18.75" customHeight="1">
+      <c r="A232" s="89"/>
+      <c r="B232" s="89" t="s">
         <v>53</v>
       </c>
-      <c r="J176" s="92"/>
-      <c r="K176" s="109">
-        <f>SUM(K163:K175)</f>
-        <v>4000</v>
-      </c>
-      <c r="L176" s="109">
-        <f>SUM(L163:L175)</f>
-        <v>52000</v>
-      </c>
-      <c r="M176" s="109"/>
-      <c r="N176" s="93">
-        <f>SUM(N163:N175)</f>
-        <v>18365360</v>
-      </c>
-    </row>
-    <row r="177" spans="1:15" ht="7.5" customHeight="1"/>
-    <row r="178" spans="1:15" s="22" customFormat="1">
-      <c r="A178" s="24"/>
-      <c r="B178" s="24"/>
-      <c r="C178" s="119"/>
-      <c r="D178" s="26" t="s">
+      <c r="C232" s="118"/>
+      <c r="D232" s="91"/>
+      <c r="E232" s="93">
+        <f>SUM(E208:E231)</f>
+        <v>196935112</v>
+      </c>
+      <c r="F232" s="23"/>
+    </row>
+    <row r="233" spans="1:15" ht="7.5" customHeight="1"/>
+    <row r="234" spans="1:15" s="22" customFormat="1">
+      <c r="A234" s="24"/>
+      <c r="B234" s="24"/>
+      <c r="C234" s="119"/>
+      <c r="D234" s="26" t="s">
         <v>54</v>
       </c>
-      <c r="E178" s="123">
-        <f>E176/C163</f>
-        <v>2078.8506923076925</v>
-      </c>
-      <c r="F178" s="24"/>
-    </row>
-    <row r="182" spans="1:15" ht="43.5" customHeight="1">
-      <c r="A182" s="170" t="s">
-        <v>123</v>
-      </c>
-      <c r="B182" s="170"/>
-      <c r="C182" s="170"/>
-      <c r="D182" s="170"/>
-      <c r="E182" s="170"/>
-      <c r="F182" s="107"/>
-      <c r="G182" s="21"/>
-      <c r="H182" s="21"/>
-    </row>
-    <row r="183" spans="1:15" s="44" customFormat="1" ht="17.25" customHeight="1">
-      <c r="B183" s="59"/>
-      <c r="C183" s="114"/>
-      <c r="D183" s="106"/>
-      <c r="E183" s="120"/>
-      <c r="F183" s="63"/>
-      <c r="G183" s="64" t="s">
-        <v>34</v>
-      </c>
-      <c r="I183" s="111"/>
-    </row>
-    <row r="184" spans="1:15" s="104" customFormat="1" ht="36.75" customHeight="1">
-      <c r="A184" s="102" t="s">
-        <v>1</v>
-      </c>
-      <c r="B184" s="102" t="s">
-        <v>26</v>
-      </c>
-      <c r="C184" s="115" t="s">
-        <v>10</v>
-      </c>
-      <c r="D184" s="103" t="s">
-        <v>11</v>
-      </c>
-      <c r="E184" s="68" t="s">
-        <v>12</v>
-      </c>
-      <c r="G184" s="66" t="s">
-        <v>35</v>
-      </c>
-      <c r="H184" s="66" t="s">
-        <v>36</v>
-      </c>
-      <c r="I184" s="66" t="s">
-        <v>108</v>
-      </c>
-      <c r="J184" s="66" t="s">
-        <v>37</v>
-      </c>
-      <c r="K184" s="66" t="s">
-        <v>88</v>
-      </c>
-      <c r="L184" s="65" t="s">
-        <v>38</v>
-      </c>
-      <c r="M184" s="68" t="s">
-        <v>111</v>
-      </c>
-      <c r="N184" s="68" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="185" spans="1:15" ht="18.75" customHeight="1">
-      <c r="A185" s="79">
-        <f>ROW()-77</f>
-        <v>108</v>
-      </c>
-      <c r="B185" s="70" t="s">
-        <v>40</v>
-      </c>
-      <c r="C185" s="116">
-        <f>26000*4</f>
-        <v>104000</v>
-      </c>
-      <c r="D185" s="72">
-        <v>300</v>
-      </c>
-      <c r="E185" s="121">
-        <f t="shared" ref="E185:E188" si="55">C185*D185</f>
-        <v>31200000</v>
-      </c>
-      <c r="G185" s="83">
-        <v>42699</v>
-      </c>
-      <c r="H185" s="83"/>
-      <c r="I185" s="75" t="s">
-        <v>96</v>
-      </c>
-      <c r="J185" s="75" t="str">
-        <f t="shared" ref="J185:J197" si="56">IF(H185&lt;&gt;"",H185-G185+1,"")</f>
-        <v/>
-      </c>
-      <c r="K185" s="75">
-        <v>200</v>
-      </c>
-      <c r="L185" s="108">
-        <f t="shared" ref="L185:L196" si="57">K185*13</f>
-        <v>2600</v>
-      </c>
-      <c r="M185" s="77"/>
-      <c r="N185" s="77"/>
-      <c r="O185" s="78"/>
-    </row>
-    <row r="186" spans="1:15" ht="18.75" customHeight="1">
-      <c r="A186" s="79">
-        <f t="shared" ref="A186:A196" si="58">ROW()-77</f>
-        <v>109</v>
-      </c>
-      <c r="B186" s="80" t="s">
-        <v>42</v>
-      </c>
-      <c r="C186" s="117">
-        <v>4</v>
-      </c>
-      <c r="D186" s="82">
-        <v>2000000</v>
-      </c>
-      <c r="E186" s="122">
-        <f t="shared" si="55"/>
-        <v>8000000</v>
-      </c>
-      <c r="G186" s="83">
-        <v>42699</v>
-      </c>
-      <c r="H186" s="83"/>
-      <c r="I186" s="75" t="s">
-        <v>89</v>
-      </c>
-      <c r="J186" s="75" t="str">
-        <f t="shared" si="56"/>
-        <v/>
-      </c>
-      <c r="K186" s="75">
-        <v>400</v>
-      </c>
-      <c r="L186" s="108">
-        <f t="shared" si="57"/>
-        <v>5200</v>
-      </c>
-      <c r="M186" s="77"/>
-      <c r="N186" s="77"/>
-      <c r="O186" s="78"/>
-    </row>
-    <row r="187" spans="1:15" ht="18.75" customHeight="1">
-      <c r="A187" s="79">
-        <f t="shared" si="58"/>
-        <v>110</v>
-      </c>
-      <c r="B187" s="80" t="s">
-        <v>43</v>
-      </c>
-      <c r="C187" s="117">
-        <v>4</v>
-      </c>
-      <c r="D187" s="82">
-        <v>2000000</v>
-      </c>
-      <c r="E187" s="122">
-        <f t="shared" si="55"/>
-        <v>8000000</v>
-      </c>
-      <c r="G187" s="83">
-        <v>42702</v>
-      </c>
-      <c r="H187" s="83"/>
-      <c r="I187" s="75" t="s">
-        <v>91</v>
-      </c>
-      <c r="J187" s="75" t="str">
-        <f t="shared" si="56"/>
-        <v/>
-      </c>
-      <c r="K187" s="75">
-        <v>413</v>
-      </c>
-      <c r="L187" s="108">
-        <f t="shared" si="57"/>
-        <v>5369</v>
-      </c>
-      <c r="M187" s="77"/>
-      <c r="N187" s="77"/>
-      <c r="O187" s="78"/>
-    </row>
-    <row r="188" spans="1:15" ht="18.75" customHeight="1">
-      <c r="A188" s="79">
-        <f t="shared" si="58"/>
-        <v>111</v>
-      </c>
-      <c r="B188" s="80" t="s">
-        <v>44</v>
-      </c>
-      <c r="C188" s="117">
-        <v>4</v>
-      </c>
-      <c r="D188" s="82">
-        <v>600000</v>
-      </c>
-      <c r="E188" s="122">
-        <f t="shared" si="55"/>
-        <v>2400000</v>
-      </c>
-      <c r="G188" s="83">
-        <v>42702</v>
-      </c>
-      <c r="H188" s="83"/>
-      <c r="I188" s="75" t="s">
-        <v>187</v>
-      </c>
-      <c r="J188" s="75" t="str">
-        <f t="shared" si="56"/>
-        <v/>
-      </c>
-      <c r="K188" s="75">
-        <v>418</v>
-      </c>
-      <c r="L188" s="108">
-        <f t="shared" si="57"/>
-        <v>5434</v>
-      </c>
-      <c r="M188" s="77"/>
-      <c r="N188" s="77"/>
-      <c r="O188" s="78"/>
-    </row>
-    <row r="189" spans="1:15" ht="18.75" customHeight="1">
-      <c r="A189" s="79">
-        <f t="shared" si="58"/>
-        <v>112</v>
-      </c>
-      <c r="B189" s="80" t="s">
-        <v>80</v>
-      </c>
-      <c r="C189" s="117">
-        <v>4</v>
-      </c>
-      <c r="D189" s="82">
-        <v>16725000</v>
-      </c>
-      <c r="E189" s="122">
-        <f>C189*D189</f>
-        <v>66900000</v>
-      </c>
-      <c r="G189" s="83">
-        <v>42702</v>
-      </c>
-      <c r="H189" s="83"/>
-      <c r="I189" s="75" t="s">
-        <v>188</v>
-      </c>
-      <c r="J189" s="75" t="str">
-        <f t="shared" si="56"/>
-        <v/>
-      </c>
-      <c r="K189" s="75">
-        <v>582</v>
-      </c>
-      <c r="L189" s="108">
-        <f t="shared" si="57"/>
-        <v>7566</v>
-      </c>
-      <c r="M189" s="77"/>
-      <c r="N189" s="77"/>
-      <c r="O189" s="78"/>
-    </row>
-    <row r="190" spans="1:15" ht="18.75" customHeight="1">
-      <c r="A190" s="79">
-        <f t="shared" si="58"/>
-        <v>113</v>
-      </c>
-      <c r="B190" s="80" t="s">
-        <v>46</v>
-      </c>
-      <c r="C190" s="117">
-        <v>4</v>
-      </c>
-      <c r="D190" s="82">
-        <v>7378778</v>
-      </c>
-      <c r="E190" s="122">
-        <f t="shared" ref="E190:E192" si="59">C190*D190</f>
-        <v>29515112</v>
-      </c>
-      <c r="G190" s="83">
-        <v>42702</v>
-      </c>
-      <c r="H190" s="83"/>
-      <c r="I190" s="75" t="s">
-        <v>105</v>
-      </c>
-      <c r="J190" s="75" t="str">
-        <f t="shared" si="56"/>
-        <v/>
-      </c>
-      <c r="K190" s="75">
-        <v>500</v>
-      </c>
-      <c r="L190" s="108">
-        <f t="shared" si="57"/>
-        <v>6500</v>
-      </c>
-      <c r="M190" s="77"/>
-      <c r="N190" s="77"/>
-      <c r="O190" s="78"/>
-    </row>
-    <row r="191" spans="1:15" ht="18.75" customHeight="1">
-      <c r="A191" s="79">
-        <f t="shared" si="58"/>
-        <v>114</v>
-      </c>
-      <c r="B191" s="80" t="s">
-        <v>47</v>
-      </c>
-      <c r="C191" s="117">
-        <v>4</v>
-      </c>
-      <c r="D191" s="82">
-        <v>5600000</v>
-      </c>
-      <c r="E191" s="122">
-        <f t="shared" si="59"/>
-        <v>22400000</v>
-      </c>
-      <c r="G191" s="83">
-        <v>42702</v>
-      </c>
-      <c r="H191" s="83"/>
-      <c r="I191" s="75" t="s">
-        <v>189</v>
-      </c>
-      <c r="J191" s="75" t="str">
-        <f t="shared" si="56"/>
-        <v/>
-      </c>
-      <c r="K191" s="75">
-        <v>500</v>
-      </c>
-      <c r="L191" s="108">
-        <f t="shared" si="57"/>
-        <v>6500</v>
-      </c>
-      <c r="M191" s="77"/>
-      <c r="N191" s="77"/>
-      <c r="O191" s="78"/>
-    </row>
-    <row r="192" spans="1:15" ht="18.75" customHeight="1">
-      <c r="A192" s="79">
-        <f t="shared" si="58"/>
-        <v>115</v>
-      </c>
-      <c r="B192" s="80" t="s">
-        <v>48</v>
-      </c>
-      <c r="C192" s="117">
-        <v>4</v>
-      </c>
-      <c r="D192" s="82">
-        <f>88*22500</f>
-        <v>1980000</v>
-      </c>
-      <c r="E192" s="122">
-        <f t="shared" si="59"/>
-        <v>7920000</v>
-      </c>
-      <c r="G192" s="83">
-        <v>42702</v>
-      </c>
-      <c r="H192" s="83"/>
-      <c r="I192" s="75" t="s">
-        <v>190</v>
-      </c>
-      <c r="J192" s="75" t="str">
-        <f t="shared" si="56"/>
-        <v/>
-      </c>
-      <c r="K192" s="75">
-        <v>810</v>
-      </c>
-      <c r="L192" s="108">
-        <f t="shared" si="57"/>
-        <v>10530</v>
-      </c>
-      <c r="M192" s="77"/>
-      <c r="N192" s="77"/>
-      <c r="O192" s="78"/>
-    </row>
-    <row r="193" spans="1:15" ht="18.75" customHeight="1">
-      <c r="A193" s="79">
-        <f t="shared" si="58"/>
-        <v>116</v>
-      </c>
-      <c r="B193" s="80" t="s">
-        <v>49</v>
-      </c>
-      <c r="C193" s="117">
-        <v>4</v>
-      </c>
-      <c r="D193" s="82">
-        <v>1350000</v>
-      </c>
-      <c r="E193" s="122">
-        <f>C193*D193</f>
-        <v>5400000</v>
-      </c>
-      <c r="G193" s="83">
-        <v>42702</v>
-      </c>
-      <c r="H193" s="83"/>
-      <c r="I193" s="75" t="s">
-        <v>191</v>
-      </c>
-      <c r="J193" s="75" t="str">
-        <f t="shared" si="56"/>
-        <v/>
-      </c>
-      <c r="K193" s="75">
-        <v>682</v>
-      </c>
-      <c r="L193" s="108">
-        <f t="shared" si="57"/>
-        <v>8866</v>
-      </c>
-      <c r="M193" s="77"/>
-      <c r="N193" s="77"/>
-      <c r="O193" s="78"/>
-    </row>
-    <row r="194" spans="1:15" ht="18.75" customHeight="1">
-      <c r="A194" s="79">
-        <f t="shared" si="58"/>
-        <v>117</v>
-      </c>
-      <c r="B194" s="80" t="s">
-        <v>84</v>
-      </c>
-      <c r="C194" s="117">
-        <v>4</v>
-      </c>
-      <c r="D194" s="82">
-        <v>2500000</v>
-      </c>
-      <c r="E194" s="122">
-        <f t="shared" ref="E194" si="60">C194*D194</f>
-        <v>10000000</v>
-      </c>
-      <c r="G194" s="83">
-        <v>42702</v>
-      </c>
-      <c r="H194" s="83"/>
-      <c r="I194" s="75" t="s">
-        <v>127</v>
-      </c>
-      <c r="J194" s="75"/>
-      <c r="K194" s="75">
-        <v>894</v>
-      </c>
-      <c r="L194" s="108">
-        <f t="shared" si="57"/>
-        <v>11622</v>
-      </c>
-      <c r="M194" s="77"/>
-      <c r="N194" s="77"/>
-      <c r="O194" s="78"/>
-    </row>
-    <row r="195" spans="1:15" ht="18.75" customHeight="1">
-      <c r="A195" s="79">
-        <f t="shared" si="58"/>
-        <v>118</v>
-      </c>
-      <c r="B195" s="80" t="s">
-        <v>50</v>
-      </c>
-      <c r="C195" s="117">
-        <v>104</v>
-      </c>
-      <c r="D195" s="82">
-        <v>50000</v>
-      </c>
-      <c r="E195" s="122">
-        <f>C195*D195</f>
-        <v>5200000</v>
-      </c>
-      <c r="G195" s="83">
-        <v>42703</v>
-      </c>
-      <c r="H195" s="83"/>
-      <c r="I195" s="75" t="s">
-        <v>90</v>
-      </c>
-      <c r="J195" s="75"/>
-      <c r="K195" s="75">
-        <v>445</v>
-      </c>
-      <c r="L195" s="108">
-        <f t="shared" si="57"/>
-        <v>5785</v>
-      </c>
-      <c r="M195" s="77"/>
-      <c r="N195" s="77"/>
-      <c r="O195" s="78"/>
-    </row>
-    <row r="196" spans="1:15" ht="18.75" customHeight="1">
-      <c r="A196" s="79">
-        <f t="shared" si="58"/>
-        <v>119</v>
-      </c>
-      <c r="B196" s="80" t="s">
-        <v>51</v>
-      </c>
-      <c r="C196" s="117"/>
-      <c r="D196" s="82"/>
-      <c r="E196" s="122">
-        <f>N209</f>
-        <v>0</v>
-      </c>
-      <c r="G196" s="83">
-        <v>42703</v>
-      </c>
-      <c r="H196" s="83"/>
-      <c r="I196" s="75" t="s">
-        <v>194</v>
-      </c>
-      <c r="J196" s="75"/>
-      <c r="K196" s="75">
-        <v>372</v>
-      </c>
-      <c r="L196" s="108">
-        <f t="shared" si="57"/>
-        <v>4836</v>
-      </c>
-      <c r="M196" s="77"/>
-      <c r="N196" s="77"/>
-      <c r="O196" s="78"/>
-    </row>
-    <row r="197" spans="1:15" ht="18.75" customHeight="1">
-      <c r="A197" s="79"/>
-      <c r="B197" s="80"/>
-      <c r="C197" s="117"/>
-      <c r="D197" s="82"/>
-      <c r="E197" s="122"/>
-      <c r="G197" s="83">
-        <v>42703</v>
-      </c>
-      <c r="H197" s="83"/>
-      <c r="I197" s="75" t="s">
-        <v>95</v>
-      </c>
-      <c r="J197" s="75"/>
-      <c r="K197" s="75">
-        <v>550</v>
-      </c>
-      <c r="L197" s="108">
-        <f t="shared" ref="L197:L206" si="61">K197*13</f>
-        <v>7150</v>
-      </c>
-      <c r="M197" s="77"/>
-      <c r="N197" s="77"/>
-      <c r="O197" s="78"/>
-    </row>
-    <row r="198" spans="1:15" ht="18.75" customHeight="1">
-      <c r="A198" s="79"/>
-      <c r="B198" s="80"/>
-      <c r="C198" s="117"/>
-      <c r="D198" s="82"/>
-      <c r="E198" s="122"/>
-      <c r="G198" s="83">
-        <v>42703</v>
-      </c>
-      <c r="H198" s="83"/>
-      <c r="I198" s="75" t="s">
-        <v>132</v>
-      </c>
-      <c r="J198" s="75"/>
-      <c r="K198" s="75">
-        <v>683</v>
-      </c>
-      <c r="L198" s="108">
-        <f t="shared" si="61"/>
-        <v>8879</v>
-      </c>
-      <c r="M198" s="77"/>
-      <c r="N198" s="77"/>
-      <c r="O198" s="78"/>
-    </row>
-    <row r="199" spans="1:15" ht="18.75" customHeight="1">
-      <c r="A199" s="79"/>
-      <c r="B199" s="80"/>
-      <c r="C199" s="117"/>
-      <c r="D199" s="82"/>
-      <c r="E199" s="122"/>
-      <c r="G199" s="83"/>
-      <c r="H199" s="83"/>
-      <c r="I199" s="75"/>
-      <c r="J199" s="75"/>
-      <c r="K199" s="75"/>
-      <c r="L199" s="108">
-        <f t="shared" si="61"/>
-        <v>0</v>
-      </c>
-      <c r="M199" s="77"/>
-      <c r="N199" s="77"/>
-      <c r="O199" s="78"/>
-    </row>
-    <row r="200" spans="1:15" ht="18.75" customHeight="1">
-      <c r="A200" s="79"/>
-      <c r="B200" s="80"/>
-      <c r="C200" s="117"/>
-      <c r="D200" s="82"/>
-      <c r="E200" s="122"/>
-      <c r="G200" s="83"/>
-      <c r="H200" s="83"/>
-      <c r="I200" s="75"/>
-      <c r="J200" s="75"/>
-      <c r="K200" s="75"/>
-      <c r="L200" s="108">
-        <f t="shared" si="61"/>
-        <v>0</v>
-      </c>
-      <c r="M200" s="77"/>
-      <c r="N200" s="77"/>
-      <c r="O200" s="78"/>
-    </row>
-    <row r="201" spans="1:15" ht="18.75" customHeight="1">
-      <c r="A201" s="79"/>
-      <c r="B201" s="80"/>
-      <c r="C201" s="117"/>
-      <c r="D201" s="82"/>
-      <c r="E201" s="122"/>
-      <c r="G201" s="83"/>
-      <c r="H201" s="83"/>
-      <c r="I201" s="75"/>
-      <c r="J201" s="75"/>
-      <c r="K201" s="75"/>
-      <c r="L201" s="108">
-        <f t="shared" si="61"/>
-        <v>0</v>
-      </c>
-      <c r="M201" s="77"/>
-      <c r="N201" s="77"/>
-      <c r="O201" s="78"/>
-    </row>
-    <row r="202" spans="1:15" ht="18.75" customHeight="1">
-      <c r="A202" s="79"/>
-      <c r="B202" s="80"/>
-      <c r="C202" s="117"/>
-      <c r="D202" s="82"/>
-      <c r="E202" s="122"/>
-      <c r="G202" s="83"/>
-      <c r="H202" s="83"/>
-      <c r="I202" s="75"/>
-      <c r="J202" s="75"/>
-      <c r="K202" s="75"/>
-      <c r="L202" s="108">
-        <f t="shared" si="61"/>
-        <v>0</v>
-      </c>
-      <c r="M202" s="77"/>
-      <c r="N202" s="77"/>
-      <c r="O202" s="78"/>
-    </row>
-    <row r="203" spans="1:15" ht="18.75" customHeight="1">
-      <c r="A203" s="79"/>
-      <c r="B203" s="80"/>
-      <c r="C203" s="117"/>
-      <c r="D203" s="82"/>
-      <c r="E203" s="122"/>
-      <c r="G203" s="83"/>
-      <c r="H203" s="83"/>
-      <c r="I203" s="75"/>
-      <c r="J203" s="75"/>
-      <c r="K203" s="75"/>
-      <c r="L203" s="108">
-        <f t="shared" si="61"/>
-        <v>0</v>
-      </c>
-      <c r="M203" s="77"/>
-      <c r="N203" s="77"/>
-      <c r="O203" s="78"/>
-    </row>
-    <row r="204" spans="1:15" ht="18.75" customHeight="1">
-      <c r="A204" s="79"/>
-      <c r="B204" s="80"/>
-      <c r="C204" s="117"/>
-      <c r="D204" s="82"/>
-      <c r="E204" s="122"/>
-      <c r="G204" s="83"/>
-      <c r="H204" s="83"/>
-      <c r="I204" s="75"/>
-      <c r="J204" s="75"/>
-      <c r="K204" s="75"/>
-      <c r="L204" s="108">
-        <f t="shared" si="61"/>
-        <v>0</v>
-      </c>
-      <c r="M204" s="77"/>
-      <c r="N204" s="77"/>
-      <c r="O204" s="78"/>
-    </row>
-    <row r="205" spans="1:15" ht="18.75" customHeight="1">
-      <c r="A205" s="79"/>
-      <c r="B205" s="80"/>
-      <c r="C205" s="117"/>
-      <c r="D205" s="82"/>
-      <c r="E205" s="122"/>
-      <c r="G205" s="83"/>
-      <c r="H205" s="83"/>
-      <c r="I205" s="75"/>
-      <c r="J205" s="75"/>
-      <c r="K205" s="75"/>
-      <c r="L205" s="108">
-        <f t="shared" si="61"/>
-        <v>0</v>
-      </c>
-      <c r="M205" s="77"/>
-      <c r="N205" s="77"/>
-      <c r="O205" s="78"/>
-    </row>
-    <row r="206" spans="1:15" ht="18.75" customHeight="1">
-      <c r="A206" s="79"/>
-      <c r="B206" s="80"/>
-      <c r="C206" s="117"/>
-      <c r="D206" s="82"/>
-      <c r="E206" s="122"/>
-      <c r="G206" s="83"/>
-      <c r="H206" s="83"/>
-      <c r="I206" s="75"/>
-      <c r="J206" s="75"/>
-      <c r="K206" s="75"/>
-      <c r="L206" s="108">
-        <f t="shared" si="61"/>
-        <v>0</v>
-      </c>
-      <c r="M206" s="77"/>
-      <c r="N206" s="77"/>
-      <c r="O206" s="78"/>
-    </row>
-    <row r="207" spans="1:15" ht="18.75" customHeight="1">
-      <c r="A207" s="79"/>
-      <c r="B207" s="80"/>
-      <c r="C207" s="117"/>
-      <c r="D207" s="82"/>
-      <c r="E207" s="122"/>
-      <c r="G207" s="83"/>
-      <c r="H207" s="83"/>
-      <c r="I207" s="75"/>
-      <c r="J207" s="75"/>
-      <c r="K207" s="75"/>
-      <c r="L207" s="108">
-        <f t="shared" ref="L207" si="62">K207*13</f>
-        <v>0</v>
-      </c>
-      <c r="M207" s="77"/>
-      <c r="N207" s="77"/>
-      <c r="O207" s="78"/>
-    </row>
-    <row r="208" spans="1:15" ht="7.5" customHeight="1">
-      <c r="A208" s="79"/>
-      <c r="B208" s="80"/>
-      <c r="C208" s="117"/>
-      <c r="D208" s="82"/>
-      <c r="E208" s="122"/>
-      <c r="G208" s="85"/>
-      <c r="H208" s="85"/>
-      <c r="I208" s="86"/>
-      <c r="J208" s="86"/>
-      <c r="K208" s="86"/>
-      <c r="L208" s="87"/>
-      <c r="M208" s="88"/>
-      <c r="N208" s="88"/>
-    </row>
-    <row r="209" spans="1:14" ht="18.75" customHeight="1">
-      <c r="A209" s="89"/>
-      <c r="B209" s="89" t="s">
-        <v>53</v>
-      </c>
-      <c r="C209" s="118"/>
-      <c r="D209" s="91"/>
-      <c r="E209" s="93">
-        <f>SUM(E185:E208)</f>
-        <v>196935112</v>
-      </c>
-      <c r="F209" s="23"/>
-      <c r="G209" s="92"/>
-      <c r="H209" s="92"/>
-      <c r="I209" s="92" t="s">
-        <v>53</v>
-      </c>
-      <c r="J209" s="92"/>
-      <c r="K209" s="109">
-        <f>SUM(K185:K208)</f>
-        <v>7449</v>
-      </c>
-      <c r="L209" s="109">
-        <f>SUM(L185:L208)</f>
-        <v>96837</v>
-      </c>
-      <c r="M209" s="109"/>
-      <c r="N209" s="93">
-        <f>SUM(N185:N208)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="210" spans="1:14" ht="7.5" customHeight="1"/>
-    <row r="211" spans="1:14" s="22" customFormat="1">
-      <c r="A211" s="24"/>
-      <c r="B211" s="24"/>
-      <c r="C211" s="119"/>
-      <c r="D211" s="26" t="s">
-        <v>54</v>
-      </c>
-      <c r="E211" s="123">
-        <f>E209/C185</f>
+      <c r="E234" s="123">
+        <f>E232/C208</f>
         <v>1893.6068461538462</v>
       </c>
-      <c r="F211" s="24"/>
+      <c r="F234" s="24"/>
     </row>
   </sheetData>
-  <mergeCells count="56">
-    <mergeCell ref="F154:H154"/>
-    <mergeCell ref="F155:H155"/>
-    <mergeCell ref="F156:H156"/>
-    <mergeCell ref="A182:E182"/>
-    <mergeCell ref="F149:H149"/>
-    <mergeCell ref="F150:H150"/>
-    <mergeCell ref="F151:H151"/>
-    <mergeCell ref="F152:H152"/>
-    <mergeCell ref="F153:H153"/>
-    <mergeCell ref="F144:H144"/>
-    <mergeCell ref="F145:H145"/>
-    <mergeCell ref="F146:H146"/>
-    <mergeCell ref="F147:H147"/>
-    <mergeCell ref="F140:H140"/>
-    <mergeCell ref="F141:H141"/>
-    <mergeCell ref="F142:H142"/>
-    <mergeCell ref="F143:H143"/>
-    <mergeCell ref="F135:H135"/>
-    <mergeCell ref="F136:H136"/>
-    <mergeCell ref="F137:H137"/>
-    <mergeCell ref="F131:H131"/>
-    <mergeCell ref="F139:H139"/>
+  <mergeCells count="66">
+    <mergeCell ref="F128:H128"/>
+    <mergeCell ref="F129:H129"/>
+    <mergeCell ref="F130:H130"/>
+    <mergeCell ref="F132:H132"/>
+    <mergeCell ref="F133:H133"/>
+    <mergeCell ref="F100:H100"/>
+    <mergeCell ref="F94:H94"/>
+    <mergeCell ref="F92:H92"/>
+    <mergeCell ref="F93:H93"/>
+    <mergeCell ref="F96:H96"/>
+    <mergeCell ref="F98:H98"/>
+    <mergeCell ref="F99:H99"/>
+    <mergeCell ref="F95:H95"/>
+    <mergeCell ref="F97:H97"/>
+    <mergeCell ref="F89:H89"/>
+    <mergeCell ref="F90:H90"/>
+    <mergeCell ref="F85:H85"/>
+    <mergeCell ref="F86:H86"/>
+    <mergeCell ref="F87:H87"/>
+    <mergeCell ref="F88:H88"/>
     <mergeCell ref="A1:E1"/>
     <mergeCell ref="A32:E32"/>
     <mergeCell ref="A21:E21"/>
@@ -10225,28 +10865,40 @@
     <mergeCell ref="B81:D81"/>
     <mergeCell ref="B82:D82"/>
     <mergeCell ref="B83:D83"/>
-    <mergeCell ref="F89:H89"/>
-    <mergeCell ref="F90:H90"/>
-    <mergeCell ref="F85:H85"/>
-    <mergeCell ref="F86:H86"/>
-    <mergeCell ref="F87:H87"/>
-    <mergeCell ref="F88:H88"/>
-    <mergeCell ref="A160:E160"/>
-    <mergeCell ref="F100:H100"/>
-    <mergeCell ref="F94:H94"/>
-    <mergeCell ref="F92:H92"/>
-    <mergeCell ref="F93:H93"/>
-    <mergeCell ref="F96:H96"/>
-    <mergeCell ref="F98:H98"/>
-    <mergeCell ref="F99:H99"/>
-    <mergeCell ref="F95:H95"/>
-    <mergeCell ref="F97:H97"/>
-    <mergeCell ref="F128:H128"/>
-    <mergeCell ref="F129:H129"/>
-    <mergeCell ref="F130:H130"/>
-    <mergeCell ref="F132:H132"/>
-    <mergeCell ref="F133:H133"/>
+    <mergeCell ref="F135:H135"/>
+    <mergeCell ref="F136:H136"/>
+    <mergeCell ref="F137:H137"/>
+    <mergeCell ref="F131:H131"/>
+    <mergeCell ref="F139:H139"/>
     <mergeCell ref="F134:H134"/>
+    <mergeCell ref="F144:H144"/>
+    <mergeCell ref="F145:H145"/>
+    <mergeCell ref="F146:H146"/>
+    <mergeCell ref="F147:H147"/>
+    <mergeCell ref="F140:H140"/>
+    <mergeCell ref="F141:H141"/>
+    <mergeCell ref="F142:H142"/>
+    <mergeCell ref="F143:H143"/>
+    <mergeCell ref="A150:E150"/>
+    <mergeCell ref="F188:H188"/>
+    <mergeCell ref="F189:H189"/>
+    <mergeCell ref="F194:H194"/>
+    <mergeCell ref="F190:H190"/>
+    <mergeCell ref="F191:H191"/>
+    <mergeCell ref="A205:E205"/>
+    <mergeCell ref="F177:H177"/>
+    <mergeCell ref="F178:H178"/>
+    <mergeCell ref="F179:H179"/>
+    <mergeCell ref="F180:H180"/>
+    <mergeCell ref="F181:H181"/>
+    <mergeCell ref="F195:H195"/>
+    <mergeCell ref="F197:H197"/>
+    <mergeCell ref="F196:H196"/>
+    <mergeCell ref="F198:H198"/>
+    <mergeCell ref="F199:H199"/>
+    <mergeCell ref="F182:H182"/>
+    <mergeCell ref="F183:H183"/>
+    <mergeCell ref="F184:H184"/>
   </mergeCells>
   <pageMargins left="0.16" right="0.16" top="0.19" bottom="0.25" header="0" footer="0"/>
   <pageSetup paperSize="9" scale="85" orientation="landscape" r:id="rId1"/>

--- a/CONG NO/THEO DOI HANG TRUNG QUOC.xlsx
+++ b/CONG NO/THEO DOI HANG TRUNG QUOC.xlsx
@@ -4,25 +4,27 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="480" yWindow="285" windowWidth="19440" windowHeight="9795" activeTab="2"/>
+    <workbookView xWindow="480" yWindow="405" windowWidth="19440" windowHeight="9675"/>
   </bookViews>
   <sheets>
     <sheet name="TD-TQ" sheetId="1" r:id="rId1"/>
     <sheet name="GC - TQ (T8)" sheetId="2" r:id="rId2"/>
     <sheet name="19-10" sheetId="5" r:id="rId3"/>
+    <sheet name="Sheet1" sheetId="6" r:id="rId4"/>
+    <sheet name="Sheet2" sheetId="7" r:id="rId5"/>
   </sheets>
   <definedNames>
     <definedName name="_Fill" localSheetId="2" hidden="1">#REF!</definedName>
     <definedName name="_Fill" localSheetId="1" hidden="1">#REF!</definedName>
     <definedName name="_Fill" hidden="1">#REF!</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="2">'19-10'!$A$150:$N$201</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="2">'19-10'!$A$205:$N$236</definedName>
   </definedNames>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="566" uniqueCount="204">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="710" uniqueCount="262">
   <si>
     <t>THEO DÕI HÀNG XUẤT TRUNG QUỐC</t>
   </si>
@@ -393,9 +395,6 @@
     <t>PHÍ CHUYỂN TIỀN</t>
   </si>
   <si>
-    <t>CHI PHÍ XUAÁT HAØNG - CAÙ CÔM - SHOUSHAN ()</t>
-  </si>
-  <si>
     <t>Trả lại (04/11/16)</t>
   </si>
   <si>
@@ -634,6 +633,185 @@
   </si>
   <si>
     <t>1T Khô cá ngân A</t>
+  </si>
+  <si>
+    <t>CHI PHÍ XUAÁT HAØNG - CAÙ CÔM - SHOUSHAN (Cont 33-&gt;46  - 7,9&amp;12/12/16)</t>
+  </si>
+  <si>
+    <t>51C-54739</t>
+  </si>
+  <si>
+    <t>51C-79632</t>
+  </si>
+  <si>
+    <t>Kho Toàn Phát (3T-cơm trắng)</t>
+  </si>
+  <si>
+    <t>57L-6009</t>
+  </si>
+  <si>
+    <t>8 Lộc (P.Quốc)</t>
+  </si>
+  <si>
+    <t>XUẤT BỔ SUNG HÓA ĐƠN T11/2016</t>
+  </si>
+  <si>
+    <t>NGÀY HĐ</t>
+  </si>
+  <si>
+    <t>SỐ HĐ</t>
+  </si>
+  <si>
+    <t>NỘI DUNG HĐ</t>
+  </si>
+  <si>
+    <t>TIỀN VAT</t>
+  </si>
+  <si>
+    <t>0000102</t>
+  </si>
+  <si>
+    <t>0000103</t>
+  </si>
+  <si>
+    <t>0000107</t>
+  </si>
+  <si>
+    <t>0000108</t>
+  </si>
+  <si>
+    <t>0000583</t>
+  </si>
+  <si>
+    <t>0000584</t>
+  </si>
+  <si>
+    <t>0000585</t>
+  </si>
+  <si>
+    <t>0000113</t>
+  </si>
+  <si>
+    <t>0000586</t>
+  </si>
+  <si>
+    <t>Thùng carton (50x29,5x19)</t>
+  </si>
+  <si>
+    <t>Thùng carton (50x29,5x19)
+Lô hàng ngày 3/11/16</t>
+  </si>
+  <si>
+    <t>Thùng carton (50x29,5x19)
+Lô hàng ngày 4/11/16</t>
+  </si>
+  <si>
+    <t>Tên TK: LÊ KIM NGỌC THẢO</t>
+  </si>
+  <si>
+    <t>Số TK: 0501 000 152 179</t>
+  </si>
+  <si>
+    <t>NH Vietcombank - CN Vĩnh Lộc</t>
+  </si>
+  <si>
+    <t>0000563</t>
+  </si>
+  <si>
+    <t>Tiền hàng 13/12/16</t>
+  </si>
+  <si>
+    <t>Chi phí xuất hàng (Cont 33-&gt;46)</t>
+  </si>
+  <si>
+    <t>Trần Cẩm Thi</t>
+  </si>
+  <si>
+    <t>LONG BEACH TRADER V.005E</t>
+  </si>
+  <si>
+    <t>YMLU5294410</t>
+  </si>
+  <si>
+    <t>YMLL856462</t>
+  </si>
+  <si>
+    <t>YMLU5287387</t>
+  </si>
+  <si>
+    <t>YMLL856463</t>
+  </si>
+  <si>
+    <t>YMLU5317007</t>
+  </si>
+  <si>
+    <t>YMLL856461</t>
+  </si>
+  <si>
+    <t>YMLU5282981</t>
+  </si>
+  <si>
+    <t>YMLL856750</t>
+  </si>
+  <si>
+    <t>NORTHERN VIVACITY V.16012N</t>
+  </si>
+  <si>
+    <t>CCLU8591405</t>
+  </si>
+  <si>
+    <t>CCLU8604420</t>
+  </si>
+  <si>
+    <t>CXRU1372034</t>
+  </si>
+  <si>
+    <t>CXRU1595737</t>
+  </si>
+  <si>
+    <t>CCLU8547721</t>
+  </si>
+  <si>
+    <t>CCLU8600929</t>
+  </si>
+  <si>
+    <t>SZLU9681741</t>
+  </si>
+  <si>
+    <t>CBHU2831710</t>
+  </si>
+  <si>
+    <t>TEMU9126037</t>
+  </si>
+  <si>
+    <t>TCLU1118188</t>
+  </si>
+  <si>
+    <t>JXLU5839374</t>
+  </si>
+  <si>
+    <t>ZCSU5860290</t>
+  </si>
+  <si>
+    <t>ZCSU5171135</t>
+  </si>
+  <si>
+    <t>ZCSU5850223</t>
+  </si>
+  <si>
+    <t>BOX ENDEAVOUR V.19/N</t>
+  </si>
+  <si>
+    <t>ZGL-V110986</t>
+  </si>
+  <si>
+    <t>ZGL-V110983</t>
+  </si>
+  <si>
+    <t>ZGL-V110956</t>
+  </si>
+  <si>
+    <t>ZGL-V110987</t>
   </si>
 </sst>
 </file>
@@ -653,7 +831,7 @@
     <numFmt numFmtId="172" formatCode="_(* #,##0.0_);_(* \(#,##0.0\);_(* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="173" formatCode="_(* #,##0.000_);_(* \(#,##0.000\);_(* &quot;-&quot;??_);_(@_)"/>
   </numFmts>
-  <fonts count="26">
+  <fonts count="28">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -791,6 +969,17 @@
     <font>
       <sz val="10.5"/>
       <color theme="1"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <name val="Times New Roman"/>
       <family val="1"/>
     </font>
@@ -1114,7 +1303,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="38">
+  <cellStyleXfs count="40">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="43" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="3" fontId="6" fillId="2" borderId="2"/>
@@ -1167,8 +1356,10 @@
     <xf numFmtId="170" fontId="16" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="171" fontId="16" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="201">
+  <cellXfs count="241">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -1641,12 +1832,190 @@
     <xf numFmtId="14" fontId="3" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="2" xfId="22" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="22" fillId="0" borderId="16" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="22" fillId="0" borderId="17" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="22" fillId="0" borderId="18" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="20" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="20" fillId="0" borderId="0" xfId="4" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="20" fillId="0" borderId="0" xfId="22" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="3" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="43" fontId="3" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="43" fontId="3" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="3" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="3" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="22" fillId="0" borderId="16" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="22" fillId="0" borderId="17" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="22" fillId="0" borderId="18" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="21" fillId="0" borderId="2" xfId="22" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="3" xfId="22" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="27" fillId="0" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="27" fillId="0" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="27" fillId="0" borderId="6" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="27" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="3" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="4" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="27" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="21" fillId="0" borderId="0" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="27" fillId="0" borderId="0" xfId="38" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" xfId="39" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="39" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="3" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="3" fillId="0" borderId="0" xfId="39" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="43" fontId="3" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="3" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="3" fillId="0" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="3" fillId="0" borderId="5" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="3" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="3" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="3" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="3" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="3" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="3" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="22" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="164" fontId="22" fillId="0" borderId="16" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1656,60 +2025,6 @@
     <xf numFmtId="164" fontId="22" fillId="0" borderId="18" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="20" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="20" fillId="0" borderId="0" xfId="4" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="20" fillId="0" borderId="0" xfId="22" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="3" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="3" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="3" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="3" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="3" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="3" fillId="0" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="3" fillId="0" borderId="5" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="3" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="22" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="164" fontId="22" fillId="0" borderId="19" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1728,15 +2043,6 @@
     <xf numFmtId="164" fontId="21" fillId="0" borderId="9" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="22" fillId="0" borderId="16" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="22" fillId="0" borderId="17" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="22" fillId="0" borderId="18" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="164" fontId="21" fillId="0" borderId="7" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1746,6 +2052,15 @@
     <xf numFmtId="164" fontId="21" fillId="0" borderId="9" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="164" fontId="22" fillId="0" borderId="22" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="22" fillId="0" borderId="23" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="22" fillId="0" borderId="24" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="21" fillId="0" borderId="2" xfId="22" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1761,17 +2076,11 @@
     <xf numFmtId="0" fontId="22" fillId="0" borderId="2" xfId="22" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="22" fillId="0" borderId="22" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="22" fillId="0" borderId="23" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="22" fillId="0" borderId="24" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
   </cellXfs>
-  <cellStyles count="38">
+  <cellStyles count="40">
     <cellStyle name="cg" xfId="2"/>
     <cellStyle name="Comma" xfId="1" builtinId="3"/>
     <cellStyle name="Comma 2" xfId="3"/>
@@ -1798,6 +2107,8 @@
     <cellStyle name="Normal 4" xfId="23"/>
     <cellStyle name="Normal 5" xfId="24"/>
     <cellStyle name="Normal_CHI PHI HANG CHÚ NGUYÊN" xfId="25"/>
+    <cellStyle name="Normal_Copy of Ke-toan-mo-phong-mauso_ke_toan_NKC_excel-2" xfId="39"/>
+    <cellStyle name="Normal_ketoanthucte_NhatKySoCai" xfId="38"/>
     <cellStyle name="TD1" xfId="26"/>
     <cellStyle name="똿뗦먛귟 [0.00]_PRODUCT DETAIL Q1" xfId="27"/>
     <cellStyle name="똿뗦먛귟_PRODUCT DETAIL Q1" xfId="28"/>
@@ -2111,11 +2422,11 @@
   <sheetPr>
     <tabColor rgb="FFC00000"/>
   </sheetPr>
-  <dimension ref="A1:L45"/>
+  <dimension ref="A1:L62"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane ySplit="3" topLeftCell="A16" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="L35" sqref="L35"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="3" topLeftCell="A43" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A50" sqref="A50"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.7109375" defaultRowHeight="18" customHeight="1"/>
@@ -2136,51 +2447,51 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12" ht="27" customHeight="1">
-      <c r="A1" s="178" t="s">
+      <c r="A1" s="215" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="178"/>
-      <c r="C1" s="178"/>
-      <c r="D1" s="178"/>
-      <c r="E1" s="178"/>
-      <c r="F1" s="178"/>
-      <c r="G1" s="178"/>
-      <c r="H1" s="178"/>
-      <c r="I1" s="178"/>
-      <c r="J1" s="178"/>
-      <c r="K1" s="178"/>
+      <c r="B1" s="215"/>
+      <c r="C1" s="215"/>
+      <c r="D1" s="215"/>
+      <c r="E1" s="215"/>
+      <c r="F1" s="215"/>
+      <c r="G1" s="215"/>
+      <c r="H1" s="215"/>
+      <c r="I1" s="215"/>
+      <c r="J1" s="215"/>
+      <c r="K1" s="215"/>
     </row>
     <row r="2" spans="1:12" s="2" customFormat="1" ht="19.5" customHeight="1">
-      <c r="A2" s="174" t="s">
+      <c r="A2" s="211" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="174" t="s">
+      <c r="B2" s="211" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="179" t="s">
+      <c r="C2" s="216" t="s">
         <v>3</v>
       </c>
-      <c r="D2" s="179"/>
-      <c r="E2" s="179"/>
-      <c r="F2" s="179" t="s">
+      <c r="D2" s="216"/>
+      <c r="E2" s="216"/>
+      <c r="F2" s="216" t="s">
         <v>4</v>
       </c>
-      <c r="G2" s="179"/>
-      <c r="H2" s="179"/>
-      <c r="I2" s="174" t="s">
+      <c r="G2" s="216"/>
+      <c r="H2" s="216"/>
+      <c r="I2" s="211" t="s">
         <v>5</v>
       </c>
-      <c r="J2" s="179" t="s">
+      <c r="J2" s="216" t="s">
         <v>6</v>
       </c>
-      <c r="K2" s="179"/>
-      <c r="L2" s="174" t="s">
+      <c r="K2" s="216"/>
+      <c r="L2" s="211" t="s">
         <v>87</v>
       </c>
     </row>
     <row r="3" spans="1:12" s="5" customFormat="1" ht="27" customHeight="1">
-      <c r="A3" s="174"/>
-      <c r="B3" s="174" t="s">
+      <c r="A3" s="211"/>
+      <c r="B3" s="211" t="s">
         <v>2</v>
       </c>
       <c r="C3" s="3" t="s">
@@ -2201,14 +2512,14 @@
       <c r="H3" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="I3" s="174"/>
+      <c r="I3" s="211"/>
       <c r="J3" s="4" t="s">
         <v>13</v>
       </c>
       <c r="K3" s="124" t="s">
         <v>14</v>
       </c>
-      <c r="L3" s="174"/>
+      <c r="L3" s="211"/>
     </row>
     <row r="4" spans="1:12" s="10" customFormat="1" ht="18" customHeight="1">
       <c r="A4" s="6">
@@ -2240,10 +2551,10 @@
       <c r="I4" s="7">
         <v>42595</v>
       </c>
-      <c r="J4" s="166">
+      <c r="J4" s="210">
         <v>42626</v>
       </c>
-      <c r="K4" s="173">
+      <c r="K4" s="207">
         <v>148188</v>
       </c>
       <c r="L4" s="6" t="s">
@@ -2252,7 +2563,7 @@
     </row>
     <row r="5" spans="1:12" s="10" customFormat="1" ht="18" customHeight="1">
       <c r="A5" s="6">
-        <f t="shared" ref="A5:A43" si="0">IF(B5&lt;&gt;"",ROW()-3,"")</f>
+        <f t="shared" ref="A5:A60" si="0">IF(B5&lt;&gt;"",ROW()-3,"")</f>
         <v>2</v>
       </c>
       <c r="B5" s="7">
@@ -2274,14 +2585,14 @@
         <v>2.85</v>
       </c>
       <c r="H5" s="9">
-        <f t="shared" ref="H5:H43" si="1">F5*G5</f>
+        <f t="shared" ref="H5:H60" si="1">F5*G5</f>
         <v>74100</v>
       </c>
       <c r="I5" s="12">
         <v>42595</v>
       </c>
-      <c r="J5" s="167"/>
-      <c r="K5" s="168"/>
+      <c r="J5" s="217"/>
+      <c r="K5" s="218"/>
       <c r="L5" s="6" t="s">
         <v>113</v>
       </c>
@@ -2316,10 +2627,10 @@
       <c r="I6" s="12">
         <v>42604</v>
       </c>
-      <c r="J6" s="167">
+      <c r="J6" s="217">
         <v>42633</v>
       </c>
-      <c r="K6" s="168">
+      <c r="K6" s="218">
         <v>148188</v>
       </c>
       <c r="L6" s="6" t="s">
@@ -2356,8 +2667,8 @@
       <c r="I7" s="12">
         <v>42604</v>
       </c>
-      <c r="J7" s="167"/>
-      <c r="K7" s="168"/>
+      <c r="J7" s="217"/>
+      <c r="K7" s="218"/>
       <c r="L7" s="6" t="s">
         <v>113</v>
       </c>
@@ -2392,10 +2703,10 @@
       <c r="I8" s="12">
         <v>42670</v>
       </c>
-      <c r="J8" s="167">
+      <c r="J8" s="217">
         <v>42685</v>
       </c>
-      <c r="K8" s="168">
+      <c r="K8" s="218">
         <v>145588</v>
       </c>
       <c r="L8" s="6" t="s">
@@ -2432,8 +2743,8 @@
       <c r="I9" s="12">
         <v>42670</v>
       </c>
-      <c r="J9" s="167"/>
-      <c r="K9" s="168"/>
+      <c r="J9" s="217"/>
+      <c r="K9" s="218"/>
       <c r="L9" s="6" t="s">
         <v>86</v>
       </c>
@@ -2466,10 +2777,10 @@
         <v>72800</v>
       </c>
       <c r="I10" s="12"/>
-      <c r="J10" s="166">
+      <c r="J10" s="210">
         <v>42689</v>
       </c>
-      <c r="K10" s="168">
+      <c r="K10" s="218">
         <v>145588</v>
       </c>
       <c r="L10" s="6" t="s">
@@ -2504,8 +2815,8 @@
         <v>72800</v>
       </c>
       <c r="I11" s="12"/>
-      <c r="J11" s="167"/>
-      <c r="K11" s="168"/>
+      <c r="J11" s="217"/>
+      <c r="K11" s="218"/>
       <c r="L11" s="6" t="s">
         <v>86</v>
       </c>
@@ -2537,10 +2848,10 @@
         <v>72800</v>
       </c>
       <c r="I12" s="12"/>
-      <c r="J12" s="169">
+      <c r="J12" s="208">
         <v>42696</v>
       </c>
-      <c r="K12" s="171">
+      <c r="K12" s="205">
         <v>291188</v>
       </c>
       <c r="L12" s="6" t="s">
@@ -2574,8 +2885,8 @@
         <v>72800</v>
       </c>
       <c r="I13" s="12"/>
-      <c r="J13" s="170"/>
-      <c r="K13" s="172"/>
+      <c r="J13" s="209"/>
+      <c r="K13" s="206"/>
       <c r="L13" s="6" t="s">
         <v>113</v>
       </c>
@@ -2607,8 +2918,8 @@
         <v>72800</v>
       </c>
       <c r="I14" s="12"/>
-      <c r="J14" s="170"/>
-      <c r="K14" s="172"/>
+      <c r="J14" s="209"/>
+      <c r="K14" s="206"/>
       <c r="L14" s="6" t="s">
         <v>86</v>
       </c>
@@ -2640,8 +2951,8 @@
         <v>72800</v>
       </c>
       <c r="I15" s="12"/>
-      <c r="J15" s="166"/>
-      <c r="K15" s="173"/>
+      <c r="J15" s="210"/>
+      <c r="K15" s="207"/>
       <c r="L15" s="6" t="s">
         <v>86</v>
       </c>
@@ -2654,7 +2965,7 @@
         <v>42682</v>
       </c>
       <c r="C16" s="11" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="D16" s="11" t="s">
         <v>76</v>
@@ -2673,10 +2984,10 @@
         <v>72800</v>
       </c>
       <c r="I16" s="12"/>
-      <c r="J16" s="166">
+      <c r="J16" s="210">
         <v>42699</v>
       </c>
-      <c r="K16" s="168">
+      <c r="K16" s="218">
         <v>145588</v>
       </c>
       <c r="L16" s="6" t="s">
@@ -2691,7 +3002,7 @@
         <v>42682</v>
       </c>
       <c r="C17" s="11" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="D17" s="11" t="s">
         <v>77</v>
@@ -2710,8 +3021,8 @@
         <v>72800</v>
       </c>
       <c r="I17" s="12"/>
-      <c r="J17" s="167"/>
-      <c r="K17" s="168"/>
+      <c r="J17" s="217"/>
+      <c r="K17" s="218"/>
       <c r="L17" s="6" t="s">
         <v>113</v>
       </c>
@@ -2725,10 +3036,10 @@
         <v>42684</v>
       </c>
       <c r="C18" s="11" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="D18" s="11" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="E18" s="11">
         <v>3756229</v>
@@ -2744,10 +3055,10 @@
         <v>72800</v>
       </c>
       <c r="I18" s="12"/>
-      <c r="J18" s="166">
+      <c r="J18" s="210">
         <v>42702</v>
       </c>
-      <c r="K18" s="168">
+      <c r="K18" s="218">
         <v>145588</v>
       </c>
       <c r="L18" s="6" t="s">
@@ -2763,10 +3074,10 @@
         <v>42685</v>
       </c>
       <c r="C19" s="11" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="D19" s="11" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="E19" s="11">
         <v>3756225</v>
@@ -2782,8 +3093,8 @@
         <v>72800</v>
       </c>
       <c r="I19" s="12"/>
-      <c r="J19" s="167"/>
-      <c r="K19" s="168"/>
+      <c r="J19" s="217"/>
+      <c r="K19" s="218"/>
       <c r="L19" s="6" t="s">
         <v>113</v>
       </c>
@@ -2797,13 +3108,13 @@
         <v>42690</v>
       </c>
       <c r="C20" s="11" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="D20" s="11" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="E20" s="11" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="F20" s="8">
         <v>26000</v>
@@ -2816,10 +3127,10 @@
         <v>72800</v>
       </c>
       <c r="I20" s="12"/>
-      <c r="J20" s="169">
+      <c r="J20" s="208">
         <v>42709</v>
       </c>
-      <c r="K20" s="171">
+      <c r="K20" s="205">
         <v>291188</v>
       </c>
       <c r="L20" s="6" t="s">
@@ -2835,13 +3146,13 @@
         <v>42690</v>
       </c>
       <c r="C21" s="11" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="D21" s="11" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="E21" s="11" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="F21" s="8">
         <v>26000</v>
@@ -2854,8 +3165,8 @@
         <v>72800</v>
       </c>
       <c r="I21" s="12"/>
-      <c r="J21" s="170"/>
-      <c r="K21" s="172"/>
+      <c r="J21" s="209"/>
+      <c r="K21" s="206"/>
       <c r="L21" s="6" t="s">
         <v>113</v>
       </c>
@@ -2869,10 +3180,10 @@
         <v>42691</v>
       </c>
       <c r="C22" s="11" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="D22" s="11" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="E22" s="11">
         <v>3756238</v>
@@ -2888,8 +3199,8 @@
         <v>72800</v>
       </c>
       <c r="I22" s="12"/>
-      <c r="J22" s="170"/>
-      <c r="K22" s="172"/>
+      <c r="J22" s="209"/>
+      <c r="K22" s="206"/>
       <c r="L22" s="6" t="s">
         <v>113</v>
       </c>
@@ -2903,10 +3214,10 @@
         <v>42691</v>
       </c>
       <c r="C23" s="11" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="D23" s="11" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="E23" s="11">
         <v>3743082</v>
@@ -2922,8 +3233,8 @@
         <v>72800</v>
       </c>
       <c r="I23" s="12"/>
-      <c r="J23" s="166"/>
-      <c r="K23" s="173"/>
+      <c r="J23" s="210"/>
+      <c r="K23" s="207"/>
       <c r="L23" s="6" t="s">
         <v>113</v>
       </c>
@@ -2936,13 +3247,13 @@
         <v>42699</v>
       </c>
       <c r="C24" s="11" t="s">
+        <v>159</v>
+      </c>
+      <c r="D24" s="11" t="s">
         <v>160</v>
       </c>
-      <c r="D24" s="11" t="s">
-        <v>161</v>
-      </c>
       <c r="E24" s="11" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="F24" s="8">
         <v>26000</v>
@@ -2955,10 +3266,14 @@
         <v>72800</v>
       </c>
       <c r="I24" s="12"/>
-      <c r="J24" s="169"/>
-      <c r="K24" s="171"/>
+      <c r="J24" s="208">
+        <v>42716</v>
+      </c>
+      <c r="K24" s="205">
+        <v>291188</v>
+      </c>
       <c r="L24" s="6" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
     </row>
     <row r="25" spans="1:12" s="10" customFormat="1" ht="18" customHeight="1">
@@ -2969,13 +3284,13 @@
         <v>42699</v>
       </c>
       <c r="C25" s="11" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="D25" s="11" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="E25" s="11" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="F25" s="8">
         <v>26000</v>
@@ -2988,10 +3303,10 @@
         <v>72800</v>
       </c>
       <c r="I25" s="12"/>
-      <c r="J25" s="170"/>
-      <c r="K25" s="172"/>
+      <c r="J25" s="209"/>
+      <c r="K25" s="206"/>
       <c r="L25" s="6" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
     </row>
     <row r="26" spans="1:12" s="10" customFormat="1" ht="18" customHeight="1">
@@ -3003,13 +3318,13 @@
         <v>42699</v>
       </c>
       <c r="C26" s="11" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="D26" s="11" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="E26" s="11" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="F26" s="8">
         <v>26000</v>
@@ -3022,8 +3337,8 @@
         <v>72800</v>
       </c>
       <c r="I26" s="12"/>
-      <c r="J26" s="170"/>
-      <c r="K26" s="172"/>
+      <c r="J26" s="209"/>
+      <c r="K26" s="206"/>
       <c r="L26" s="6" t="s">
         <v>113</v>
       </c>
@@ -3037,13 +3352,13 @@
         <v>42699</v>
       </c>
       <c r="C27" s="11" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="D27" s="11" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="E27" s="11" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="F27" s="8">
         <v>26000</v>
@@ -3056,28 +3371,28 @@
         <v>72800</v>
       </c>
       <c r="I27" s="12"/>
-      <c r="J27" s="166"/>
-      <c r="K27" s="173"/>
+      <c r="J27" s="210"/>
+      <c r="K27" s="207"/>
       <c r="L27" s="6" t="s">
         <v>113</v>
       </c>
     </row>
     <row r="28" spans="1:12" s="10" customFormat="1" ht="18" customHeight="1">
       <c r="A28" s="6">
-        <f t="shared" ref="A28:A40" si="7">IF(B28&lt;&gt;"",ROW()-3,"")</f>
+        <f t="shared" ref="A28:A46" si="7">IF(B28&lt;&gt;"",ROW()-3,"")</f>
         <v>25</v>
       </c>
       <c r="B28" s="12">
         <v>42702</v>
       </c>
       <c r="C28" s="11" t="s">
+        <v>172</v>
+      </c>
+      <c r="D28" s="11" t="s">
         <v>173</v>
       </c>
-      <c r="D28" s="11" t="s">
-        <v>174</v>
-      </c>
       <c r="E28" s="11" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="F28" s="8">
         <v>26000</v>
@@ -3090,10 +3405,10 @@
         <v>72800</v>
       </c>
       <c r="I28" s="12"/>
-      <c r="J28" s="169"/>
-      <c r="K28" s="171"/>
+      <c r="J28" s="208"/>
+      <c r="K28" s="205"/>
       <c r="L28" s="6" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
     </row>
     <row r="29" spans="1:12" s="10" customFormat="1" ht="18" customHeight="1">
@@ -3105,13 +3420,13 @@
         <v>42702</v>
       </c>
       <c r="C29" s="11" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="D29" s="11" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="E29" s="11" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="F29" s="8">
         <v>26000</v>
@@ -3124,8 +3439,8 @@
         <v>72800</v>
       </c>
       <c r="I29" s="12"/>
-      <c r="J29" s="170"/>
-      <c r="K29" s="172"/>
+      <c r="J29" s="209"/>
+      <c r="K29" s="206"/>
       <c r="L29" s="6" t="s">
         <v>113</v>
       </c>
@@ -3139,13 +3454,13 @@
         <v>42702</v>
       </c>
       <c r="C30" s="11" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="D30" s="11" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="E30" s="11" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="F30" s="8">
         <v>26000</v>
@@ -3158,8 +3473,8 @@
         <v>72800</v>
       </c>
       <c r="I30" s="12"/>
-      <c r="J30" s="170"/>
-      <c r="K30" s="172"/>
+      <c r="J30" s="209"/>
+      <c r="K30" s="206"/>
       <c r="L30" s="6" t="s">
         <v>86</v>
       </c>
@@ -3173,13 +3488,13 @@
         <v>42702</v>
       </c>
       <c r="C31" s="11" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="D31" s="11" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="E31" s="11" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="F31" s="8">
         <v>26000</v>
@@ -3192,8 +3507,8 @@
         <v>72800</v>
       </c>
       <c r="I31" s="12"/>
-      <c r="J31" s="166"/>
-      <c r="K31" s="173"/>
+      <c r="J31" s="210"/>
+      <c r="K31" s="207"/>
       <c r="L31" s="6" t="s">
         <v>86</v>
       </c>
@@ -3206,24 +3521,30 @@
       <c r="B32" s="12">
         <v>42706</v>
       </c>
-      <c r="C32" s="11"/>
-      <c r="D32" s="11"/>
-      <c r="E32" s="11"/>
+      <c r="C32" s="11" t="s">
+        <v>233</v>
+      </c>
+      <c r="D32" s="105" t="s">
+        <v>234</v>
+      </c>
+      <c r="E32" s="11" t="s">
+        <v>235</v>
+      </c>
       <c r="F32" s="8">
         <v>26000</v>
       </c>
-      <c r="G32" s="158">
-        <v>2.8</v>
-      </c>
-      <c r="H32" s="151">
-        <f t="shared" si="1"/>
-        <v>72800</v>
+      <c r="G32" s="166">
+        <v>2.68</v>
+      </c>
+      <c r="H32" s="156">
+        <f>F32*G32</f>
+        <v>69680</v>
       </c>
       <c r="I32" s="150"/>
-      <c r="J32" s="169"/>
-      <c r="K32" s="171"/>
+      <c r="J32" s="208"/>
+      <c r="K32" s="205"/>
       <c r="L32" s="6" t="s">
-        <v>113</v>
+        <v>168</v>
       </c>
     </row>
     <row r="33" spans="1:12" s="10" customFormat="1" ht="18" customHeight="1">
@@ -3234,24 +3555,30 @@
       <c r="B33" s="157">
         <v>42706</v>
       </c>
-      <c r="C33" s="11"/>
-      <c r="D33" s="11"/>
-      <c r="E33" s="11"/>
+      <c r="C33" s="11" t="s">
+        <v>233</v>
+      </c>
+      <c r="D33" s="11" t="s">
+        <v>236</v>
+      </c>
+      <c r="E33" s="11" t="s">
+        <v>237</v>
+      </c>
       <c r="F33" s="8">
         <v>26000</v>
       </c>
-      <c r="G33" s="158">
-        <v>2.8</v>
-      </c>
-      <c r="H33" s="156">
-        <f t="shared" si="1"/>
-        <v>72800</v>
+      <c r="G33" s="166">
+        <v>2.68</v>
+      </c>
+      <c r="H33" s="167">
+        <f>F33*G33</f>
+        <v>69680</v>
       </c>
       <c r="I33" s="150"/>
-      <c r="J33" s="170"/>
-      <c r="K33" s="172"/>
+      <c r="J33" s="209"/>
+      <c r="K33" s="206"/>
       <c r="L33" s="6" t="s">
-        <v>113</v>
+        <v>168</v>
       </c>
     </row>
     <row r="34" spans="1:12" s="10" customFormat="1" ht="18" customHeight="1">
@@ -3262,24 +3589,30 @@
       <c r="B34" s="157">
         <v>42706</v>
       </c>
-      <c r="C34" s="11"/>
-      <c r="D34" s="11"/>
-      <c r="E34" s="11"/>
+      <c r="C34" s="11" t="s">
+        <v>233</v>
+      </c>
+      <c r="D34" s="11" t="s">
+        <v>238</v>
+      </c>
+      <c r="E34" s="11" t="s">
+        <v>239</v>
+      </c>
       <c r="F34" s="8">
         <v>26000</v>
       </c>
-      <c r="G34" s="158">
-        <v>2.8</v>
-      </c>
-      <c r="H34" s="156">
-        <f t="shared" si="1"/>
-        <v>72800</v>
+      <c r="G34" s="166">
+        <v>2.68</v>
+      </c>
+      <c r="H34" s="167">
+        <f>F34*G34</f>
+        <v>69680</v>
       </c>
       <c r="I34" s="150"/>
-      <c r="J34" s="170"/>
-      <c r="K34" s="172"/>
+      <c r="J34" s="209"/>
+      <c r="K34" s="206"/>
       <c r="L34" s="6" t="s">
-        <v>113</v>
+        <v>168</v>
       </c>
     </row>
     <row r="35" spans="1:12" s="10" customFormat="1" ht="18" customHeight="1">
@@ -3290,229 +3623,794 @@
       <c r="B35" s="157">
         <v>42706</v>
       </c>
-      <c r="C35" s="11"/>
-      <c r="D35" s="11"/>
-      <c r="E35" s="11"/>
+      <c r="C35" s="11" t="s">
+        <v>233</v>
+      </c>
+      <c r="D35" s="11" t="s">
+        <v>240</v>
+      </c>
+      <c r="E35" s="11" t="s">
+        <v>241</v>
+      </c>
       <c r="F35" s="8">
         <v>26000</v>
       </c>
-      <c r="G35" s="158">
+      <c r="G35" s="166">
         <v>2.68</v>
       </c>
-      <c r="H35" s="156">
-        <f t="shared" si="1"/>
+      <c r="H35" s="167">
+        <f>F35*G35</f>
         <v>69680</v>
       </c>
       <c r="I35" s="150"/>
-      <c r="J35" s="166"/>
-      <c r="K35" s="173"/>
+      <c r="J35" s="210"/>
+      <c r="K35" s="207"/>
       <c r="L35" s="6" t="s">
         <v>113</v>
       </c>
     </row>
     <row r="36" spans="1:12" s="10" customFormat="1" ht="18" customHeight="1">
-      <c r="A36" s="6" t="str">
+      <c r="A36" s="6">
         <f t="shared" si="7"/>
+        <v>33</v>
+      </c>
+      <c r="B36" s="150">
+        <v>42711</v>
+      </c>
+      <c r="C36" s="11" t="s">
+        <v>242</v>
+      </c>
+      <c r="D36" s="11" t="s">
+        <v>243</v>
+      </c>
+      <c r="E36" s="11">
+        <v>4852784</v>
+      </c>
+      <c r="F36" s="8">
+        <v>26351</v>
+      </c>
+      <c r="G36" s="203">
+        <v>2.68</v>
+      </c>
+      <c r="H36" s="204">
+        <f t="shared" ref="H36:H39" si="9">F36*G36</f>
+        <v>70620.680000000008</v>
+      </c>
+      <c r="I36" s="150"/>
+      <c r="J36" s="208"/>
+      <c r="K36" s="205"/>
+      <c r="L36" s="6" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="37" spans="1:12" s="10" customFormat="1" ht="18" customHeight="1">
+      <c r="A37" s="6">
+        <f t="shared" si="7"/>
+        <v>34</v>
+      </c>
+      <c r="B37" s="165">
+        <v>42711</v>
+      </c>
+      <c r="C37" s="11" t="s">
+        <v>242</v>
+      </c>
+      <c r="D37" s="11" t="s">
+        <v>244</v>
+      </c>
+      <c r="E37" s="11">
+        <v>4852733</v>
+      </c>
+      <c r="F37" s="8">
+        <v>26351</v>
+      </c>
+      <c r="G37" s="203">
+        <v>2.68</v>
+      </c>
+      <c r="H37" s="204">
+        <f t="shared" si="9"/>
+        <v>70620.680000000008</v>
+      </c>
+      <c r="I37" s="165"/>
+      <c r="J37" s="209"/>
+      <c r="K37" s="206"/>
+      <c r="L37" s="6" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="38" spans="1:12" s="10" customFormat="1" ht="18" customHeight="1">
+      <c r="A38" s="6">
+        <f t="shared" si="7"/>
+        <v>35</v>
+      </c>
+      <c r="B38" s="165">
+        <v>42711</v>
+      </c>
+      <c r="C38" s="11" t="s">
+        <v>242</v>
+      </c>
+      <c r="D38" s="11" t="s">
+        <v>245</v>
+      </c>
+      <c r="E38" s="11">
+        <v>4852701</v>
+      </c>
+      <c r="F38" s="8">
+        <v>26351</v>
+      </c>
+      <c r="G38" s="203">
+        <v>2.68</v>
+      </c>
+      <c r="H38" s="204">
+        <f t="shared" si="9"/>
+        <v>70620.680000000008</v>
+      </c>
+      <c r="I38" s="165"/>
+      <c r="J38" s="209"/>
+      <c r="K38" s="206"/>
+      <c r="L38" s="6" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="39" spans="1:12" s="10" customFormat="1" ht="18" customHeight="1">
+      <c r="A39" s="6">
+        <f t="shared" si="7"/>
+        <v>36</v>
+      </c>
+      <c r="B39" s="165">
+        <v>42711</v>
+      </c>
+      <c r="C39" s="11" t="s">
+        <v>242</v>
+      </c>
+      <c r="D39" s="11" t="s">
+        <v>246</v>
+      </c>
+      <c r="E39" s="11">
+        <v>4852777</v>
+      </c>
+      <c r="F39" s="8">
+        <v>26351</v>
+      </c>
+      <c r="G39" s="203">
+        <v>2.68</v>
+      </c>
+      <c r="H39" s="204">
+        <f t="shared" si="9"/>
+        <v>70620.680000000008</v>
+      </c>
+      <c r="I39" s="165"/>
+      <c r="J39" s="210"/>
+      <c r="K39" s="207"/>
+      <c r="L39" s="6" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="40" spans="1:12" s="10" customFormat="1" ht="18" customHeight="1">
+      <c r="A40" s="6">
+        <f t="shared" si="7"/>
+        <v>37</v>
+      </c>
+      <c r="B40" s="165">
+        <v>42713</v>
+      </c>
+      <c r="C40" s="11" t="s">
+        <v>242</v>
+      </c>
+      <c r="D40" s="11" t="s">
+        <v>247</v>
+      </c>
+      <c r="E40" s="11">
+        <v>4865726</v>
+      </c>
+      <c r="F40" s="8">
+        <v>26351</v>
+      </c>
+      <c r="G40" s="166">
+        <v>2.68</v>
+      </c>
+      <c r="H40" s="167">
+        <f t="shared" ref="H40:H43" si="10">F40*G40</f>
+        <v>70620.680000000008</v>
+      </c>
+      <c r="I40" s="165"/>
+      <c r="J40" s="208"/>
+      <c r="K40" s="205"/>
+      <c r="L40" s="6" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="41" spans="1:12" s="10" customFormat="1" ht="18" customHeight="1">
+      <c r="A41" s="6">
+        <f t="shared" si="7"/>
+        <v>38</v>
+      </c>
+      <c r="B41" s="165">
+        <v>42713</v>
+      </c>
+      <c r="C41" s="11" t="s">
+        <v>242</v>
+      </c>
+      <c r="D41" s="11" t="s">
+        <v>248</v>
+      </c>
+      <c r="E41" s="11">
+        <v>4852764</v>
+      </c>
+      <c r="F41" s="153">
+        <v>26000</v>
+      </c>
+      <c r="G41" s="167">
+        <v>2.83</v>
+      </c>
+      <c r="H41" s="167">
+        <f t="shared" si="10"/>
+        <v>73580</v>
+      </c>
+      <c r="I41" s="165"/>
+      <c r="J41" s="209"/>
+      <c r="K41" s="206"/>
+      <c r="L41" s="6" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="42" spans="1:12" s="10" customFormat="1" ht="18" customHeight="1">
+      <c r="A42" s="6">
+        <f t="shared" si="7"/>
+        <v>39</v>
+      </c>
+      <c r="B42" s="165">
+        <v>42713</v>
+      </c>
+      <c r="C42" s="11" t="s">
+        <v>242</v>
+      </c>
+      <c r="D42" s="11" t="s">
+        <v>249</v>
+      </c>
+      <c r="E42" s="11">
+        <v>4849737</v>
+      </c>
+      <c r="F42" s="153">
+        <v>26000</v>
+      </c>
+      <c r="G42" s="167">
+        <v>2.83</v>
+      </c>
+      <c r="H42" s="167">
+        <f t="shared" si="10"/>
+        <v>73580</v>
+      </c>
+      <c r="I42" s="165"/>
+      <c r="J42" s="209"/>
+      <c r="K42" s="206"/>
+      <c r="L42" s="6" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="43" spans="1:12" s="10" customFormat="1" ht="18" customHeight="1">
+      <c r="A43" s="6">
+        <f t="shared" si="7"/>
+        <v>40</v>
+      </c>
+      <c r="B43" s="165">
+        <v>42713</v>
+      </c>
+      <c r="C43" s="11" t="s">
+        <v>242</v>
+      </c>
+      <c r="D43" s="11" t="s">
+        <v>250</v>
+      </c>
+      <c r="E43" s="11">
+        <v>4852756</v>
+      </c>
+      <c r="F43" s="153">
+        <v>26000</v>
+      </c>
+      <c r="G43" s="167">
+        <v>2.83</v>
+      </c>
+      <c r="H43" s="167">
+        <f t="shared" si="10"/>
+        <v>73580</v>
+      </c>
+      <c r="I43" s="165"/>
+      <c r="J43" s="209"/>
+      <c r="K43" s="206"/>
+      <c r="L43" s="6" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="44" spans="1:12" s="10" customFormat="1" ht="18" customHeight="1">
+      <c r="A44" s="6">
+        <f t="shared" si="7"/>
+        <v>41</v>
+      </c>
+      <c r="B44" s="165">
+        <v>42713</v>
+      </c>
+      <c r="C44" s="11" t="s">
+        <v>242</v>
+      </c>
+      <c r="D44" s="11" t="s">
+        <v>251</v>
+      </c>
+      <c r="E44" s="11">
+        <v>4852789</v>
+      </c>
+      <c r="F44" s="153">
+        <v>26000</v>
+      </c>
+      <c r="G44" s="167">
+        <v>2.83</v>
+      </c>
+      <c r="H44" s="156">
+        <f t="shared" si="1"/>
+        <v>73580</v>
+      </c>
+      <c r="I44" s="150"/>
+      <c r="J44" s="209"/>
+      <c r="K44" s="206"/>
+      <c r="L44" s="6" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="45" spans="1:12" s="10" customFormat="1" ht="18" customHeight="1">
+      <c r="A45" s="6">
+        <f t="shared" si="7"/>
+        <v>42</v>
+      </c>
+      <c r="B45" s="165">
+        <v>42713</v>
+      </c>
+      <c r="C45" s="11" t="s">
+        <v>242</v>
+      </c>
+      <c r="D45" s="11" t="s">
+        <v>252</v>
+      </c>
+      <c r="E45" s="11">
+        <v>4862786</v>
+      </c>
+      <c r="F45" s="153">
+        <v>26000</v>
+      </c>
+      <c r="G45" s="167">
+        <v>2.83</v>
+      </c>
+      <c r="H45" s="156">
+        <f t="shared" si="1"/>
+        <v>73580</v>
+      </c>
+      <c r="I45" s="150"/>
+      <c r="J45" s="210"/>
+      <c r="K45" s="207"/>
+      <c r="L45" s="6" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="46" spans="1:12" s="10" customFormat="1" ht="18" customHeight="1">
+      <c r="A46" s="6">
+        <f t="shared" si="7"/>
+        <v>43</v>
+      </c>
+      <c r="B46" s="150">
+        <v>42716</v>
+      </c>
+      <c r="C46" s="11" t="s">
+        <v>257</v>
+      </c>
+      <c r="D46" s="11" t="s">
+        <v>253</v>
+      </c>
+      <c r="E46" s="11" t="s">
+        <v>258</v>
+      </c>
+      <c r="F46" s="153">
+        <v>26000</v>
+      </c>
+      <c r="G46" s="169">
+        <v>2.83</v>
+      </c>
+      <c r="H46" s="156">
+        <f t="shared" si="1"/>
+        <v>73580</v>
+      </c>
+      <c r="I46" s="150"/>
+      <c r="J46" s="208"/>
+      <c r="K46" s="205"/>
+      <c r="L46" s="6" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="47" spans="1:12" s="10" customFormat="1" ht="18" customHeight="1">
+      <c r="A47" s="6">
+        <f t="shared" ref="A47:A59" si="11">IF(B47&lt;&gt;"",ROW()-3,"")</f>
+        <v>44</v>
+      </c>
+      <c r="B47" s="168">
+        <v>42716</v>
+      </c>
+      <c r="C47" s="11" t="s">
+        <v>257</v>
+      </c>
+      <c r="D47" s="11" t="s">
+        <v>254</v>
+      </c>
+      <c r="E47" s="11" t="s">
+        <v>259</v>
+      </c>
+      <c r="F47" s="153">
+        <v>26000</v>
+      </c>
+      <c r="G47" s="169">
+        <v>2.83</v>
+      </c>
+      <c r="H47" s="169">
+        <f t="shared" ref="H47:H59" si="12">F47*G47</f>
+        <v>73580</v>
+      </c>
+      <c r="I47" s="168"/>
+      <c r="J47" s="209"/>
+      <c r="K47" s="206"/>
+      <c r="L47" s="6" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="48" spans="1:12" s="10" customFormat="1" ht="18" customHeight="1">
+      <c r="A48" s="6">
+        <f t="shared" si="11"/>
+        <v>45</v>
+      </c>
+      <c r="B48" s="168">
+        <v>42716</v>
+      </c>
+      <c r="C48" s="11" t="s">
+        <v>257</v>
+      </c>
+      <c r="D48" s="11" t="s">
+        <v>255</v>
+      </c>
+      <c r="E48" s="11" t="s">
+        <v>260</v>
+      </c>
+      <c r="F48" s="153">
+        <v>26000</v>
+      </c>
+      <c r="G48" s="169">
+        <v>2.83</v>
+      </c>
+      <c r="H48" s="169">
+        <f t="shared" si="12"/>
+        <v>73580</v>
+      </c>
+      <c r="I48" s="168"/>
+      <c r="J48" s="209"/>
+      <c r="K48" s="206"/>
+      <c r="L48" s="6" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="49" spans="1:12" s="10" customFormat="1" ht="18" customHeight="1">
+      <c r="A49" s="6">
+        <f t="shared" si="11"/>
+        <v>46</v>
+      </c>
+      <c r="B49" s="168">
+        <v>42716</v>
+      </c>
+      <c r="C49" s="11" t="s">
+        <v>257</v>
+      </c>
+      <c r="D49" s="11" t="s">
+        <v>256</v>
+      </c>
+      <c r="E49" s="11" t="s">
+        <v>261</v>
+      </c>
+      <c r="F49" s="153">
+        <v>26000</v>
+      </c>
+      <c r="G49" s="169">
+        <v>2.83</v>
+      </c>
+      <c r="H49" s="169">
+        <f t="shared" si="12"/>
+        <v>73580</v>
+      </c>
+      <c r="I49" s="168"/>
+      <c r="J49" s="210"/>
+      <c r="K49" s="207"/>
+      <c r="L49" s="6" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="50" spans="1:12" s="10" customFormat="1" ht="18" customHeight="1">
+      <c r="A50" s="6" t="str">
+        <f t="shared" si="11"/>
         <v/>
       </c>
-      <c r="B36" s="150"/>
-      <c r="C36" s="11"/>
-      <c r="D36" s="11"/>
-      <c r="E36" s="11"/>
-      <c r="F36" s="153"/>
-      <c r="G36" s="151"/>
-      <c r="H36" s="156">
+      <c r="B50" s="168"/>
+      <c r="C50" s="11"/>
+      <c r="D50" s="11"/>
+      <c r="E50" s="11"/>
+      <c r="F50" s="153"/>
+      <c r="G50" s="169"/>
+      <c r="H50" s="169">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="I50" s="168"/>
+      <c r="J50" s="154"/>
+      <c r="K50" s="155"/>
+      <c r="L50" s="11"/>
+    </row>
+    <row r="51" spans="1:12" s="10" customFormat="1" ht="18" customHeight="1">
+      <c r="A51" s="6" t="str">
+        <f t="shared" si="11"/>
+        <v/>
+      </c>
+      <c r="B51" s="168"/>
+      <c r="C51" s="11"/>
+      <c r="D51" s="11"/>
+      <c r="E51" s="11"/>
+      <c r="F51" s="153"/>
+      <c r="G51" s="169"/>
+      <c r="H51" s="169">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="I51" s="168"/>
+      <c r="J51" s="154"/>
+      <c r="K51" s="155"/>
+      <c r="L51" s="11"/>
+    </row>
+    <row r="52" spans="1:12" s="10" customFormat="1" ht="18" customHeight="1">
+      <c r="A52" s="6" t="str">
+        <f t="shared" si="11"/>
+        <v/>
+      </c>
+      <c r="B52" s="168"/>
+      <c r="C52" s="11"/>
+      <c r="D52" s="11"/>
+      <c r="E52" s="11"/>
+      <c r="F52" s="153"/>
+      <c r="G52" s="169"/>
+      <c r="H52" s="169">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="I52" s="168"/>
+      <c r="J52" s="154"/>
+      <c r="K52" s="155"/>
+      <c r="L52" s="11"/>
+    </row>
+    <row r="53" spans="1:12" s="10" customFormat="1" ht="18" customHeight="1">
+      <c r="A53" s="6" t="str">
+        <f t="shared" si="11"/>
+        <v/>
+      </c>
+      <c r="B53" s="168"/>
+      <c r="C53" s="11"/>
+      <c r="D53" s="11"/>
+      <c r="E53" s="11"/>
+      <c r="F53" s="153"/>
+      <c r="G53" s="169"/>
+      <c r="H53" s="169">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="I53" s="168"/>
+      <c r="J53" s="154"/>
+      <c r="K53" s="155"/>
+      <c r="L53" s="11"/>
+    </row>
+    <row r="54" spans="1:12" s="10" customFormat="1" ht="18" customHeight="1">
+      <c r="A54" s="6" t="str">
+        <f t="shared" si="11"/>
+        <v/>
+      </c>
+      <c r="B54" s="168"/>
+      <c r="C54" s="11"/>
+      <c r="D54" s="11"/>
+      <c r="E54" s="11"/>
+      <c r="F54" s="153"/>
+      <c r="G54" s="169"/>
+      <c r="H54" s="169">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="I54" s="168"/>
+      <c r="J54" s="154"/>
+      <c r="K54" s="155"/>
+      <c r="L54" s="11"/>
+    </row>
+    <row r="55" spans="1:12" s="10" customFormat="1" ht="18" customHeight="1">
+      <c r="A55" s="6" t="str">
+        <f t="shared" si="11"/>
+        <v/>
+      </c>
+      <c r="B55" s="168"/>
+      <c r="C55" s="11"/>
+      <c r="D55" s="11"/>
+      <c r="E55" s="11"/>
+      <c r="F55" s="153"/>
+      <c r="G55" s="169"/>
+      <c r="H55" s="169">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="I55" s="168"/>
+      <c r="J55" s="154"/>
+      <c r="K55" s="155"/>
+      <c r="L55" s="11"/>
+    </row>
+    <row r="56" spans="1:12" s="10" customFormat="1" ht="18" customHeight="1">
+      <c r="A56" s="6" t="str">
+        <f t="shared" si="11"/>
+        <v/>
+      </c>
+      <c r="B56" s="168"/>
+      <c r="C56" s="11"/>
+      <c r="D56" s="11"/>
+      <c r="E56" s="11"/>
+      <c r="F56" s="153"/>
+      <c r="G56" s="169"/>
+      <c r="H56" s="169">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="I56" s="168"/>
+      <c r="J56" s="154"/>
+      <c r="K56" s="155"/>
+      <c r="L56" s="11"/>
+    </row>
+    <row r="57" spans="1:12" s="10" customFormat="1" ht="18" customHeight="1">
+      <c r="A57" s="6" t="str">
+        <f t="shared" si="11"/>
+        <v/>
+      </c>
+      <c r="B57" s="168"/>
+      <c r="C57" s="11"/>
+      <c r="D57" s="11"/>
+      <c r="E57" s="11"/>
+      <c r="F57" s="153"/>
+      <c r="G57" s="169"/>
+      <c r="H57" s="169">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="I57" s="168"/>
+      <c r="J57" s="154"/>
+      <c r="K57" s="155"/>
+      <c r="L57" s="11"/>
+    </row>
+    <row r="58" spans="1:12" s="10" customFormat="1" ht="18" customHeight="1">
+      <c r="A58" s="6" t="str">
+        <f t="shared" si="11"/>
+        <v/>
+      </c>
+      <c r="B58" s="168"/>
+      <c r="C58" s="11"/>
+      <c r="D58" s="11"/>
+      <c r="E58" s="11"/>
+      <c r="F58" s="153"/>
+      <c r="G58" s="169"/>
+      <c r="H58" s="169">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="I58" s="168"/>
+      <c r="J58" s="154"/>
+      <c r="K58" s="155"/>
+      <c r="L58" s="11"/>
+    </row>
+    <row r="59" spans="1:12" s="10" customFormat="1" ht="18" customHeight="1">
+      <c r="A59" s="6" t="str">
+        <f t="shared" si="11"/>
+        <v/>
+      </c>
+      <c r="B59" s="168"/>
+      <c r="C59" s="11"/>
+      <c r="D59" s="11"/>
+      <c r="E59" s="11"/>
+      <c r="F59" s="153"/>
+      <c r="G59" s="169"/>
+      <c r="H59" s="169">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="I59" s="168"/>
+      <c r="J59" s="154"/>
+      <c r="K59" s="155"/>
+      <c r="L59" s="11"/>
+    </row>
+    <row r="60" spans="1:12" s="10" customFormat="1" ht="18" customHeight="1">
+      <c r="A60" s="6" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="B60" s="12"/>
+      <c r="C60" s="11"/>
+      <c r="D60" s="11"/>
+      <c r="E60" s="11"/>
+      <c r="F60" s="153"/>
+      <c r="G60" s="151"/>
+      <c r="H60" s="151">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="I36" s="150"/>
-      <c r="J36" s="154"/>
-      <c r="K36" s="155"/>
-      <c r="L36" s="11"/>
-    </row>
-    <row r="37" spans="1:12" s="10" customFormat="1" ht="18" customHeight="1">
-      <c r="A37" s="6" t="str">
-        <f t="shared" si="7"/>
-        <v/>
-      </c>
-      <c r="B37" s="150"/>
-      <c r="C37" s="11"/>
-      <c r="D37" s="11"/>
-      <c r="E37" s="11"/>
-      <c r="F37" s="153"/>
-      <c r="G37" s="151"/>
-      <c r="H37" s="156">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="I37" s="150"/>
-      <c r="J37" s="154"/>
-      <c r="K37" s="155"/>
-      <c r="L37" s="11"/>
-    </row>
-    <row r="38" spans="1:12" s="10" customFormat="1" ht="18" customHeight="1">
-      <c r="A38" s="6" t="str">
-        <f t="shared" si="7"/>
-        <v/>
-      </c>
-      <c r="B38" s="150"/>
-      <c r="C38" s="11"/>
-      <c r="D38" s="11"/>
-      <c r="E38" s="11"/>
-      <c r="F38" s="153"/>
-      <c r="G38" s="151"/>
-      <c r="H38" s="156">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="I38" s="150"/>
-      <c r="J38" s="154"/>
-      <c r="K38" s="155"/>
-      <c r="L38" s="11"/>
-    </row>
-    <row r="39" spans="1:12" s="10" customFormat="1" ht="18" customHeight="1">
-      <c r="A39" s="6" t="str">
-        <f t="shared" si="7"/>
-        <v/>
-      </c>
-      <c r="B39" s="150"/>
-      <c r="C39" s="11"/>
-      <c r="D39" s="11"/>
-      <c r="E39" s="11"/>
-      <c r="F39" s="153"/>
-      <c r="G39" s="151"/>
-      <c r="H39" s="156">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="I39" s="150"/>
-      <c r="J39" s="154"/>
-      <c r="K39" s="155"/>
-      <c r="L39" s="11"/>
-    </row>
-    <row r="40" spans="1:12" s="10" customFormat="1" ht="18" customHeight="1">
-      <c r="A40" s="6" t="str">
-        <f t="shared" si="7"/>
-        <v/>
-      </c>
-      <c r="B40" s="150"/>
-      <c r="C40" s="11"/>
-      <c r="D40" s="11"/>
-      <c r="E40" s="11"/>
-      <c r="F40" s="153"/>
-      <c r="G40" s="151"/>
-      <c r="H40" s="156">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="I40" s="150"/>
-      <c r="J40" s="154"/>
-      <c r="K40" s="155"/>
-      <c r="L40" s="11"/>
-    </row>
-    <row r="41" spans="1:12" s="10" customFormat="1" ht="18" customHeight="1">
-      <c r="A41" s="6" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="B41" s="12"/>
-      <c r="C41" s="11"/>
-      <c r="D41" s="11"/>
-      <c r="E41" s="11"/>
-      <c r="F41" s="153"/>
-      <c r="G41" s="151"/>
-      <c r="H41" s="156">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="I41" s="150"/>
-      <c r="J41" s="154"/>
-      <c r="K41" s="155"/>
-      <c r="L41" s="11"/>
-    </row>
-    <row r="42" spans="1:12" s="10" customFormat="1" ht="18" customHeight="1">
-      <c r="A42" s="6" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="B42" s="12"/>
-      <c r="C42" s="11"/>
-      <c r="D42" s="11"/>
-      <c r="E42" s="11"/>
-      <c r="F42" s="153"/>
-      <c r="G42" s="151"/>
-      <c r="H42" s="151">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="I42" s="150"/>
-      <c r="J42" s="167"/>
-      <c r="K42" s="168"/>
-      <c r="L42" s="11"/>
-    </row>
-    <row r="43" spans="1:12" s="10" customFormat="1" ht="18" customHeight="1">
-      <c r="A43" s="6" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="B43" s="12"/>
-      <c r="C43" s="11"/>
-      <c r="D43" s="11"/>
-      <c r="E43" s="11"/>
-      <c r="F43" s="153"/>
-      <c r="G43" s="151"/>
-      <c r="H43" s="151">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="I43" s="150"/>
-      <c r="J43" s="167"/>
-      <c r="K43" s="168"/>
-      <c r="L43" s="11"/>
-    </row>
-    <row r="44" spans="1:12" s="10" customFormat="1" ht="9" customHeight="1">
-      <c r="A44" s="13"/>
-      <c r="B44" s="14"/>
-      <c r="C44" s="15"/>
-      <c r="D44" s="15"/>
-      <c r="E44" s="15"/>
-      <c r="F44" s="16"/>
-      <c r="G44" s="17"/>
-      <c r="H44" s="17"/>
-      <c r="I44" s="14"/>
-      <c r="J44" s="12"/>
-      <c r="K44" s="9"/>
-      <c r="L44" s="13"/>
-    </row>
-    <row r="45" spans="1:12" s="2" customFormat="1" ht="18" customHeight="1">
-      <c r="A45" s="175" t="s">
+      <c r="I60" s="150"/>
+      <c r="J60" s="154"/>
+      <c r="K60" s="155"/>
+      <c r="L60" s="11"/>
+    </row>
+    <row r="61" spans="1:12" s="10" customFormat="1" ht="9" customHeight="1">
+      <c r="A61" s="13"/>
+      <c r="B61" s="14"/>
+      <c r="C61" s="15"/>
+      <c r="D61" s="15"/>
+      <c r="E61" s="15"/>
+      <c r="F61" s="16"/>
+      <c r="G61" s="17"/>
+      <c r="H61" s="17"/>
+      <c r="I61" s="14"/>
+      <c r="J61" s="12"/>
+      <c r="K61" s="9"/>
+      <c r="L61" s="13"/>
+    </row>
+    <row r="62" spans="1:12" s="2" customFormat="1" ht="18" customHeight="1">
+      <c r="A62" s="212" t="s">
         <v>24</v>
       </c>
-      <c r="B45" s="176"/>
-      <c r="C45" s="176"/>
-      <c r="D45" s="176"/>
-      <c r="E45" s="177"/>
-      <c r="F45" s="18">
-        <f t="shared" ref="F45" si="9">SUM(F4:F44)</f>
-        <v>832000</v>
-      </c>
-      <c r="G45" s="19"/>
-      <c r="H45" s="19">
-        <f>SUM(H4:H44)</f>
-        <v>2331680</v>
-      </c>
-      <c r="I45" s="4"/>
-      <c r="J45" s="4"/>
-      <c r="K45" s="19">
-        <f>SUM(K4:K44)</f>
-        <v>1461104</v>
-      </c>
-      <c r="L45" s="19"/>
+      <c r="B62" s="213"/>
+      <c r="C62" s="213"/>
+      <c r="D62" s="213"/>
+      <c r="E62" s="214"/>
+      <c r="F62" s="18">
+        <f t="shared" ref="F62" si="13">SUM(F4:F61)</f>
+        <v>1197755</v>
+      </c>
+      <c r="G62" s="19"/>
+      <c r="H62" s="19">
+        <f>SUM(H4:H61)</f>
+        <v>3337643.4000000008</v>
+      </c>
+      <c r="I62" s="4"/>
+      <c r="J62" s="4"/>
+      <c r="K62" s="19">
+        <f>SUM(K4:K61)</f>
+        <v>1752292</v>
+      </c>
+      <c r="L62" s="19"/>
     </row>
   </sheetData>
-  <mergeCells count="33">
+  <mergeCells count="37">
+    <mergeCell ref="K18:K19"/>
+    <mergeCell ref="J20:J23"/>
+    <mergeCell ref="K20:K23"/>
+    <mergeCell ref="J24:J27"/>
+    <mergeCell ref="K24:K27"/>
+    <mergeCell ref="K8:K9"/>
+    <mergeCell ref="K10:K11"/>
+    <mergeCell ref="J40:J45"/>
+    <mergeCell ref="K40:K45"/>
+    <mergeCell ref="K16:K17"/>
+    <mergeCell ref="J10:J11"/>
+    <mergeCell ref="J16:J17"/>
+    <mergeCell ref="J12:J15"/>
+    <mergeCell ref="K12:K15"/>
+    <mergeCell ref="J32:J35"/>
+    <mergeCell ref="K32:K35"/>
+    <mergeCell ref="J28:J31"/>
+    <mergeCell ref="K28:K31"/>
+    <mergeCell ref="J36:J39"/>
+    <mergeCell ref="K36:K39"/>
+    <mergeCell ref="J18:J19"/>
+    <mergeCell ref="K46:K49"/>
+    <mergeCell ref="J46:J49"/>
     <mergeCell ref="L2:L3"/>
-    <mergeCell ref="A45:E45"/>
+    <mergeCell ref="A62:E62"/>
     <mergeCell ref="A1:K1"/>
     <mergeCell ref="A2:A3"/>
     <mergeCell ref="B2:B3"/>
@@ -3525,25 +4423,6 @@
     <mergeCell ref="J8:J9"/>
     <mergeCell ref="K4:K5"/>
     <mergeCell ref="K6:K7"/>
-    <mergeCell ref="K8:K9"/>
-    <mergeCell ref="K10:K11"/>
-    <mergeCell ref="K16:K17"/>
-    <mergeCell ref="J10:J11"/>
-    <mergeCell ref="J16:J17"/>
-    <mergeCell ref="J12:J15"/>
-    <mergeCell ref="K12:K15"/>
-    <mergeCell ref="J42:J43"/>
-    <mergeCell ref="K42:K43"/>
-    <mergeCell ref="J32:J35"/>
-    <mergeCell ref="K32:K35"/>
-    <mergeCell ref="J28:J31"/>
-    <mergeCell ref="K28:K31"/>
-    <mergeCell ref="J18:J19"/>
-    <mergeCell ref="K18:K19"/>
-    <mergeCell ref="J20:J23"/>
-    <mergeCell ref="K20:K23"/>
-    <mergeCell ref="J24:J27"/>
-    <mergeCell ref="K24:K27"/>
   </mergeCells>
   <pageMargins left="0.16" right="0.16" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="landscape" r:id="rId1"/>
@@ -3557,8 +4436,8 @@
   </sheetPr>
   <dimension ref="A1:O43"/>
   <sheetViews>
-    <sheetView topLeftCell="A31" workbookViewId="0">
-      <selection activeCell="J33" sqref="J33"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B34" sqref="B34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="16.5"/>
@@ -3580,13 +4459,13 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" ht="47.25" customHeight="1">
-      <c r="A1" s="180" t="s">
+      <c r="A1" s="219" t="s">
         <v>25</v>
       </c>
-      <c r="B1" s="180"/>
-      <c r="C1" s="180"/>
-      <c r="D1" s="180"/>
-      <c r="E1" s="180"/>
+      <c r="B1" s="219"/>
+      <c r="C1" s="219"/>
+      <c r="D1" s="219"/>
+      <c r="E1" s="219"/>
       <c r="F1" s="20"/>
       <c r="G1" s="21"/>
       <c r="H1" s="21"/>
@@ -4571,10 +5450,10 @@
   <sheetPr>
     <tabColor indexed="31"/>
   </sheetPr>
-  <dimension ref="A1:O234"/>
+  <dimension ref="A1:O272"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A115" workbookViewId="0">
-      <selection activeCell="F199" sqref="F199:I199"/>
+    <sheetView topLeftCell="A208" workbookViewId="0">
+      <selection activeCell="H239" sqref="H239"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="16.5"/>
@@ -4595,13 +5474,13 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:15" ht="43.5" customHeight="1">
-      <c r="A1" s="180" t="s">
+      <c r="A1" s="219" t="s">
         <v>82</v>
       </c>
-      <c r="B1" s="180"/>
-      <c r="C1" s="180"/>
-      <c r="D1" s="180"/>
-      <c r="E1" s="180"/>
+      <c r="B1" s="219"/>
+      <c r="C1" s="219"/>
+      <c r="D1" s="219"/>
+      <c r="E1" s="219"/>
       <c r="F1" s="107"/>
       <c r="G1" s="21"/>
       <c r="H1" s="21"/>
@@ -4803,17 +5682,23 @@
         <f t="shared" si="0"/>
         <v>1200000</v>
       </c>
-      <c r="G7" s="83"/>
+      <c r="G7" s="83">
+        <v>42710</v>
+      </c>
       <c r="H7" s="83"/>
-      <c r="I7" s="75"/>
+      <c r="I7" s="174" t="s">
+        <v>206</v>
+      </c>
       <c r="J7" s="75" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
-      <c r="K7" s="75"/>
+      <c r="K7" s="75">
+        <v>3</v>
+      </c>
       <c r="L7" s="108">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>39</v>
       </c>
       <c r="M7" s="77"/>
       <c r="N7" s="77" t="str">
@@ -5136,11 +6021,11 @@
       <c r="J17" s="92"/>
       <c r="K17" s="109">
         <f>SUM(K4:K16)</f>
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="L17" s="109">
         <f t="shared" ref="L17" si="5">SUM(L4:L16)</f>
-        <v>260</v>
+        <v>299</v>
       </c>
       <c r="M17" s="109"/>
       <c r="N17" s="93">
@@ -5178,13 +6063,13 @@
       <c r="N19" s="24"/>
     </row>
     <row r="21" spans="1:15" ht="43.5" customHeight="1">
-      <c r="A21" s="180" t="s">
+      <c r="A21" s="219" t="s">
         <v>102</v>
       </c>
-      <c r="B21" s="180"/>
-      <c r="C21" s="180"/>
-      <c r="D21" s="180"/>
-      <c r="E21" s="180"/>
+      <c r="B21" s="219"/>
+      <c r="C21" s="219"/>
+      <c r="D21" s="219"/>
+      <c r="E21" s="219"/>
       <c r="F21" s="107"/>
       <c r="G21" s="21"/>
       <c r="H21" s="21"/>
@@ -5296,7 +6181,7 @@
         <v>2</v>
       </c>
       <c r="B25" s="80" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="C25" s="117">
         <v>1</v>
@@ -5443,13 +6328,13 @@
     </row>
     <row r="31" spans="1:15" ht="26.25" customHeight="1"/>
     <row r="32" spans="1:15" ht="43.5" customHeight="1">
-      <c r="A32" s="180" t="s">
+      <c r="A32" s="219" t="s">
         <v>83</v>
       </c>
-      <c r="B32" s="180"/>
-      <c r="C32" s="180"/>
-      <c r="D32" s="180"/>
-      <c r="E32" s="180"/>
+      <c r="B32" s="219"/>
+      <c r="C32" s="219"/>
+      <c r="D32" s="219"/>
+      <c r="E32" s="219"/>
       <c r="F32" s="107"/>
       <c r="G32" s="21"/>
       <c r="H32" s="21"/>
@@ -6235,13 +7120,13 @@
       <c r="F53" s="24"/>
     </row>
     <row r="55" spans="1:15" ht="43.5" customHeight="1">
-      <c r="A55" s="180" t="s">
+      <c r="A55" s="219" t="s">
         <v>114</v>
       </c>
-      <c r="B55" s="180"/>
-      <c r="C55" s="180"/>
-      <c r="D55" s="180"/>
-      <c r="E55" s="180"/>
+      <c r="B55" s="219"/>
+      <c r="C55" s="219"/>
+      <c r="D55" s="219"/>
+      <c r="E55" s="219"/>
       <c r="F55" s="107"/>
       <c r="G55" s="21"/>
       <c r="H55" s="21"/>
@@ -6869,7 +7754,7 @@
         <v>13</v>
       </c>
       <c r="B70" s="80" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="C70" s="117"/>
       <c r="D70" s="82"/>
@@ -6987,11 +7872,11 @@
       <c r="A77" s="92" t="s">
         <v>1</v>
       </c>
-      <c r="B77" s="193" t="s">
+      <c r="B77" s="235" t="s">
         <v>26</v>
       </c>
-      <c r="C77" s="193"/>
-      <c r="D77" s="193"/>
+      <c r="C77" s="235"/>
+      <c r="D77" s="235"/>
       <c r="E77" s="127" t="s">
         <v>12</v>
       </c>
@@ -7008,11 +7893,11 @@
       <c r="A78" s="75">
         <v>1</v>
       </c>
-      <c r="B78" s="194" t="s">
+      <c r="B78" s="236" t="s">
         <v>118</v>
       </c>
-      <c r="C78" s="194"/>
-      <c r="D78" s="194"/>
+      <c r="C78" s="236"/>
+      <c r="D78" s="236"/>
       <c r="E78" s="135">
         <f>E17</f>
         <v>106334296</v>
@@ -7030,11 +7915,11 @@
       <c r="A79" s="79">
         <v>2</v>
       </c>
-      <c r="B79" s="195" t="s">
+      <c r="B79" s="237" t="s">
         <v>119</v>
       </c>
-      <c r="C79" s="195"/>
-      <c r="D79" s="195"/>
+      <c r="C79" s="237"/>
+      <c r="D79" s="237"/>
       <c r="E79" s="82">
         <f>E28</f>
         <v>5087260</v>
@@ -7052,11 +7937,11 @@
       <c r="A80" s="79">
         <v>3</v>
       </c>
-      <c r="B80" s="195" t="s">
+      <c r="B80" s="237" t="s">
         <v>120</v>
       </c>
-      <c r="C80" s="195"/>
-      <c r="D80" s="195"/>
+      <c r="C80" s="237"/>
+      <c r="D80" s="237"/>
       <c r="E80" s="82">
         <f>E51</f>
         <v>300173928</v>
@@ -7074,11 +7959,11 @@
       <c r="A81" s="79">
         <v>4</v>
       </c>
-      <c r="B81" s="195" t="s">
+      <c r="B81" s="237" t="s">
         <v>121</v>
       </c>
-      <c r="C81" s="195"/>
-      <c r="D81" s="195"/>
+      <c r="C81" s="237"/>
+      <c r="D81" s="237"/>
       <c r="E81" s="82">
         <f>E73</f>
         <v>210184716</v>
@@ -7094,9 +7979,9 @@
     </row>
     <row r="82" spans="1:14" s="128" customFormat="1" ht="10.5" customHeight="1">
       <c r="A82" s="86"/>
-      <c r="B82" s="196"/>
-      <c r="C82" s="196"/>
-      <c r="D82" s="196"/>
+      <c r="B82" s="238"/>
+      <c r="C82" s="238"/>
+      <c r="D82" s="238"/>
       <c r="E82" s="99"/>
       <c r="G82" s="129"/>
       <c r="H82" s="129"/>
@@ -7109,11 +7994,11 @@
     </row>
     <row r="83" spans="1:14" s="128" customFormat="1" ht="16.5" customHeight="1">
       <c r="A83" s="89"/>
-      <c r="B83" s="197" t="s">
+      <c r="B83" s="239" t="s">
         <v>62</v>
       </c>
-      <c r="C83" s="197"/>
-      <c r="D83" s="197"/>
+      <c r="C83" s="239"/>
+      <c r="D83" s="239"/>
       <c r="E83" s="91">
         <f>SUM(E78:E82)</f>
         <v>621780200</v>
@@ -7149,11 +8034,11 @@
       <c r="E85" s="127" t="s">
         <v>12</v>
       </c>
-      <c r="F85" s="190" t="s">
+      <c r="F85" s="229" t="s">
         <v>122</v>
       </c>
-      <c r="G85" s="191"/>
-      <c r="H85" s="192"/>
+      <c r="G85" s="230"/>
+      <c r="H85" s="231"/>
       <c r="I85" s="127" t="s">
         <v>57</v>
       </c>
@@ -7175,9 +8060,9 @@
         <f>C86*D86</f>
         <v>3244428580</v>
       </c>
-      <c r="F86" s="187"/>
-      <c r="G86" s="188"/>
-      <c r="H86" s="189"/>
+      <c r="F86" s="220"/>
+      <c r="G86" s="221"/>
+      <c r="H86" s="222"/>
       <c r="I86" s="82"/>
     </row>
     <row r="87" spans="1:14">
@@ -7193,12 +8078,12 @@
         <f t="shared" ref="E87" si="28">C87*D87</f>
         <v>0</v>
       </c>
-      <c r="F87" s="187">
+      <c r="F87" s="220">
         <f>I87*0.033%</f>
         <v>688392.54</v>
       </c>
-      <c r="G87" s="188"/>
-      <c r="H87" s="189"/>
+      <c r="G87" s="221"/>
+      <c r="H87" s="222"/>
       <c r="I87" s="82">
         <v>2086038000</v>
       </c>
@@ -7216,12 +8101,12 @@
         <f>C88*D88</f>
         <v>0</v>
       </c>
-      <c r="F88" s="187">
+      <c r="F88" s="220">
         <f>I84*0.033%</f>
         <v>176854.25586180002</v>
       </c>
-      <c r="G88" s="188"/>
-      <c r="H88" s="189"/>
+      <c r="G88" s="221"/>
+      <c r="H88" s="222"/>
       <c r="I88" s="82">
         <f>I84-F88</f>
         <v>535745133.20413822</v>
@@ -7233,9 +8118,9 @@
       <c r="C89" s="137"/>
       <c r="D89" s="134"/>
       <c r="E89" s="134"/>
-      <c r="F89" s="181"/>
-      <c r="G89" s="182"/>
-      <c r="H89" s="183"/>
+      <c r="F89" s="223"/>
+      <c r="G89" s="224"/>
+      <c r="H89" s="225"/>
       <c r="I89" s="134"/>
     </row>
     <row r="90" spans="1:14">
@@ -7249,12 +8134,12 @@
         <f>SUM(E86:E89)</f>
         <v>3244428580</v>
       </c>
-      <c r="F90" s="184">
+      <c r="F90" s="226">
         <f>SUM(F86:H89)</f>
         <v>865246.79586180008</v>
       </c>
-      <c r="G90" s="185"/>
-      <c r="H90" s="186"/>
+      <c r="G90" s="227"/>
+      <c r="H90" s="228"/>
       <c r="I90" s="91">
         <f>SUM(I86:I89)</f>
         <v>2621783133.2041383</v>
@@ -7283,11 +8168,11 @@
       <c r="E92" s="127" t="s">
         <v>12</v>
       </c>
-      <c r="F92" s="190" t="s">
+      <c r="F92" s="229" t="s">
         <v>122</v>
       </c>
-      <c r="G92" s="191"/>
-      <c r="H92" s="192"/>
+      <c r="G92" s="230"/>
+      <c r="H92" s="231"/>
       <c r="I92" s="127" t="s">
         <v>57</v>
       </c>
@@ -7297,7 +8182,7 @@
         <v>1</v>
       </c>
       <c r="B93" s="80" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="C93" s="82">
         <v>145588</v>
@@ -7309,9 +8194,9 @@
         <f>C93*D93</f>
         <v>3245156520</v>
       </c>
-      <c r="F93" s="198"/>
-      <c r="G93" s="199"/>
-      <c r="H93" s="200"/>
+      <c r="F93" s="232"/>
+      <c r="G93" s="233"/>
+      <c r="H93" s="234"/>
       <c r="I93" s="82"/>
     </row>
     <row r="94" spans="1:14">
@@ -7319,16 +8204,16 @@
         <v>2</v>
       </c>
       <c r="B94" s="80" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="C94" s="82"/>
       <c r="D94" s="82"/>
       <c r="E94" s="82"/>
-      <c r="F94" s="187">
+      <c r="F94" s="220">
         <v>1791144</v>
       </c>
-      <c r="G94" s="188"/>
-      <c r="H94" s="189"/>
+      <c r="G94" s="221"/>
+      <c r="H94" s="222"/>
       <c r="I94" s="82"/>
     </row>
     <row r="95" spans="1:14">
@@ -7336,7 +8221,7 @@
         <v>3</v>
       </c>
       <c r="B95" s="80" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="C95" s="82"/>
       <c r="D95" s="82"/>
@@ -7344,9 +8229,9 @@
         <f t="shared" ref="E95" si="29">C95*D95</f>
         <v>0</v>
       </c>
-      <c r="F95" s="187"/>
-      <c r="G95" s="188"/>
-      <c r="H95" s="189"/>
+      <c r="F95" s="220"/>
+      <c r="G95" s="221"/>
+      <c r="H95" s="222"/>
       <c r="I95" s="82"/>
     </row>
     <row r="96" spans="1:14">
@@ -7362,11 +8247,11 @@
         <f t="shared" ref="E96:E97" si="30">C96*D96</f>
         <v>0</v>
       </c>
-      <c r="F96" s="187">
+      <c r="F96" s="220">
         <v>357930</v>
       </c>
-      <c r="G96" s="188"/>
-      <c r="H96" s="189"/>
+      <c r="G96" s="221"/>
+      <c r="H96" s="222"/>
       <c r="I96" s="82">
         <v>1084637000</v>
       </c>
@@ -7376,7 +8261,7 @@
         <v>5</v>
       </c>
       <c r="B97" s="80" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="C97" s="81"/>
       <c r="D97" s="82"/>
@@ -7384,11 +8269,11 @@
         <f t="shared" si="30"/>
         <v>0</v>
       </c>
-      <c r="F97" s="187">
+      <c r="F97" s="220">
         <v>480480</v>
       </c>
-      <c r="G97" s="188"/>
-      <c r="H97" s="189"/>
+      <c r="G97" s="221"/>
+      <c r="H97" s="222"/>
       <c r="I97" s="82">
         <v>1456000000</v>
       </c>
@@ -7406,11 +8291,11 @@
         <f>C98*D98</f>
         <v>0</v>
       </c>
-      <c r="F98" s="187">
+      <c r="F98" s="220">
         <v>231033</v>
       </c>
-      <c r="G98" s="188"/>
-      <c r="H98" s="189"/>
+      <c r="G98" s="221"/>
+      <c r="H98" s="222"/>
       <c r="I98" s="82">
         <f>I101-F98</f>
         <v>699867789</v>
@@ -7422,9 +8307,9 @@
       <c r="C99" s="137"/>
       <c r="D99" s="134"/>
       <c r="E99" s="134"/>
-      <c r="F99" s="181"/>
-      <c r="G99" s="182"/>
-      <c r="H99" s="183"/>
+      <c r="F99" s="223"/>
+      <c r="G99" s="224"/>
+      <c r="H99" s="225"/>
       <c r="I99" s="134"/>
     </row>
     <row r="100" spans="1:15">
@@ -7438,12 +8323,12 @@
         <f>SUM(E93:E99)</f>
         <v>3245156520</v>
       </c>
-      <c r="F100" s="184">
+      <c r="F100" s="226">
         <f>SUM(F93:H99)</f>
         <v>2860587</v>
       </c>
-      <c r="G100" s="185"/>
-      <c r="H100" s="186"/>
+      <c r="G100" s="227"/>
+      <c r="H100" s="228"/>
       <c r="I100" s="91">
         <f>SUM(I93:I99)</f>
         <v>3240504789</v>
@@ -7482,13 +8367,13 @@
       <c r="E104" s="132"/>
     </row>
     <row r="105" spans="1:15" ht="43.5" customHeight="1">
-      <c r="A105" s="180" t="s">
-        <v>153</v>
-      </c>
-      <c r="B105" s="180"/>
-      <c r="C105" s="180"/>
-      <c r="D105" s="180"/>
-      <c r="E105" s="180"/>
+      <c r="A105" s="219" t="s">
+        <v>152</v>
+      </c>
+      <c r="B105" s="219"/>
+      <c r="C105" s="219"/>
+      <c r="D105" s="219"/>
+      <c r="E105" s="219"/>
       <c r="F105" s="107"/>
       <c r="G105" s="21"/>
       <c r="H105" s="21"/>
@@ -7761,7 +8646,7 @@
         <v>42690</v>
       </c>
       <c r="I112" s="75" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="J112" s="75">
         <f>IF(H112&lt;&gt;"",H112-G112,"")</f>
@@ -7808,7 +8693,7 @@
         <v>42691</v>
       </c>
       <c r="I113" s="75" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="J113" s="75">
         <f t="shared" ref="J113:J117" si="38">IF(H113&lt;&gt;"",H113-G113,"")</f>
@@ -7855,7 +8740,7 @@
         <v>42691</v>
       </c>
       <c r="I114" s="75" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="J114" s="75">
         <f t="shared" si="38"/>
@@ -7903,7 +8788,7 @@
         <v>42698</v>
       </c>
       <c r="I115" s="75" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="J115" s="75">
         <f t="shared" si="38"/>
@@ -7950,7 +8835,7 @@
         <v>42698</v>
       </c>
       <c r="I116" s="75" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="J116" s="75">
         <f t="shared" si="38"/>
@@ -7997,7 +8882,7 @@
         <v>42702</v>
       </c>
       <c r="I117" s="75" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="J117" s="75">
         <f t="shared" si="38"/>
@@ -8118,7 +9003,7 @@
       <c r="G120" s="83"/>
       <c r="H120" s="83"/>
       <c r="I120" s="75" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="J120" s="75" t="str">
         <f t="shared" si="41"/>
@@ -8153,7 +9038,7 @@
         <v>42699</v>
       </c>
       <c r="I121" s="75" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="J121" s="75">
         <f t="shared" si="41"/>
@@ -8188,7 +9073,7 @@
         <v>42699</v>
       </c>
       <c r="I122" s="75" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="J122" s="75">
         <f t="shared" si="41"/>
@@ -8288,11 +9173,11 @@
       <c r="E128" s="127" t="s">
         <v>12</v>
       </c>
-      <c r="F128" s="190" t="s">
+      <c r="F128" s="229" t="s">
         <v>122</v>
       </c>
-      <c r="G128" s="191"/>
-      <c r="H128" s="192"/>
+      <c r="G128" s="230"/>
+      <c r="H128" s="231"/>
       <c r="I128" s="127" t="s">
         <v>57</v>
       </c>
@@ -8302,7 +9187,7 @@
         <v>1</v>
       </c>
       <c r="B129" s="80" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="C129" s="117">
         <v>291188</v>
@@ -8314,9 +9199,9 @@
         <f>C129*D129</f>
         <v>6545906240</v>
       </c>
-      <c r="F129" s="187"/>
-      <c r="G129" s="188"/>
-      <c r="H129" s="189"/>
+      <c r="F129" s="220"/>
+      <c r="G129" s="221"/>
+      <c r="H129" s="222"/>
       <c r="I129" s="82"/>
     </row>
     <row r="130" spans="1:9">
@@ -8324,17 +9209,17 @@
         <v>2</v>
       </c>
       <c r="B130" s="80" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="C130" s="117"/>
       <c r="D130" s="82"/>
       <c r="E130" s="82"/>
-      <c r="F130" s="187">
+      <c r="F130" s="220">
         <f>F94*2</f>
         <v>3582288</v>
       </c>
-      <c r="G130" s="188"/>
-      <c r="H130" s="189"/>
+      <c r="G130" s="221"/>
+      <c r="H130" s="222"/>
       <c r="I130" s="82"/>
     </row>
     <row r="131" spans="1:9">
@@ -8342,16 +9227,16 @@
         <v>3</v>
       </c>
       <c r="B131" s="80" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="C131" s="82"/>
       <c r="D131" s="82"/>
       <c r="E131" s="82"/>
-      <c r="F131" s="187">
+      <c r="F131" s="220">
         <v>-1791144</v>
       </c>
-      <c r="G131" s="188"/>
-      <c r="H131" s="189"/>
+      <c r="G131" s="221"/>
+      <c r="H131" s="222"/>
       <c r="I131" s="82"/>
     </row>
     <row r="132" spans="1:9">
@@ -8359,7 +9244,7 @@
         <v>4</v>
       </c>
       <c r="B132" s="80" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="C132" s="82"/>
       <c r="D132" s="82"/>
@@ -8367,12 +9252,12 @@
         <f t="shared" ref="E132:E134" si="43">C132*D132</f>
         <v>0</v>
       </c>
-      <c r="F132" s="187">
+      <c r="F132" s="220">
         <f>ROUND(I132*0.033%,0)</f>
         <v>1450020</v>
       </c>
-      <c r="G132" s="188"/>
-      <c r="H132" s="189"/>
+      <c r="G132" s="221"/>
+      <c r="H132" s="222"/>
       <c r="I132" s="82">
         <v>4394000000</v>
       </c>
@@ -8382,7 +9267,7 @@
         <v>5</v>
       </c>
       <c r="B133" s="80" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="C133" s="81"/>
       <c r="D133" s="82"/>
@@ -8390,12 +9275,12 @@
         <f t="shared" si="43"/>
         <v>0</v>
       </c>
-      <c r="F133" s="187">
+      <c r="F133" s="220">
         <f>ROUND(I133*0.033%,0)</f>
         <v>133243</v>
       </c>
-      <c r="G133" s="188"/>
-      <c r="H133" s="189"/>
+      <c r="G133" s="221"/>
+      <c r="H133" s="222"/>
       <c r="I133" s="82">
         <v>403767000</v>
       </c>
@@ -8405,7 +9290,7 @@
         <v>6</v>
       </c>
       <c r="B134" s="80" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="C134" s="81"/>
       <c r="D134" s="82"/>
@@ -8413,12 +9298,12 @@
         <f t="shared" si="43"/>
         <v>0</v>
       </c>
-      <c r="F134" s="187">
+      <c r="F134" s="220">
         <f t="shared" ref="F134" si="44">ROUND(I134*0.033%,0)</f>
         <v>142501</v>
       </c>
-      <c r="G134" s="188"/>
-      <c r="H134" s="189"/>
+      <c r="G134" s="221"/>
+      <c r="H134" s="222"/>
       <c r="I134" s="82">
         <v>431821000</v>
       </c>
@@ -8436,11 +9321,11 @@
         <f>C135*D135</f>
         <v>0</v>
       </c>
-      <c r="F135" s="187">
+      <c r="F135" s="220">
         <v>298421</v>
       </c>
-      <c r="G135" s="188"/>
-      <c r="H135" s="189"/>
+      <c r="G135" s="221"/>
+      <c r="H135" s="222"/>
       <c r="I135" s="82">
         <v>904008247</v>
       </c>
@@ -8451,9 +9336,9 @@
       <c r="C136" s="137"/>
       <c r="D136" s="134"/>
       <c r="E136" s="134"/>
-      <c r="F136" s="181"/>
-      <c r="G136" s="182"/>
-      <c r="H136" s="183"/>
+      <c r="F136" s="223"/>
+      <c r="G136" s="224"/>
+      <c r="H136" s="225"/>
       <c r="I136" s="134"/>
     </row>
     <row r="137" spans="1:9">
@@ -8467,12 +9352,12 @@
         <f>SUM(E129:E136)</f>
         <v>6545906240</v>
       </c>
-      <c r="F137" s="184">
+      <c r="F137" s="226">
         <f>SUM(F129:H136)</f>
         <v>3815329</v>
       </c>
-      <c r="G137" s="185"/>
-      <c r="H137" s="186"/>
+      <c r="G137" s="227"/>
+      <c r="H137" s="228"/>
       <c r="I137" s="91">
         <f>SUM(I129:I136)</f>
         <v>6133596247</v>
@@ -8494,11 +9379,11 @@
       <c r="E139" s="127" t="s">
         <v>12</v>
       </c>
-      <c r="F139" s="190" t="s">
+      <c r="F139" s="229" t="s">
         <v>122</v>
       </c>
-      <c r="G139" s="191"/>
-      <c r="H139" s="192"/>
+      <c r="G139" s="230"/>
+      <c r="H139" s="231"/>
       <c r="I139" s="127" t="s">
         <v>57</v>
       </c>
@@ -8508,7 +9393,7 @@
         <v>1</v>
       </c>
       <c r="B140" s="80" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="C140" s="117">
         <v>145588</v>
@@ -8520,9 +9405,9 @@
         <f>C140*D140</f>
         <v>3299024080</v>
       </c>
-      <c r="F140" s="187"/>
-      <c r="G140" s="188"/>
-      <c r="H140" s="189"/>
+      <c r="F140" s="220"/>
+      <c r="G140" s="221"/>
+      <c r="H140" s="222"/>
       <c r="I140" s="82"/>
     </row>
     <row r="141" spans="1:9">
@@ -8530,16 +9415,16 @@
         <v>2</v>
       </c>
       <c r="B141" s="80" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="C141" s="117"/>
       <c r="D141" s="82"/>
       <c r="E141" s="82"/>
-      <c r="F141" s="187">
+      <c r="F141" s="220">
         <v>1819968</v>
       </c>
-      <c r="G141" s="188"/>
-      <c r="H141" s="189"/>
+      <c r="G141" s="221"/>
+      <c r="H141" s="222"/>
       <c r="I141" s="82"/>
     </row>
     <row r="142" spans="1:9">
@@ -8547,7 +9432,7 @@
         <v>4</v>
       </c>
       <c r="B142" s="147" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="C142" s="82"/>
       <c r="D142" s="82"/>
@@ -8555,12 +9440,12 @@
         <f t="shared" ref="E142:E144" si="45">C142*D142</f>
         <v>0</v>
       </c>
-      <c r="F142" s="187">
+      <c r="F142" s="220">
         <f>ROUND(I142*0.033%,0)</f>
         <v>475585</v>
       </c>
-      <c r="G142" s="188"/>
-      <c r="H142" s="189"/>
+      <c r="G142" s="221"/>
+      <c r="H142" s="222"/>
       <c r="I142" s="82">
         <v>1441167000</v>
       </c>
@@ -8570,7 +9455,7 @@
         <v>5</v>
       </c>
       <c r="B143" s="147" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="C143" s="81"/>
       <c r="D143" s="82"/>
@@ -8578,12 +9463,12 @@
         <f t="shared" si="45"/>
         <v>0</v>
       </c>
-      <c r="F143" s="187">
+      <c r="F143" s="220">
         <f>ROUND(I143*0.033%,0)</f>
         <v>178679</v>
       </c>
-      <c r="G143" s="188"/>
-      <c r="H143" s="189"/>
+      <c r="G143" s="221"/>
+      <c r="H143" s="222"/>
       <c r="I143" s="82">
         <v>541450000</v>
       </c>
@@ -8601,12 +9486,12 @@
         <f t="shared" si="45"/>
         <v>0</v>
       </c>
-      <c r="F144" s="187">
+      <c r="F144" s="220">
         <f t="shared" ref="F144" si="46">ROUND(I144*0.033%,0)</f>
         <v>351889</v>
       </c>
-      <c r="G144" s="188"/>
-      <c r="H144" s="189"/>
+      <c r="G144" s="221"/>
+      <c r="H144" s="222"/>
       <c r="I144" s="82">
         <v>1066331000</v>
       </c>
@@ -8624,11 +9509,11 @@
         <f>C145*D145</f>
         <v>0</v>
       </c>
-      <c r="F145" s="187">
+      <c r="F145" s="220">
         <v>81592</v>
       </c>
-      <c r="G145" s="188"/>
-      <c r="H145" s="189"/>
+      <c r="G145" s="221"/>
+      <c r="H145" s="222"/>
       <c r="I145" s="82">
         <v>247168367</v>
       </c>
@@ -8639,9 +9524,9 @@
       <c r="C146" s="137"/>
       <c r="D146" s="134"/>
       <c r="E146" s="134"/>
-      <c r="F146" s="181"/>
-      <c r="G146" s="182"/>
-      <c r="H146" s="183"/>
+      <c r="F146" s="223"/>
+      <c r="G146" s="224"/>
+      <c r="H146" s="225"/>
       <c r="I146" s="134"/>
     </row>
     <row r="147" spans="1:15">
@@ -8655,12 +9540,12 @@
         <f>SUM(E140:E146)</f>
         <v>3299024080</v>
       </c>
-      <c r="F147" s="184">
+      <c r="F147" s="226">
         <f>SUM(F140:H146)</f>
         <v>2907713</v>
       </c>
-      <c r="G147" s="185"/>
-      <c r="H147" s="186"/>
+      <c r="G147" s="227"/>
+      <c r="H147" s="228"/>
       <c r="I147" s="91">
         <f>SUM(I140:I146)</f>
         <v>3296116367</v>
@@ -8673,13 +9558,13 @@
       <c r="I149" s="145"/>
     </row>
     <row r="150" spans="1:15" ht="43.5" customHeight="1">
-      <c r="A150" s="180" t="s">
-        <v>196</v>
-      </c>
-      <c r="B150" s="180"/>
-      <c r="C150" s="180"/>
-      <c r="D150" s="180"/>
-      <c r="E150" s="180"/>
+      <c r="A150" s="219" t="s">
+        <v>195</v>
+      </c>
+      <c r="B150" s="219"/>
+      <c r="C150" s="219"/>
+      <c r="D150" s="219"/>
+      <c r="E150" s="219"/>
       <c r="F150" s="107"/>
       <c r="G150" s="21"/>
       <c r="H150" s="21"/>
@@ -8761,7 +9646,7 @@
         <v>42702</v>
       </c>
       <c r="I153" s="75" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="J153" s="75">
         <f t="shared" ref="J153:J163" si="48">IF(H153&lt;&gt;"",H153-G153+1,"")</f>
@@ -8808,7 +9693,7 @@
         <v>42702</v>
       </c>
       <c r="I154" s="75" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="J154" s="75">
         <f t="shared" si="48"/>
@@ -8855,7 +9740,7 @@
         <v>42702</v>
       </c>
       <c r="I155" s="75" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="J155" s="75">
         <f t="shared" si="48"/>
@@ -8898,7 +9783,7 @@
       <c r="G156" s="83"/>
       <c r="H156" s="83"/>
       <c r="I156" s="75" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="J156" s="75" t="str">
         <f t="shared" si="48"/>
@@ -8991,7 +9876,7 @@
         <v>42702</v>
       </c>
       <c r="I158" s="75" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="J158" s="75">
         <f t="shared" si="48"/>
@@ -9038,7 +9923,7 @@
         <v>42702</v>
       </c>
       <c r="I159" s="75" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="J159" s="75">
         <f t="shared" si="48"/>
@@ -9087,7 +9972,7 @@
         <v>42702</v>
       </c>
       <c r="I160" s="75" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="J160" s="75">
         <f t="shared" si="48"/>
@@ -9179,7 +10064,7 @@
       </c>
       <c r="H162" s="83"/>
       <c r="I162" s="75" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="J162" s="75" t="str">
         <f t="shared" si="48"/>
@@ -9252,7 +10137,7 @@
         <v>12</v>
       </c>
       <c r="B164" s="80" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="C164" s="117">
         <v>10</v>
@@ -9271,7 +10156,7 @@
         <v>42705</v>
       </c>
       <c r="I164" s="75" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="J164" s="75">
         <f>IF(H164&lt;&gt;"",H164-G164,"")</f>
@@ -9299,7 +10184,7 @@
         <v>13</v>
       </c>
       <c r="B165" s="80" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="C165" s="117">
         <v>10</v>
@@ -9318,7 +10203,7 @@
         <v>42705</v>
       </c>
       <c r="I165" s="75" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="J165" s="75">
         <f t="shared" ref="J165:J166" si="55">IF(H165&lt;&gt;"",H165-G165,"")</f>
@@ -9346,7 +10231,7 @@
         <v>14</v>
       </c>
       <c r="B166" s="80" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="C166" s="117">
         <v>10</v>
@@ -9365,7 +10250,7 @@
         <v>42705</v>
       </c>
       <c r="I166" s="75" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="J166" s="75">
         <f t="shared" si="55"/>
@@ -9513,7 +10398,7 @@
         <v>42706</v>
       </c>
       <c r="I170" s="75" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="J170" s="75">
         <f t="shared" si="58"/>
@@ -9548,7 +10433,7 @@
         <v>42706</v>
       </c>
       <c r="I171" s="75" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="J171" s="75">
         <f t="shared" si="58"/>
@@ -9648,11 +10533,11 @@
       <c r="E177" s="127" t="s">
         <v>12</v>
       </c>
-      <c r="F177" s="190" t="s">
+      <c r="F177" s="229" t="s">
         <v>122</v>
       </c>
-      <c r="G177" s="191"/>
-      <c r="H177" s="192"/>
+      <c r="G177" s="230"/>
+      <c r="H177" s="231"/>
       <c r="I177" s="127" t="s">
         <v>57</v>
       </c>
@@ -9662,7 +10547,7 @@
         <v>1</v>
       </c>
       <c r="B178" s="80" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="C178" s="117">
         <v>145588</v>
@@ -9674,9 +10559,9 @@
         <f>C178*D178</f>
         <v>3293200560</v>
       </c>
-      <c r="F178" s="187"/>
-      <c r="G178" s="188"/>
-      <c r="H178" s="189"/>
+      <c r="F178" s="220"/>
+      <c r="G178" s="221"/>
+      <c r="H178" s="222"/>
       <c r="I178" s="82"/>
     </row>
     <row r="179" spans="1:14">
@@ -9684,16 +10569,16 @@
         <v>2</v>
       </c>
       <c r="B179" s="80" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="C179" s="117"/>
       <c r="D179" s="82"/>
       <c r="E179" s="82"/>
-      <c r="F179" s="187">
+      <c r="F179" s="220">
         <v>1825573</v>
       </c>
-      <c r="G179" s="188"/>
-      <c r="H179" s="189"/>
+      <c r="G179" s="221"/>
+      <c r="H179" s="222"/>
       <c r="I179" s="82"/>
     </row>
     <row r="180" spans="1:14">
@@ -9701,7 +10586,7 @@
         <v>3</v>
       </c>
       <c r="B180" s="147" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="C180" s="82"/>
       <c r="D180" s="82"/>
@@ -9709,12 +10594,12 @@
         <f t="shared" ref="E180:E181" si="59">C180*D180</f>
         <v>0</v>
       </c>
-      <c r="F180" s="187">
+      <c r="F180" s="220">
         <f>ROUND(I180*0.033%,0)</f>
         <v>497640</v>
       </c>
-      <c r="G180" s="188"/>
-      <c r="H180" s="189"/>
+      <c r="G180" s="221"/>
+      <c r="H180" s="222"/>
       <c r="I180" s="82">
         <v>1508000000</v>
       </c>
@@ -9724,7 +10609,7 @@
         <v>4</v>
       </c>
       <c r="B181" s="80" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="C181" s="81"/>
       <c r="D181" s="82"/>
@@ -9732,12 +10617,12 @@
         <f t="shared" si="59"/>
         <v>0</v>
       </c>
-      <c r="F181" s="187">
+      <c r="F181" s="220">
         <f>ROUND(I181*0.033%,0)</f>
         <v>552453</v>
       </c>
-      <c r="G181" s="188"/>
-      <c r="H181" s="189"/>
+      <c r="G181" s="221"/>
+      <c r="H181" s="222"/>
       <c r="I181" s="82">
         <v>1674100000</v>
       </c>
@@ -9755,9 +10640,9 @@
         <f>C182*D182</f>
         <v>0</v>
       </c>
-      <c r="F182" s="187"/>
-      <c r="G182" s="188"/>
-      <c r="H182" s="189"/>
+      <c r="F182" s="220"/>
+      <c r="G182" s="221"/>
+      <c r="H182" s="222"/>
       <c r="I182" s="82"/>
     </row>
     <row r="183" spans="1:14" ht="6" customHeight="1">
@@ -9766,9 +10651,9 @@
       <c r="C183" s="137"/>
       <c r="D183" s="134"/>
       <c r="E183" s="134"/>
-      <c r="F183" s="181"/>
-      <c r="G183" s="182"/>
-      <c r="H183" s="183"/>
+      <c r="F183" s="223"/>
+      <c r="G183" s="224"/>
+      <c r="H183" s="225"/>
       <c r="I183" s="134"/>
     </row>
     <row r="184" spans="1:14">
@@ -9782,12 +10667,12 @@
         <f>SUM(E178:E183)</f>
         <v>3293200560</v>
       </c>
-      <c r="F184" s="184">
+      <c r="F184" s="226">
         <f>SUM(F178:H183)</f>
         <v>2875666</v>
       </c>
-      <c r="G184" s="185"/>
-      <c r="H184" s="186"/>
+      <c r="G184" s="227"/>
+      <c r="H184" s="228"/>
       <c r="I184" s="91">
         <f>SUM(I178:I183)</f>
         <v>3182100000</v>
@@ -9797,14 +10682,14 @@
       <c r="I185" s="145"/>
     </row>
     <row r="186" spans="1:14" s="23" customFormat="1">
-      <c r="C186" s="163"/>
+      <c r="C186" s="162"/>
       <c r="D186" s="100"/>
-      <c r="E186" s="164"/>
+      <c r="E186" s="163"/>
       <c r="G186" s="27" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="H186" s="27"/>
-      <c r="I186" s="165">
+      <c r="I186" s="164">
         <f>E184-F184-I184</f>
         <v>108224894</v>
       </c>
@@ -9815,12 +10700,12 @@
       <c r="N186" s="27"/>
     </row>
     <row r="187" spans="1:14" s="23" customFormat="1">
-      <c r="C187" s="163"/>
+      <c r="C187" s="162"/>
       <c r="D187" s="100"/>
-      <c r="E187" s="164"/>
+      <c r="E187" s="163"/>
       <c r="G187" s="27"/>
       <c r="H187" s="27"/>
-      <c r="I187" s="165"/>
+      <c r="I187" s="164"/>
       <c r="J187" s="27"/>
       <c r="K187" s="27"/>
       <c r="L187" s="27"/>
@@ -9831,7 +10716,7 @@
       <c r="A188" s="92" t="s">
         <v>1</v>
       </c>
-      <c r="B188" s="159" t="s">
+      <c r="B188" s="158" t="s">
         <v>26</v>
       </c>
       <c r="C188" s="126" t="s">
@@ -9843,11 +10728,11 @@
       <c r="E188" s="127" t="s">
         <v>12</v>
       </c>
-      <c r="F188" s="190" t="s">
+      <c r="F188" s="229" t="s">
         <v>122</v>
       </c>
-      <c r="G188" s="191"/>
-      <c r="H188" s="192"/>
+      <c r="G188" s="230"/>
+      <c r="H188" s="231"/>
       <c r="I188" s="127" t="s">
         <v>57</v>
       </c>
@@ -9857,7 +10742,7 @@
         <v>1</v>
       </c>
       <c r="B189" s="80" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="C189" s="117">
         <v>291188</v>
@@ -9869,9 +10754,9 @@
         <f>C189*D189</f>
         <v>6595408200</v>
       </c>
-      <c r="F189" s="187"/>
-      <c r="G189" s="188"/>
-      <c r="H189" s="189"/>
+      <c r="F189" s="220"/>
+      <c r="G189" s="221"/>
+      <c r="H189" s="222"/>
       <c r="I189" s="82"/>
     </row>
     <row r="190" spans="1:14">
@@ -9879,7 +10764,7 @@
         <v>2</v>
       </c>
       <c r="B190" s="80" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="C190" s="117"/>
       <c r="D190" s="82"/>
@@ -9887,9 +10772,9 @@
         <f>E184-I184-F184</f>
         <v>108224894</v>
       </c>
-      <c r="F190" s="187"/>
-      <c r="G190" s="188"/>
-      <c r="H190" s="189"/>
+      <c r="F190" s="220"/>
+      <c r="G190" s="221"/>
+      <c r="H190" s="222"/>
       <c r="I190" s="82"/>
     </row>
     <row r="191" spans="1:14">
@@ -9897,17 +10782,17 @@
         <v>3</v>
       </c>
       <c r="B191" s="80" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="C191" s="117"/>
       <c r="D191" s="82"/>
       <c r="E191" s="82"/>
-      <c r="F191" s="187">
+      <c r="F191" s="220">
         <f>1825573*2</f>
         <v>3651146</v>
       </c>
-      <c r="G191" s="188"/>
-      <c r="H191" s="189"/>
+      <c r="G191" s="221"/>
+      <c r="H191" s="222"/>
       <c r="I191" s="82"/>
     </row>
     <row r="192" spans="1:14">
@@ -9915,14 +10800,14 @@
         <v>4</v>
       </c>
       <c r="B192" s="80" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="C192" s="117"/>
       <c r="D192" s="82"/>
       <c r="E192" s="82"/>
-      <c r="F192" s="160"/>
-      <c r="G192" s="161"/>
-      <c r="H192" s="162"/>
+      <c r="F192" s="159"/>
+      <c r="G192" s="160"/>
+      <c r="H192" s="161"/>
       <c r="I192" s="82">
         <f>E173</f>
         <v>420704884</v>
@@ -9933,16 +10818,16 @@
         <v>5</v>
       </c>
       <c r="B193" s="80" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="C193" s="117"/>
       <c r="D193" s="82"/>
       <c r="E193" s="82"/>
-      <c r="F193" s="160"/>
-      <c r="G193" s="161"/>
-      <c r="H193" s="162"/>
+      <c r="F193" s="159"/>
+      <c r="G193" s="160"/>
+      <c r="H193" s="161"/>
       <c r="I193" s="82">
-        <v>300000000</v>
+        <v>500000000</v>
       </c>
     </row>
     <row r="194" spans="1:15">
@@ -9950,7 +10835,7 @@
         <v>6</v>
       </c>
       <c r="B194" s="80" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="C194" s="82"/>
       <c r="D194" s="82"/>
@@ -9958,12 +10843,12 @@
         <f t="shared" ref="E194:E195" si="60">C194*D194</f>
         <v>0</v>
       </c>
-      <c r="F194" s="187">
+      <c r="F194" s="220">
         <f>ROUND(I194*0.033%,0)</f>
         <v>963198</v>
       </c>
-      <c r="G194" s="188"/>
-      <c r="H194" s="189"/>
+      <c r="G194" s="221"/>
+      <c r="H194" s="222"/>
       <c r="I194" s="82">
         <f>2918480500+300000</f>
         <v>2918780500</v>
@@ -9974,7 +10859,7 @@
         <v>7</v>
       </c>
       <c r="B195" s="147" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="C195" s="81"/>
       <c r="D195" s="82"/>
@@ -9982,12 +10867,12 @@
         <f t="shared" si="60"/>
         <v>0</v>
       </c>
-      <c r="F195" s="187">
+      <c r="F195" s="220">
         <f>ROUND(I195*0.033%,0)</f>
         <v>602224</v>
       </c>
-      <c r="G195" s="188"/>
-      <c r="H195" s="189"/>
+      <c r="G195" s="221"/>
+      <c r="H195" s="222"/>
       <c r="I195" s="82">
         <v>1824920500</v>
       </c>
@@ -9997,17 +10882,17 @@
         <v>8</v>
       </c>
       <c r="B196" s="147" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="C196" s="81"/>
       <c r="D196" s="82"/>
       <c r="E196" s="82"/>
-      <c r="F196" s="187">
+      <c r="F196" s="220">
         <f>ROUND(I196*0.033%,0)</f>
         <v>182381</v>
       </c>
-      <c r="G196" s="188"/>
-      <c r="H196" s="189"/>
+      <c r="G196" s="221"/>
+      <c r="H196" s="222"/>
       <c r="I196" s="82">
         <v>552669000</v>
       </c>
@@ -10025,13 +10910,13 @@
         <f>C197*D197</f>
         <v>0</v>
       </c>
-      <c r="F197" s="187">
+      <c r="F197" s="220">
         <v>224782.55613005161</v>
       </c>
-      <c r="G197" s="188"/>
-      <c r="H197" s="189"/>
+      <c r="G197" s="221"/>
+      <c r="H197" s="222"/>
       <c r="I197" s="82">
-        <v>680934478.44386995</v>
+        <v>480934478.44387001</v>
       </c>
     </row>
     <row r="198" spans="1:15" ht="6" customHeight="1">
@@ -10040,9 +10925,9 @@
       <c r="C198" s="137"/>
       <c r="D198" s="134"/>
       <c r="E198" s="134"/>
-      <c r="F198" s="181"/>
-      <c r="G198" s="182"/>
-      <c r="H198" s="183"/>
+      <c r="F198" s="223"/>
+      <c r="G198" s="224"/>
+      <c r="H198" s="225"/>
       <c r="I198" s="134"/>
     </row>
     <row r="199" spans="1:15">
@@ -10056,12 +10941,12 @@
         <f>SUM(E189:E198)</f>
         <v>6703633094</v>
       </c>
-      <c r="F199" s="184">
+      <c r="F199" s="226">
         <f>SUM(F189:H198)</f>
         <v>5623731.5561300516</v>
       </c>
-      <c r="G199" s="185"/>
-      <c r="H199" s="186"/>
+      <c r="G199" s="227"/>
+      <c r="H199" s="228"/>
       <c r="I199" s="91">
         <f>SUM(I189:I198)</f>
         <v>6698009362.4438696</v>
@@ -10071,12 +10956,12 @@
       <c r="I200" s="145"/>
     </row>
     <row r="201" spans="1:15" s="23" customFormat="1">
-      <c r="C201" s="163"/>
+      <c r="C201" s="162"/>
       <c r="D201" s="100"/>
-      <c r="E201" s="164"/>
+      <c r="E201" s="163"/>
       <c r="G201" s="27"/>
       <c r="H201" s="27"/>
-      <c r="I201" s="165"/>
+      <c r="I201" s="164"/>
       <c r="J201" s="27"/>
       <c r="K201" s="27"/>
       <c r="L201" s="27"/>
@@ -10084,12 +10969,12 @@
       <c r="N201" s="27"/>
     </row>
     <row r="202" spans="1:15" s="23" customFormat="1">
-      <c r="C202" s="163"/>
+      <c r="C202" s="162"/>
       <c r="D202" s="100"/>
-      <c r="E202" s="164"/>
+      <c r="E202" s="163"/>
       <c r="G202" s="27"/>
       <c r="H202" s="27"/>
-      <c r="I202" s="165"/>
+      <c r="I202" s="164"/>
       <c r="J202" s="27"/>
       <c r="K202" s="27"/>
       <c r="L202" s="27"/>
@@ -10097,13 +10982,13 @@
       <c r="N202" s="27"/>
     </row>
     <row r="205" spans="1:15" ht="43.5" customHeight="1">
-      <c r="A205" s="180" t="s">
-        <v>123</v>
-      </c>
-      <c r="B205" s="180"/>
-      <c r="C205" s="180"/>
-      <c r="D205" s="180"/>
-      <c r="E205" s="180"/>
+      <c r="A205" s="219" t="s">
+        <v>203</v>
+      </c>
+      <c r="B205" s="219"/>
+      <c r="C205" s="219"/>
+      <c r="D205" s="219"/>
+      <c r="E205" s="219"/>
       <c r="F205" s="107"/>
       <c r="G205" s="21"/>
       <c r="H205" s="21"/>
@@ -10162,447 +11047,537 @@
     </row>
     <row r="208" spans="1:15" ht="18.75" customHeight="1">
       <c r="A208" s="79">
-        <f>ROW()-77</f>
-        <v>131</v>
+        <f>ROW()-207</f>
+        <v>1</v>
       </c>
       <c r="B208" s="70" t="s">
         <v>40</v>
       </c>
       <c r="C208" s="116">
-        <f>26000*4</f>
-        <v>104000</v>
+        <v>365755</v>
       </c>
       <c r="D208" s="72">
         <v>300</v>
       </c>
       <c r="E208" s="121">
         <f t="shared" ref="E208:E211" si="61">C208*D208</f>
-        <v>31200000</v>
+        <v>109726500</v>
       </c>
       <c r="G208" s="83">
-        <v>42702</v>
-      </c>
-      <c r="H208" s="83"/>
+        <v>42710</v>
+      </c>
+      <c r="H208" s="83">
+        <v>42710</v>
+      </c>
       <c r="I208" s="75" t="s">
-        <v>187</v>
-      </c>
-      <c r="J208" s="75" t="str">
-        <f t="shared" ref="J208:J212" si="62">IF(H208&lt;&gt;"",H208-G208+1,"")</f>
+        <v>204</v>
+      </c>
+      <c r="J208" s="75"/>
+      <c r="K208" s="75">
+        <v>2027</v>
+      </c>
+      <c r="L208" s="108">
+        <f t="shared" ref="L208:L218" si="62">K208*13</f>
+        <v>26351</v>
+      </c>
+      <c r="M208" s="77">
+        <v>20000</v>
+      </c>
+      <c r="N208" s="77" t="str">
+        <f t="shared" ref="N208:N220" si="63">IF(J208&lt;&gt;"",M208*L208*J208/1000,"")</f>
         <v/>
       </c>
-      <c r="K208" s="75">
-        <v>12</v>
-      </c>
-      <c r="L208" s="108">
-        <f t="shared" ref="L208:L215" si="63">K208*13</f>
-        <v>156</v>
-      </c>
-      <c r="M208" s="77"/>
-      <c r="N208" s="77"/>
       <c r="O208" s="78"/>
     </row>
     <row r="209" spans="1:15" ht="18.75" customHeight="1">
       <c r="A209" s="79">
-        <f t="shared" ref="A209:A219" si="64">ROW()-77</f>
-        <v>132</v>
+        <f t="shared" ref="A209:A218" si="64">ROW()-207</f>
+        <v>2</v>
       </c>
       <c r="B209" s="80" t="s">
         <v>42</v>
       </c>
       <c r="C209" s="117">
-        <v>4</v>
+        <v>14</v>
       </c>
       <c r="D209" s="82">
         <v>2000000</v>
       </c>
       <c r="E209" s="122">
         <f t="shared" si="61"/>
-        <v>8000000</v>
+        <v>28000000</v>
       </c>
       <c r="G209" s="83">
-        <v>42702</v>
-      </c>
-      <c r="H209" s="83"/>
+        <v>42710</v>
+      </c>
+      <c r="H209" s="83">
+        <v>42710</v>
+      </c>
       <c r="I209" s="75" t="s">
-        <v>105</v>
-      </c>
-      <c r="J209" s="75" t="str">
+        <v>205</v>
+      </c>
+      <c r="J209" s="75"/>
+      <c r="K209" s="75">
+        <v>2027</v>
+      </c>
+      <c r="L209" s="108">
         <f t="shared" si="62"/>
+        <v>26351</v>
+      </c>
+      <c r="M209" s="77">
+        <v>20000</v>
+      </c>
+      <c r="N209" s="77" t="str">
+        <f t="shared" si="63"/>
         <v/>
       </c>
-      <c r="K209" s="75">
-        <v>500</v>
-      </c>
-      <c r="L209" s="108">
-        <f t="shared" si="63"/>
-        <v>6500</v>
-      </c>
-      <c r="M209" s="77"/>
-      <c r="N209" s="77"/>
       <c r="O209" s="78"/>
     </row>
     <row r="210" spans="1:15" ht="18.75" customHeight="1">
       <c r="A210" s="79">
         <f t="shared" si="64"/>
-        <v>133</v>
+        <v>3</v>
       </c>
       <c r="B210" s="80" t="s">
         <v>43</v>
       </c>
       <c r="C210" s="117">
-        <v>4</v>
+        <v>14</v>
       </c>
       <c r="D210" s="82">
         <v>2000000</v>
       </c>
       <c r="E210" s="122">
         <f t="shared" si="61"/>
-        <v>8000000</v>
+        <v>28000000</v>
       </c>
       <c r="G210" s="83">
-        <v>42702</v>
-      </c>
-      <c r="H210" s="83"/>
+        <v>42711</v>
+      </c>
+      <c r="H210" s="83">
+        <v>42711</v>
+      </c>
       <c r="I210" s="75" t="s">
-        <v>188</v>
-      </c>
-      <c r="J210" s="75" t="str">
+        <v>207</v>
+      </c>
+      <c r="J210" s="75"/>
+      <c r="K210" s="75">
+        <v>2027</v>
+      </c>
+      <c r="L210" s="108">
         <f t="shared" si="62"/>
+        <v>26351</v>
+      </c>
+      <c r="M210" s="77">
+        <v>20000</v>
+      </c>
+      <c r="N210" s="77" t="str">
+        <f t="shared" si="63"/>
         <v/>
       </c>
-      <c r="K210" s="75">
-        <v>500</v>
-      </c>
-      <c r="L210" s="108">
-        <f t="shared" si="63"/>
-        <v>6500</v>
-      </c>
-      <c r="M210" s="77"/>
-      <c r="N210" s="77"/>
       <c r="O210" s="78"/>
     </row>
     <row r="211" spans="1:15" ht="18.75" customHeight="1">
       <c r="A211" s="79">
         <f t="shared" si="64"/>
-        <v>134</v>
+        <v>4</v>
       </c>
       <c r="B211" s="80" t="s">
         <v>44</v>
       </c>
       <c r="C211" s="117">
-        <v>4</v>
+        <v>14</v>
       </c>
       <c r="D211" s="82">
         <v>600000</v>
       </c>
       <c r="E211" s="122">
         <f t="shared" si="61"/>
-        <v>2400000</v>
+        <v>8400000</v>
       </c>
       <c r="G211" s="83">
         <v>42702</v>
       </c>
-      <c r="H211" s="83"/>
+      <c r="H211" s="83">
+        <v>42711</v>
+      </c>
       <c r="I211" s="75" t="s">
-        <v>189</v>
-      </c>
-      <c r="J211" s="75" t="str">
+        <v>186</v>
+      </c>
+      <c r="J211" s="75">
+        <f t="shared" ref="J211:J218" si="65">IF(H211&lt;&gt;"",H211-G211+1,"")</f>
+        <v>10</v>
+      </c>
+      <c r="K211" s="75">
+        <v>12</v>
+      </c>
+      <c r="L211" s="108">
         <f t="shared" si="62"/>
-        <v/>
-      </c>
-      <c r="K211" s="75">
-        <v>810</v>
-      </c>
-      <c r="L211" s="108">
+        <v>156</v>
+      </c>
+      <c r="M211" s="77">
+        <v>20000</v>
+      </c>
+      <c r="N211" s="77">
         <f t="shared" si="63"/>
-        <v>10530</v>
-      </c>
-      <c r="M211" s="77"/>
-      <c r="N211" s="77"/>
+        <v>31200</v>
+      </c>
       <c r="O211" s="78"/>
     </row>
     <row r="212" spans="1:15" ht="18.75" customHeight="1">
       <c r="A212" s="79">
         <f t="shared" si="64"/>
-        <v>135</v>
+        <v>5</v>
       </c>
       <c r="B212" s="80" t="s">
         <v>80</v>
       </c>
       <c r="C212" s="117">
-        <v>4</v>
+        <v>14</v>
       </c>
       <c r="D212" s="82">
         <v>16725000</v>
       </c>
       <c r="E212" s="122">
         <f>C212*D212</f>
-        <v>66900000</v>
+        <v>234150000</v>
       </c>
       <c r="G212" s="83">
         <v>42702</v>
       </c>
-      <c r="H212" s="83"/>
+      <c r="H212" s="83">
+        <v>42711</v>
+      </c>
       <c r="I212" s="75" t="s">
-        <v>190</v>
-      </c>
-      <c r="J212" s="75" t="str">
+        <v>105</v>
+      </c>
+      <c r="J212" s="75">
+        <f t="shared" si="65"/>
+        <v>10</v>
+      </c>
+      <c r="K212" s="75">
+        <v>500</v>
+      </c>
+      <c r="L212" s="108">
         <f t="shared" si="62"/>
-        <v/>
-      </c>
-      <c r="K212" s="75">
-        <v>682</v>
-      </c>
-      <c r="L212" s="108">
+        <v>6500</v>
+      </c>
+      <c r="M212" s="77">
+        <v>20000</v>
+      </c>
+      <c r="N212" s="77">
         <f t="shared" si="63"/>
-        <v>8866</v>
-      </c>
-      <c r="M212" s="77"/>
-      <c r="N212" s="77"/>
+        <v>1300000</v>
+      </c>
       <c r="O212" s="78"/>
     </row>
     <row r="213" spans="1:15" ht="18.75" customHeight="1">
       <c r="A213" s="79">
         <f t="shared" si="64"/>
-        <v>136</v>
+        <v>6</v>
       </c>
       <c r="B213" s="80" t="s">
         <v>46</v>
       </c>
       <c r="C213" s="117">
-        <v>4</v>
+        <v>14</v>
       </c>
       <c r="D213" s="82">
-        <v>7378778</v>
+        <v>9358000</v>
       </c>
       <c r="E213" s="122">
-        <f t="shared" ref="E213:E215" si="65">C213*D213</f>
-        <v>29515112</v>
+        <f t="shared" ref="E213:E214" si="66">C213*D213</f>
+        <v>131012000</v>
       </c>
       <c r="G213" s="83">
         <v>42702</v>
       </c>
-      <c r="H213" s="83"/>
+      <c r="H213" s="83">
+        <v>42711</v>
+      </c>
       <c r="I213" s="75" t="s">
-        <v>127</v>
-      </c>
-      <c r="J213" s="75"/>
+        <v>187</v>
+      </c>
+      <c r="J213" s="75">
+        <f t="shared" si="65"/>
+        <v>10</v>
+      </c>
       <c r="K213" s="75">
-        <v>894</v>
+        <v>500</v>
       </c>
       <c r="L213" s="108">
+        <f t="shared" si="62"/>
+        <v>6500</v>
+      </c>
+      <c r="M213" s="77">
+        <v>20000</v>
+      </c>
+      <c r="N213" s="77">
         <f t="shared" si="63"/>
-        <v>11622</v>
-      </c>
-      <c r="M213" s="77"/>
-      <c r="N213" s="77"/>
+        <v>1300000</v>
+      </c>
       <c r="O213" s="78"/>
     </row>
     <row r="214" spans="1:15" ht="18.75" customHeight="1">
       <c r="A214" s="79">
         <f t="shared" si="64"/>
-        <v>137</v>
+        <v>7</v>
       </c>
       <c r="B214" s="80" t="s">
         <v>47</v>
       </c>
       <c r="C214" s="117">
-        <v>4</v>
+        <v>14</v>
       </c>
       <c r="D214" s="82">
         <v>5600000</v>
       </c>
       <c r="E214" s="122">
+        <f t="shared" si="66"/>
+        <v>78400000</v>
+      </c>
+      <c r="G214" s="83">
+        <v>42702</v>
+      </c>
+      <c r="H214" s="83">
+        <v>42711</v>
+      </c>
+      <c r="I214" s="75" t="s">
+        <v>188</v>
+      </c>
+      <c r="J214" s="75">
         <f t="shared" si="65"/>
-        <v>22400000</v>
-      </c>
-      <c r="G214" s="83">
-        <v>42703</v>
-      </c>
-      <c r="H214" s="83"/>
-      <c r="I214" s="75" t="s">
-        <v>90</v>
-      </c>
-      <c r="J214" s="75"/>
+        <v>10</v>
+      </c>
       <c r="K214" s="75">
-        <v>445</v>
+        <v>810</v>
       </c>
       <c r="L214" s="108">
+        <f t="shared" si="62"/>
+        <v>10530</v>
+      </c>
+      <c r="M214" s="77">
+        <v>20000</v>
+      </c>
+      <c r="N214" s="77">
         <f t="shared" si="63"/>
-        <v>5785</v>
-      </c>
-      <c r="M214" s="77"/>
-      <c r="N214" s="77"/>
+        <v>2106000</v>
+      </c>
       <c r="O214" s="78"/>
     </row>
     <row r="215" spans="1:15" ht="18.75" customHeight="1">
       <c r="A215" s="79">
         <f t="shared" si="64"/>
-        <v>138</v>
+        <v>8</v>
       </c>
       <c r="B215" s="80" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="C215" s="117">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="D215" s="82">
-        <f>88*22500</f>
-        <v>1980000</v>
+        <v>1350000</v>
       </c>
       <c r="E215" s="122">
+        <f>C215*D215</f>
+        <v>9450000</v>
+      </c>
+      <c r="G215" s="83">
+        <v>42702</v>
+      </c>
+      <c r="H215" s="83">
+        <v>42711</v>
+      </c>
+      <c r="I215" s="75" t="s">
+        <v>189</v>
+      </c>
+      <c r="J215" s="75">
         <f t="shared" si="65"/>
-        <v>7920000</v>
-      </c>
-      <c r="G215" s="83">
-        <v>42703</v>
-      </c>
-      <c r="H215" s="83"/>
-      <c r="I215" s="75" t="s">
-        <v>192</v>
-      </c>
-      <c r="J215" s="75"/>
+        <v>10</v>
+      </c>
       <c r="K215" s="75">
-        <v>372</v>
+        <v>682</v>
       </c>
       <c r="L215" s="108">
+        <f t="shared" si="62"/>
+        <v>8866</v>
+      </c>
+      <c r="M215" s="77">
+        <v>20000</v>
+      </c>
+      <c r="N215" s="77">
         <f t="shared" si="63"/>
-        <v>4836</v>
-      </c>
-      <c r="M215" s="77"/>
-      <c r="N215" s="77"/>
+        <v>1773200</v>
+      </c>
       <c r="O215" s="78"/>
     </row>
     <row r="216" spans="1:15" ht="18.75" customHeight="1">
       <c r="A216" s="79">
         <f t="shared" si="64"/>
-        <v>139</v>
+        <v>9</v>
       </c>
       <c r="B216" s="80" t="s">
-        <v>49</v>
+        <v>84</v>
       </c>
       <c r="C216" s="117">
-        <v>4</v>
+        <v>12</v>
       </c>
       <c r="D216" s="82">
-        <v>1350000</v>
+        <v>2500000</v>
       </c>
       <c r="E216" s="122">
-        <f>C216*D216</f>
-        <v>5400000</v>
+        <f t="shared" ref="E216" si="67">C216*D216</f>
+        <v>30000000</v>
       </c>
       <c r="G216" s="83">
-        <v>42703</v>
-      </c>
-      <c r="H216" s="83"/>
+        <v>42702</v>
+      </c>
+      <c r="H216" s="83">
+        <v>42711</v>
+      </c>
       <c r="I216" s="75" t="s">
-        <v>95</v>
-      </c>
-      <c r="J216" s="75"/>
+        <v>126</v>
+      </c>
+      <c r="J216" s="75">
+        <f t="shared" si="65"/>
+        <v>10</v>
+      </c>
       <c r="K216" s="75">
-        <v>550</v>
+        <v>894</v>
       </c>
       <c r="L216" s="108">
-        <f t="shared" ref="L216:L225" si="66">K216*13</f>
-        <v>7150</v>
-      </c>
-      <c r="M216" s="77"/>
-      <c r="N216" s="77"/>
+        <f t="shared" si="62"/>
+        <v>11622</v>
+      </c>
+      <c r="M216" s="77">
+        <v>20000</v>
+      </c>
+      <c r="N216" s="77">
+        <f t="shared" si="63"/>
+        <v>2324400</v>
+      </c>
       <c r="O216" s="78"/>
     </row>
     <row r="217" spans="1:15" ht="18.75" customHeight="1">
       <c r="A217" s="79">
         <f t="shared" si="64"/>
-        <v>140</v>
+        <v>10</v>
       </c>
       <c r="B217" s="80" t="s">
-        <v>84</v>
+        <v>50</v>
       </c>
       <c r="C217" s="117">
-        <v>4</v>
+        <v>184</v>
       </c>
       <c r="D217" s="82">
-        <v>2500000</v>
+        <v>50000</v>
       </c>
       <c r="E217" s="122">
-        <f t="shared" ref="E217" si="67">C217*D217</f>
-        <v>10000000</v>
+        <f>C217*D217</f>
+        <v>9200000</v>
       </c>
       <c r="G217" s="83">
         <v>42703</v>
       </c>
-      <c r="H217" s="83"/>
+      <c r="H217" s="83">
+        <v>42711</v>
+      </c>
       <c r="I217" s="75" t="s">
-        <v>132</v>
-      </c>
-      <c r="J217" s="75"/>
+        <v>90</v>
+      </c>
+      <c r="J217" s="75">
+        <f t="shared" si="65"/>
+        <v>9</v>
+      </c>
       <c r="K217" s="75">
-        <v>683</v>
+        <v>445</v>
       </c>
       <c r="L217" s="108">
-        <f t="shared" si="66"/>
-        <v>8879</v>
-      </c>
-      <c r="M217" s="77"/>
-      <c r="N217" s="77"/>
+        <f t="shared" si="62"/>
+        <v>5785</v>
+      </c>
+      <c r="M217" s="77">
+        <v>20000</v>
+      </c>
+      <c r="N217" s="77">
+        <f t="shared" si="63"/>
+        <v>1041300</v>
+      </c>
       <c r="O217" s="78"/>
     </row>
     <row r="218" spans="1:15" ht="18.75" customHeight="1">
       <c r="A218" s="79">
         <f t="shared" si="64"/>
-        <v>141</v>
+        <v>11</v>
       </c>
       <c r="B218" s="80" t="s">
-        <v>50</v>
-      </c>
-      <c r="C218" s="117">
-        <v>104</v>
-      </c>
-      <c r="D218" s="82">
-        <v>50000</v>
-      </c>
+        <v>51</v>
+      </c>
+      <c r="C218" s="117"/>
+      <c r="D218" s="82"/>
       <c r="E218" s="122">
-        <f>C218*D218</f>
-        <v>5200000</v>
-      </c>
-      <c r="G218" s="83"/>
-      <c r="H218" s="83"/>
-      <c r="I218" s="75"/>
-      <c r="J218" s="75"/>
-      <c r="K218" s="75"/>
+        <f>N222</f>
+        <v>10369840</v>
+      </c>
+      <c r="G218" s="83">
+        <v>42703</v>
+      </c>
+      <c r="H218" s="83">
+        <v>42711</v>
+      </c>
+      <c r="I218" s="75" t="s">
+        <v>191</v>
+      </c>
+      <c r="J218" s="75">
+        <f t="shared" si="65"/>
+        <v>9</v>
+      </c>
+      <c r="K218" s="75">
+        <f>372-161</f>
+        <v>211</v>
+      </c>
       <c r="L218" s="108">
-        <f t="shared" si="66"/>
-        <v>0</v>
-      </c>
-      <c r="M218" s="77"/>
-      <c r="N218" s="77"/>
+        <f t="shared" si="62"/>
+        <v>2743</v>
+      </c>
+      <c r="M218" s="77">
+        <v>20000</v>
+      </c>
+      <c r="N218" s="77">
+        <f t="shared" si="63"/>
+        <v>493740</v>
+      </c>
       <c r="O218" s="78"/>
     </row>
     <row r="219" spans="1:15" ht="18.75" customHeight="1">
-      <c r="A219" s="79">
-        <f t="shared" si="64"/>
-        <v>142</v>
-      </c>
-      <c r="B219" s="80" t="s">
-        <v>51</v>
-      </c>
+      <c r="A219" s="79"/>
+      <c r="B219" s="80"/>
       <c r="C219" s="117"/>
       <c r="D219" s="82"/>
-      <c r="E219" s="122">
-        <f>N228</f>
-        <v>0</v>
-      </c>
-      <c r="G219" s="83"/>
-      <c r="H219" s="83"/>
+      <c r="E219" s="122"/>
+      <c r="G219" s="83">
+        <v>42716</v>
+      </c>
+      <c r="H219" s="83">
+        <v>42716</v>
+      </c>
       <c r="I219" s="75"/>
       <c r="J219" s="75"/>
-      <c r="K219" s="75"/>
+      <c r="K219" s="75">
+        <v>2000</v>
+      </c>
       <c r="L219" s="108">
-        <f t="shared" si="66"/>
-        <v>0</v>
-      </c>
-      <c r="M219" s="77"/>
-      <c r="N219" s="77"/>
+        <f t="shared" ref="L219:L220" si="68">K219*13</f>
+        <v>26000</v>
+      </c>
+      <c r="M219" s="77">
+        <v>20000</v>
+      </c>
+      <c r="N219" s="77" t="str">
+        <f t="shared" si="63"/>
+        <v/>
+      </c>
       <c r="O219" s="78"/>
     </row>
     <row r="220" spans="1:15" ht="18.75" customHeight="1">
@@ -10611,280 +11586,1152 @@
       <c r="C220" s="117"/>
       <c r="D220" s="82"/>
       <c r="E220" s="122"/>
-      <c r="G220" s="83"/>
-      <c r="H220" s="83"/>
+      <c r="G220" s="83">
+        <v>42716</v>
+      </c>
+      <c r="H220" s="83">
+        <v>42716</v>
+      </c>
       <c r="I220" s="75"/>
       <c r="J220" s="75"/>
-      <c r="K220" s="75"/>
+      <c r="K220" s="75">
+        <v>2000</v>
+      </c>
       <c r="L220" s="108">
-        <f t="shared" si="66"/>
-        <v>0</v>
-      </c>
-      <c r="M220" s="77"/>
-      <c r="N220" s="77"/>
+        <f t="shared" si="68"/>
+        <v>26000</v>
+      </c>
+      <c r="M220" s="77">
+        <v>20000</v>
+      </c>
+      <c r="N220" s="77" t="str">
+        <f t="shared" si="63"/>
+        <v/>
+      </c>
       <c r="O220" s="78"/>
     </row>
-    <row r="221" spans="1:15" ht="18.75" customHeight="1">
+    <row r="221" spans="1:15" ht="7.5" customHeight="1">
       <c r="A221" s="79"/>
       <c r="B221" s="80"/>
       <c r="C221" s="117"/>
       <c r="D221" s="82"/>
       <c r="E221" s="122"/>
-      <c r="G221" s="83"/>
-      <c r="H221" s="83"/>
-      <c r="I221" s="75"/>
-      <c r="J221" s="75"/>
-      <c r="K221" s="75"/>
-      <c r="L221" s="108">
-        <f t="shared" si="66"/>
-        <v>0</v>
-      </c>
-      <c r="M221" s="77"/>
-      <c r="N221" s="77"/>
-      <c r="O221" s="78"/>
+      <c r="G221" s="85"/>
+      <c r="H221" s="85"/>
+      <c r="I221" s="86"/>
+      <c r="J221" s="86"/>
+      <c r="K221" s="86"/>
+      <c r="L221" s="87"/>
+      <c r="M221" s="88"/>
+      <c r="N221" s="88"/>
     </row>
     <row r="222" spans="1:15" ht="18.75" customHeight="1">
-      <c r="A222" s="79"/>
-      <c r="B222" s="80"/>
-      <c r="C222" s="117"/>
-      <c r="D222" s="82"/>
-      <c r="E222" s="122"/>
-      <c r="G222" s="83"/>
-      <c r="H222" s="83"/>
-      <c r="I222" s="75"/>
-      <c r="J222" s="75"/>
-      <c r="K222" s="75"/>
-      <c r="L222" s="108">
-        <f t="shared" si="66"/>
-        <v>0</v>
-      </c>
-      <c r="M222" s="77"/>
-      <c r="N222" s="77"/>
-      <c r="O222" s="78"/>
-    </row>
-    <row r="223" spans="1:15" ht="18.75" customHeight="1">
-      <c r="A223" s="79"/>
-      <c r="B223" s="80"/>
-      <c r="C223" s="117"/>
-      <c r="D223" s="82"/>
-      <c r="E223" s="122"/>
-      <c r="G223" s="83"/>
-      <c r="H223" s="83"/>
-      <c r="I223" s="75"/>
-      <c r="J223" s="75"/>
-      <c r="K223" s="75"/>
-      <c r="L223" s="108">
-        <f t="shared" si="66"/>
-        <v>0</v>
-      </c>
-      <c r="M223" s="77"/>
-      <c r="N223" s="77"/>
-      <c r="O223" s="78"/>
-    </row>
-    <row r="224" spans="1:15" ht="18.75" customHeight="1">
-      <c r="A224" s="79"/>
-      <c r="B224" s="80"/>
-      <c r="C224" s="117"/>
-      <c r="D224" s="82"/>
-      <c r="E224" s="122"/>
-      <c r="G224" s="83"/>
-      <c r="H224" s="83"/>
-      <c r="I224" s="75"/>
-      <c r="J224" s="75"/>
-      <c r="K224" s="75"/>
-      <c r="L224" s="108">
-        <f t="shared" si="66"/>
-        <v>0</v>
-      </c>
-      <c r="M224" s="77"/>
-      <c r="N224" s="77"/>
-      <c r="O224" s="78"/>
-    </row>
-    <row r="225" spans="1:15" ht="18.75" customHeight="1">
-      <c r="A225" s="79"/>
-      <c r="B225" s="80"/>
-      <c r="C225" s="117"/>
-      <c r="D225" s="82"/>
-      <c r="E225" s="122"/>
-      <c r="G225" s="83"/>
-      <c r="H225" s="83"/>
-      <c r="I225" s="75"/>
-      <c r="J225" s="75"/>
-      <c r="K225" s="75"/>
-      <c r="L225" s="108">
-        <f t="shared" si="66"/>
-        <v>0</v>
-      </c>
-      <c r="M225" s="77"/>
-      <c r="N225" s="77"/>
-      <c r="O225" s="78"/>
-    </row>
-    <row r="226" spans="1:15" ht="18.75" customHeight="1">
-      <c r="A226" s="79"/>
-      <c r="B226" s="80"/>
-      <c r="C226" s="117"/>
-      <c r="D226" s="82"/>
-      <c r="E226" s="122"/>
-      <c r="G226" s="83"/>
-      <c r="H226" s="83"/>
-      <c r="I226" s="75"/>
-      <c r="J226" s="75"/>
-      <c r="K226" s="75"/>
-      <c r="L226" s="108">
-        <f t="shared" ref="L226" si="68">K226*13</f>
-        <v>0</v>
-      </c>
-      <c r="M226" s="77"/>
-      <c r="N226" s="77"/>
-      <c r="O226" s="78"/>
-    </row>
-    <row r="227" spans="1:15" ht="18.75" customHeight="1">
-      <c r="A227" s="79"/>
-      <c r="B227" s="80"/>
-      <c r="C227" s="117"/>
-      <c r="D227" s="82"/>
-      <c r="E227" s="122"/>
-      <c r="G227" s="85"/>
-      <c r="H227" s="85"/>
-      <c r="I227" s="86"/>
-      <c r="J227" s="86"/>
-      <c r="K227" s="86"/>
-      <c r="L227" s="87"/>
-      <c r="M227" s="88"/>
-      <c r="N227" s="88"/>
-      <c r="O227" s="78"/>
-    </row>
-    <row r="228" spans="1:15" ht="18.75" customHeight="1">
-      <c r="A228" s="79"/>
-      <c r="B228" s="80"/>
+      <c r="A222" s="89"/>
+      <c r="B222" s="89" t="s">
+        <v>53</v>
+      </c>
+      <c r="C222" s="118"/>
+      <c r="D222" s="91"/>
+      <c r="E222" s="93">
+        <f>SUM(E208:E221)</f>
+        <v>676708340</v>
+      </c>
+      <c r="F222" s="23"/>
+      <c r="G222" s="92"/>
+      <c r="H222" s="92"/>
+      <c r="I222" s="92" t="s">
+        <v>53</v>
+      </c>
+      <c r="J222" s="92"/>
+      <c r="K222" s="109">
+        <f>SUM(K208:K221)</f>
+        <v>14135</v>
+      </c>
+      <c r="L222" s="109">
+        <f>SUM(L208:L221)</f>
+        <v>183755</v>
+      </c>
+      <c r="M222" s="109"/>
+      <c r="N222" s="93">
+        <f>SUM(N208:N221)</f>
+        <v>10369840</v>
+      </c>
+    </row>
+    <row r="223" spans="1:15" ht="7.5" customHeight="1"/>
+    <row r="224" spans="1:15" s="22" customFormat="1">
+      <c r="A224" s="24"/>
+      <c r="B224" s="24"/>
+      <c r="C224" s="119"/>
+      <c r="D224" s="26" t="s">
+        <v>54</v>
+      </c>
+      <c r="E224" s="123">
+        <f>E222/C208</f>
+        <v>1850.1683914095502</v>
+      </c>
+      <c r="F224" s="24"/>
+    </row>
+    <row r="226" spans="1:9" ht="31.5" customHeight="1">
+      <c r="A226" s="92" t="s">
+        <v>1</v>
+      </c>
+      <c r="B226" s="173" t="s">
+        <v>26</v>
+      </c>
+      <c r="C226" s="126" t="s">
+        <v>55</v>
+      </c>
+      <c r="D226" s="127" t="s">
+        <v>56</v>
+      </c>
+      <c r="E226" s="127" t="s">
+        <v>12</v>
+      </c>
+      <c r="F226" s="229" t="s">
+        <v>122</v>
+      </c>
+      <c r="G226" s="230"/>
+      <c r="H226" s="231"/>
+      <c r="I226" s="127" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="227" spans="1:9">
+      <c r="A227" s="79">
+        <v>1</v>
+      </c>
+      <c r="B227" s="80" t="s">
+        <v>230</v>
+      </c>
+      <c r="C227" s="117">
+        <v>291188</v>
+      </c>
+      <c r="D227" s="82">
+        <v>22620</v>
+      </c>
+      <c r="E227" s="82">
+        <f>C227*D227</f>
+        <v>6586672560</v>
+      </c>
+      <c r="F227" s="220"/>
+      <c r="G227" s="221"/>
+      <c r="H227" s="222"/>
+      <c r="I227" s="82"/>
+    </row>
+    <row r="228" spans="1:9">
+      <c r="A228" s="79">
+        <v>2</v>
+      </c>
+      <c r="B228" s="80" t="s">
+        <v>128</v>
+      </c>
       <c r="C228" s="117"/>
       <c r="D228" s="82"/>
-      <c r="E228" s="122"/>
-      <c r="G228" s="92"/>
-      <c r="H228" s="92"/>
-      <c r="I228" s="92" t="s">
-        <v>53</v>
-      </c>
-      <c r="J228" s="92"/>
-      <c r="K228" s="109">
-        <f>SUM(K208:K227)</f>
-        <v>5448</v>
-      </c>
-      <c r="L228" s="109">
-        <f>SUM(L208:L227)</f>
-        <v>70824</v>
-      </c>
-      <c r="M228" s="109"/>
-      <c r="N228" s="93">
-        <f>SUM(N208:N227)</f>
-        <v>0</v>
-      </c>
-      <c r="O228" s="78"/>
-    </row>
-    <row r="229" spans="1:15" ht="18.75" customHeight="1">
-      <c r="A229" s="79"/>
-      <c r="B229" s="80"/>
+      <c r="E228" s="82"/>
+      <c r="F228" s="220">
+        <f>1825573*2</f>
+        <v>3651146</v>
+      </c>
+      <c r="G228" s="221"/>
+      <c r="H228" s="222"/>
+      <c r="I228" s="82"/>
+    </row>
+    <row r="229" spans="1:9">
+      <c r="A229" s="79">
+        <v>3</v>
+      </c>
+      <c r="B229" s="80" t="s">
+        <v>231</v>
+      </c>
       <c r="C229" s="117"/>
       <c r="D229" s="82"/>
-      <c r="E229" s="122"/>
-      <c r="O229" s="78"/>
-    </row>
-    <row r="230" spans="1:15" ht="18.75" customHeight="1">
-      <c r="A230" s="79"/>
-      <c r="B230" s="80"/>
-      <c r="C230" s="117"/>
+      <c r="E229" s="82"/>
+      <c r="F229" s="170"/>
+      <c r="G229" s="171"/>
+      <c r="H229" s="172"/>
+      <c r="I229" s="82">
+        <f>E222</f>
+        <v>676708340</v>
+      </c>
+    </row>
+    <row r="230" spans="1:9">
+      <c r="A230" s="79">
+        <v>4</v>
+      </c>
+      <c r="B230" s="80" t="s">
+        <v>147</v>
+      </c>
+      <c r="C230" s="82"/>
       <c r="D230" s="82"/>
-      <c r="E230" s="122"/>
-      <c r="O230" s="78"/>
-    </row>
-    <row r="231" spans="1:15" ht="7.5" customHeight="1">
-      <c r="A231" s="79"/>
-      <c r="B231" s="80"/>
-      <c r="C231" s="117"/>
+      <c r="E230" s="82">
+        <f t="shared" ref="E230:E231" si="69">C230*D230</f>
+        <v>0</v>
+      </c>
+      <c r="F230" s="220">
+        <f>ROUND(I230*0.033%,0)</f>
+        <v>476190</v>
+      </c>
+      <c r="G230" s="221"/>
+      <c r="H230" s="222"/>
+      <c r="I230" s="82">
+        <v>1443000000</v>
+      </c>
+    </row>
+    <row r="231" spans="1:9">
+      <c r="A231" s="79">
+        <v>5</v>
+      </c>
+      <c r="B231" s="147" t="s">
+        <v>157</v>
+      </c>
+      <c r="C231" s="81"/>
       <c r="D231" s="82"/>
-      <c r="E231" s="122"/>
-    </row>
-    <row r="232" spans="1:15" ht="18.75" customHeight="1">
-      <c r="A232" s="89"/>
-      <c r="B232" s="89" t="s">
+      <c r="E231" s="82">
+        <f t="shared" si="69"/>
+        <v>0</v>
+      </c>
+      <c r="F231" s="220">
+        <f>ROUND(I231*0.033%,0)</f>
+        <v>321557</v>
+      </c>
+      <c r="G231" s="221"/>
+      <c r="H231" s="222"/>
+      <c r="I231" s="82">
+        <v>974415000</v>
+      </c>
+    </row>
+    <row r="232" spans="1:9">
+      <c r="A232" s="79">
+        <v>6</v>
+      </c>
+      <c r="B232" s="147" t="s">
+        <v>154</v>
+      </c>
+      <c r="C232" s="81"/>
+      <c r="D232" s="82"/>
+      <c r="E232" s="82"/>
+      <c r="F232" s="220">
+        <f>ROUND(I232*0.033%,0)</f>
+        <v>155513</v>
+      </c>
+      <c r="G232" s="221"/>
+      <c r="H232" s="222"/>
+      <c r="I232" s="82">
+        <v>471250000</v>
+      </c>
+    </row>
+    <row r="233" spans="1:9">
+      <c r="A233" s="79">
+        <v>6</v>
+      </c>
+      <c r="B233" s="147" t="s">
+        <v>232</v>
+      </c>
+      <c r="C233" s="81"/>
+      <c r="D233" s="82"/>
+      <c r="E233" s="82"/>
+      <c r="F233" s="220">
+        <f>ROUND(I233*0.033%,0)</f>
+        <v>97190</v>
+      </c>
+      <c r="G233" s="221"/>
+      <c r="H233" s="222"/>
+      <c r="I233" s="82">
+        <v>294515000</v>
+      </c>
+    </row>
+    <row r="234" spans="1:9">
+      <c r="A234" s="79">
+        <v>7</v>
+      </c>
+      <c r="B234" s="80" t="s">
+        <v>61</v>
+      </c>
+      <c r="C234" s="81"/>
+      <c r="D234" s="82"/>
+      <c r="E234" s="82">
+        <f>C234*D234</f>
+        <v>0</v>
+      </c>
+      <c r="F234" s="220">
+        <f>ROUND(I234*0.033%,0)</f>
+        <v>897991</v>
+      </c>
+      <c r="G234" s="221"/>
+      <c r="H234" s="222"/>
+      <c r="I234" s="82">
+        <v>2721185000</v>
+      </c>
+    </row>
+    <row r="235" spans="1:9" ht="6" customHeight="1">
+      <c r="A235" s="133"/>
+      <c r="B235" s="136"/>
+      <c r="C235" s="137"/>
+      <c r="D235" s="134"/>
+      <c r="E235" s="134"/>
+      <c r="F235" s="223"/>
+      <c r="G235" s="224"/>
+      <c r="H235" s="225"/>
+      <c r="I235" s="134"/>
+    </row>
+    <row r="236" spans="1:9">
+      <c r="A236" s="89"/>
+      <c r="B236" s="89" t="s">
+        <v>62</v>
+      </c>
+      <c r="C236" s="90"/>
+      <c r="D236" s="91"/>
+      <c r="E236" s="91">
+        <f>SUM(E227:E235)</f>
+        <v>6586672560</v>
+      </c>
+      <c r="F236" s="226">
+        <f>SUM(F227:H235)</f>
+        <v>5599587</v>
+      </c>
+      <c r="G236" s="227"/>
+      <c r="H236" s="228"/>
+      <c r="I236" s="91">
+        <f>SUM(I227:I235)</f>
+        <v>6581073340</v>
+      </c>
+    </row>
+    <row r="237" spans="1:9">
+      <c r="A237" s="130"/>
+      <c r="B237" s="130"/>
+      <c r="C237" s="131"/>
+      <c r="D237" s="132"/>
+      <c r="E237" s="132"/>
+      <c r="F237" s="196"/>
+      <c r="G237" s="196"/>
+      <c r="H237" s="196"/>
+      <c r="I237" s="132"/>
+    </row>
+    <row r="238" spans="1:9">
+      <c r="A238" s="130"/>
+      <c r="B238" s="130"/>
+      <c r="C238" s="131"/>
+      <c r="D238" s="132"/>
+      <c r="E238" s="132"/>
+      <c r="F238" s="196"/>
+      <c r="G238" s="196"/>
+      <c r="H238" s="196"/>
+      <c r="I238" s="132"/>
+    </row>
+    <row r="239" spans="1:9">
+      <c r="A239" s="130"/>
+      <c r="B239" s="130"/>
+      <c r="C239" s="131"/>
+      <c r="D239" s="132"/>
+      <c r="E239" s="132"/>
+      <c r="F239" s="196"/>
+      <c r="G239" s="196"/>
+      <c r="H239" s="196"/>
+      <c r="I239" s="132"/>
+    </row>
+    <row r="240" spans="1:9">
+      <c r="A240" s="130"/>
+      <c r="B240" s="130"/>
+      <c r="C240" s="131"/>
+      <c r="D240" s="132"/>
+      <c r="E240" s="132"/>
+      <c r="F240" s="196"/>
+      <c r="G240" s="196"/>
+      <c r="H240" s="196"/>
+      <c r="I240" s="132"/>
+    </row>
+    <row r="241" spans="1:15">
+      <c r="A241" s="130"/>
+      <c r="B241" s="130"/>
+      <c r="C241" s="131"/>
+      <c r="D241" s="132"/>
+      <c r="E241" s="132"/>
+      <c r="F241" s="196"/>
+      <c r="G241" s="196"/>
+      <c r="H241" s="196"/>
+      <c r="I241" s="132"/>
+    </row>
+    <row r="242" spans="1:15">
+      <c r="A242" s="130"/>
+      <c r="B242" s="130"/>
+      <c r="C242" s="131"/>
+      <c r="D242" s="132"/>
+      <c r="E242" s="132"/>
+      <c r="F242" s="196"/>
+      <c r="G242" s="196"/>
+      <c r="H242" s="196"/>
+      <c r="I242" s="132"/>
+    </row>
+    <row r="243" spans="1:15" ht="43.5" customHeight="1">
+      <c r="A243" s="219" t="s">
+        <v>203</v>
+      </c>
+      <c r="B243" s="219"/>
+      <c r="C243" s="219"/>
+      <c r="D243" s="219"/>
+      <c r="E243" s="219"/>
+      <c r="F243" s="107"/>
+      <c r="G243" s="21"/>
+      <c r="H243" s="21"/>
+    </row>
+    <row r="244" spans="1:15" s="44" customFormat="1" ht="17.25" customHeight="1">
+      <c r="B244" s="59"/>
+      <c r="C244" s="114"/>
+      <c r="D244" s="106"/>
+      <c r="E244" s="120"/>
+      <c r="F244" s="63"/>
+      <c r="G244" s="64" t="s">
+        <v>34</v>
+      </c>
+      <c r="I244" s="111"/>
+    </row>
+    <row r="245" spans="1:15" s="104" customFormat="1" ht="36.75" customHeight="1">
+      <c r="A245" s="102" t="s">
+        <v>1</v>
+      </c>
+      <c r="B245" s="102" t="s">
+        <v>26</v>
+      </c>
+      <c r="C245" s="115" t="s">
+        <v>10</v>
+      </c>
+      <c r="D245" s="103" t="s">
+        <v>11</v>
+      </c>
+      <c r="E245" s="68" t="s">
+        <v>12</v>
+      </c>
+      <c r="G245" s="66" t="s">
+        <v>35</v>
+      </c>
+      <c r="H245" s="66" t="s">
+        <v>36</v>
+      </c>
+      <c r="I245" s="66" t="s">
+        <v>108</v>
+      </c>
+      <c r="J245" s="66" t="s">
+        <v>37</v>
+      </c>
+      <c r="K245" s="66" t="s">
+        <v>88</v>
+      </c>
+      <c r="L245" s="65" t="s">
+        <v>38</v>
+      </c>
+      <c r="M245" s="68" t="s">
+        <v>111</v>
+      </c>
+      <c r="N245" s="68" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="246" spans="1:15" ht="18.75" customHeight="1">
+      <c r="A246" s="79">
+        <f>ROW()-207</f>
+        <v>39</v>
+      </c>
+      <c r="B246" s="70" t="s">
+        <v>40</v>
+      </c>
+      <c r="C246" s="116">
+        <v>365755</v>
+      </c>
+      <c r="D246" s="72">
+        <v>300</v>
+      </c>
+      <c r="E246" s="121">
+        <f t="shared" ref="E246:E249" si="70">C246*D246</f>
+        <v>109726500</v>
+      </c>
+      <c r="G246" s="83">
+        <v>42703</v>
+      </c>
+      <c r="H246" s="83"/>
+      <c r="I246" s="75" t="s">
+        <v>191</v>
+      </c>
+      <c r="J246" s="75"/>
+      <c r="K246" s="75">
+        <v>161</v>
+      </c>
+      <c r="L246" s="108">
+        <f t="shared" ref="L246:L268" si="71">K246*13</f>
+        <v>2093</v>
+      </c>
+      <c r="M246" s="77"/>
+      <c r="N246" s="77"/>
+      <c r="O246" s="78"/>
+    </row>
+    <row r="247" spans="1:15" ht="18.75" customHeight="1">
+      <c r="A247" s="79">
+        <f t="shared" ref="A247:A268" si="72">ROW()-207</f>
+        <v>40</v>
+      </c>
+      <c r="B247" s="80" t="s">
+        <v>42</v>
+      </c>
+      <c r="C247" s="117">
+        <v>14</v>
+      </c>
+      <c r="D247" s="82">
+        <v>2000000</v>
+      </c>
+      <c r="E247" s="122">
+        <f t="shared" si="70"/>
+        <v>28000000</v>
+      </c>
+      <c r="G247" s="83">
+        <v>42703</v>
+      </c>
+      <c r="H247" s="83"/>
+      <c r="I247" s="75" t="s">
+        <v>95</v>
+      </c>
+      <c r="J247" s="75"/>
+      <c r="K247" s="75">
+        <v>550</v>
+      </c>
+      <c r="L247" s="108">
+        <f t="shared" si="71"/>
+        <v>7150</v>
+      </c>
+      <c r="M247" s="77"/>
+      <c r="N247" s="77"/>
+      <c r="O247" s="78"/>
+    </row>
+    <row r="248" spans="1:15" ht="18.75" customHeight="1">
+      <c r="A248" s="79">
+        <f t="shared" si="72"/>
+        <v>41</v>
+      </c>
+      <c r="B248" s="80" t="s">
+        <v>43</v>
+      </c>
+      <c r="C248" s="117">
+        <v>14</v>
+      </c>
+      <c r="D248" s="82">
+        <v>2000000</v>
+      </c>
+      <c r="E248" s="122">
+        <f t="shared" si="70"/>
+        <v>28000000</v>
+      </c>
+      <c r="G248" s="83">
+        <v>42703</v>
+      </c>
+      <c r="H248" s="83"/>
+      <c r="I248" s="75" t="s">
+        <v>131</v>
+      </c>
+      <c r="J248" s="75"/>
+      <c r="K248" s="75">
+        <v>683</v>
+      </c>
+      <c r="L248" s="108">
+        <f t="shared" si="71"/>
+        <v>8879</v>
+      </c>
+      <c r="M248" s="77"/>
+      <c r="N248" s="77"/>
+      <c r="O248" s="78"/>
+    </row>
+    <row r="249" spans="1:15" ht="18.75" customHeight="1">
+      <c r="A249" s="79">
+        <f t="shared" si="72"/>
+        <v>42</v>
+      </c>
+      <c r="B249" s="80" t="s">
+        <v>44</v>
+      </c>
+      <c r="C249" s="117">
+        <v>14</v>
+      </c>
+      <c r="D249" s="82">
+        <v>600000</v>
+      </c>
+      <c r="E249" s="122">
+        <f t="shared" si="70"/>
+        <v>8400000</v>
+      </c>
+      <c r="G249" s="83">
+        <v>42710</v>
+      </c>
+      <c r="H249" s="83"/>
+      <c r="I249" s="75" t="s">
+        <v>204</v>
+      </c>
+      <c r="J249" s="75"/>
+      <c r="K249" s="75">
+        <v>2</v>
+      </c>
+      <c r="L249" s="108">
+        <f t="shared" si="71"/>
+        <v>26</v>
+      </c>
+      <c r="M249" s="77"/>
+      <c r="N249" s="77"/>
+      <c r="O249" s="78"/>
+    </row>
+    <row r="250" spans="1:15" ht="18.75" customHeight="1">
+      <c r="A250" s="79">
+        <f t="shared" si="72"/>
+        <v>43</v>
+      </c>
+      <c r="B250" s="80" t="s">
+        <v>80</v>
+      </c>
+      <c r="C250" s="117">
+        <v>14</v>
+      </c>
+      <c r="D250" s="82">
+        <v>16725000</v>
+      </c>
+      <c r="E250" s="122">
+        <f>C250*D250</f>
+        <v>234150000</v>
+      </c>
+      <c r="G250" s="83">
+        <v>42711</v>
+      </c>
+      <c r="H250" s="83"/>
+      <c r="I250" s="75" t="s">
+        <v>208</v>
+      </c>
+      <c r="J250" s="75"/>
+      <c r="K250" s="75">
+        <v>322</v>
+      </c>
+      <c r="L250" s="108">
+        <f t="shared" si="71"/>
+        <v>4186</v>
+      </c>
+      <c r="M250" s="77"/>
+      <c r="N250" s="77"/>
+      <c r="O250" s="78"/>
+    </row>
+    <row r="251" spans="1:15" ht="18.75" customHeight="1">
+      <c r="A251" s="79">
+        <f t="shared" si="72"/>
+        <v>44</v>
+      </c>
+      <c r="B251" s="80" t="s">
+        <v>46</v>
+      </c>
+      <c r="C251" s="117">
+        <v>14</v>
+      </c>
+      <c r="D251" s="82">
+        <v>7378778</v>
+      </c>
+      <c r="E251" s="122">
+        <f t="shared" ref="E251:E253" si="73">C251*D251</f>
+        <v>103302892</v>
+      </c>
+      <c r="G251" s="83"/>
+      <c r="H251" s="83"/>
+      <c r="I251" s="75"/>
+      <c r="J251" s="75"/>
+      <c r="K251" s="75"/>
+      <c r="L251" s="108">
+        <f t="shared" si="71"/>
+        <v>0</v>
+      </c>
+      <c r="M251" s="77"/>
+      <c r="N251" s="77"/>
+      <c r="O251" s="78"/>
+    </row>
+    <row r="252" spans="1:15" ht="18.75" customHeight="1">
+      <c r="A252" s="79">
+        <f t="shared" si="72"/>
+        <v>45</v>
+      </c>
+      <c r="B252" s="80" t="s">
+        <v>47</v>
+      </c>
+      <c r="C252" s="117">
+        <v>14</v>
+      </c>
+      <c r="D252" s="82">
+        <v>5600000</v>
+      </c>
+      <c r="E252" s="122">
+        <f t="shared" si="73"/>
+        <v>78400000</v>
+      </c>
+      <c r="G252" s="83"/>
+      <c r="H252" s="83"/>
+      <c r="I252" s="75"/>
+      <c r="J252" s="75"/>
+      <c r="K252" s="75"/>
+      <c r="L252" s="108">
+        <f t="shared" si="71"/>
+        <v>0</v>
+      </c>
+      <c r="M252" s="77"/>
+      <c r="N252" s="77"/>
+      <c r="O252" s="78"/>
+    </row>
+    <row r="253" spans="1:15" ht="18.75" customHeight="1">
+      <c r="A253" s="79">
+        <f t="shared" si="72"/>
+        <v>46</v>
+      </c>
+      <c r="B253" s="80" t="s">
+        <v>48</v>
+      </c>
+      <c r="C253" s="117">
+        <v>14</v>
+      </c>
+      <c r="D253" s="82">
+        <f>88*22500</f>
+        <v>1980000</v>
+      </c>
+      <c r="E253" s="122">
+        <f t="shared" si="73"/>
+        <v>27720000</v>
+      </c>
+      <c r="G253" s="83"/>
+      <c r="H253" s="83"/>
+      <c r="I253" s="75"/>
+      <c r="J253" s="75"/>
+      <c r="K253" s="75"/>
+      <c r="L253" s="108">
+        <f t="shared" si="71"/>
+        <v>0</v>
+      </c>
+      <c r="M253" s="77"/>
+      <c r="N253" s="77"/>
+      <c r="O253" s="78"/>
+    </row>
+    <row r="254" spans="1:15" ht="18.75" customHeight="1">
+      <c r="A254" s="79">
+        <f t="shared" si="72"/>
+        <v>47</v>
+      </c>
+      <c r="B254" s="80" t="s">
+        <v>49</v>
+      </c>
+      <c r="C254" s="117">
+        <v>14</v>
+      </c>
+      <c r="D254" s="82">
+        <v>1350000</v>
+      </c>
+      <c r="E254" s="122">
+        <f>C254*D254</f>
+        <v>18900000</v>
+      </c>
+      <c r="G254" s="83"/>
+      <c r="H254" s="83"/>
+      <c r="I254" s="75"/>
+      <c r="J254" s="75"/>
+      <c r="K254" s="75"/>
+      <c r="L254" s="108">
+        <f t="shared" si="71"/>
+        <v>0</v>
+      </c>
+      <c r="M254" s="77"/>
+      <c r="N254" s="77"/>
+      <c r="O254" s="78"/>
+    </row>
+    <row r="255" spans="1:15" ht="18.75" customHeight="1">
+      <c r="A255" s="79">
+        <f t="shared" si="72"/>
+        <v>48</v>
+      </c>
+      <c r="B255" s="80" t="s">
+        <v>84</v>
+      </c>
+      <c r="C255" s="117">
+        <v>7</v>
+      </c>
+      <c r="D255" s="82">
+        <v>2500000</v>
+      </c>
+      <c r="E255" s="122">
+        <f t="shared" ref="E255" si="74">C255*D255</f>
+        <v>17500000</v>
+      </c>
+      <c r="G255" s="83"/>
+      <c r="H255" s="83"/>
+      <c r="I255" s="75"/>
+      <c r="J255" s="75"/>
+      <c r="K255" s="75"/>
+      <c r="L255" s="108">
+        <f t="shared" si="71"/>
+        <v>0</v>
+      </c>
+      <c r="M255" s="77"/>
+      <c r="N255" s="77"/>
+      <c r="O255" s="78"/>
+    </row>
+    <row r="256" spans="1:15" ht="18.75" customHeight="1">
+      <c r="A256" s="79">
+        <f t="shared" si="72"/>
+        <v>49</v>
+      </c>
+      <c r="B256" s="80" t="s">
+        <v>50</v>
+      </c>
+      <c r="C256" s="117">
+        <v>184</v>
+      </c>
+      <c r="D256" s="82">
+        <v>50000</v>
+      </c>
+      <c r="E256" s="122">
+        <f>C256*D256</f>
+        <v>9200000</v>
+      </c>
+      <c r="G256" s="83"/>
+      <c r="H256" s="83"/>
+      <c r="I256" s="75"/>
+      <c r="J256" s="75"/>
+      <c r="K256" s="75"/>
+      <c r="L256" s="108">
+        <f t="shared" si="71"/>
+        <v>0</v>
+      </c>
+      <c r="M256" s="77"/>
+      <c r="N256" s="77"/>
+      <c r="O256" s="78"/>
+    </row>
+    <row r="257" spans="1:15" ht="18.75" customHeight="1">
+      <c r="A257" s="79">
+        <f t="shared" si="72"/>
+        <v>50</v>
+      </c>
+      <c r="B257" s="80" t="s">
+        <v>51</v>
+      </c>
+      <c r="C257" s="117"/>
+      <c r="D257" s="82"/>
+      <c r="E257" s="122">
+        <f>N270</f>
+        <v>0</v>
+      </c>
+      <c r="G257" s="83"/>
+      <c r="H257" s="83"/>
+      <c r="I257" s="75"/>
+      <c r="J257" s="75"/>
+      <c r="K257" s="75"/>
+      <c r="L257" s="108">
+        <f t="shared" ref="L257:L261" si="75">K257*13</f>
+        <v>0</v>
+      </c>
+      <c r="M257" s="77"/>
+      <c r="N257" s="77"/>
+      <c r="O257" s="78"/>
+    </row>
+    <row r="258" spans="1:15" ht="18.75" customHeight="1">
+      <c r="A258" s="79">
+        <f t="shared" si="72"/>
+        <v>51</v>
+      </c>
+      <c r="B258" s="80"/>
+      <c r="C258" s="117"/>
+      <c r="D258" s="82"/>
+      <c r="E258" s="122"/>
+      <c r="G258" s="83"/>
+      <c r="H258" s="83"/>
+      <c r="I258" s="75"/>
+      <c r="J258" s="75"/>
+      <c r="K258" s="75"/>
+      <c r="L258" s="108">
+        <f t="shared" si="75"/>
+        <v>0</v>
+      </c>
+      <c r="M258" s="77"/>
+      <c r="N258" s="77"/>
+      <c r="O258" s="78"/>
+    </row>
+    <row r="259" spans="1:15" ht="18.75" customHeight="1">
+      <c r="A259" s="79">
+        <f t="shared" si="72"/>
+        <v>52</v>
+      </c>
+      <c r="B259" s="80"/>
+      <c r="C259" s="117"/>
+      <c r="D259" s="82"/>
+      <c r="E259" s="122"/>
+      <c r="G259" s="83"/>
+      <c r="H259" s="83"/>
+      <c r="I259" s="75"/>
+      <c r="J259" s="75"/>
+      <c r="K259" s="75"/>
+      <c r="L259" s="108">
+        <f t="shared" si="75"/>
+        <v>0</v>
+      </c>
+      <c r="M259" s="77"/>
+      <c r="N259" s="77"/>
+      <c r="O259" s="78"/>
+    </row>
+    <row r="260" spans="1:15" ht="18.75" customHeight="1">
+      <c r="A260" s="79">
+        <f t="shared" si="72"/>
         <v>53</v>
       </c>
-      <c r="C232" s="118"/>
-      <c r="D232" s="91"/>
-      <c r="E232" s="93">
-        <f>SUM(E208:E231)</f>
-        <v>196935112</v>
-      </c>
-      <c r="F232" s="23"/>
-    </row>
-    <row r="233" spans="1:15" ht="7.5" customHeight="1"/>
-    <row r="234" spans="1:15" s="22" customFormat="1">
-      <c r="A234" s="24"/>
-      <c r="B234" s="24"/>
-      <c r="C234" s="119"/>
-      <c r="D234" s="26" t="s">
+      <c r="B260" s="80"/>
+      <c r="C260" s="117"/>
+      <c r="D260" s="82"/>
+      <c r="E260" s="122"/>
+      <c r="G260" s="83"/>
+      <c r="H260" s="83"/>
+      <c r="I260" s="75"/>
+      <c r="J260" s="75"/>
+      <c r="K260" s="75"/>
+      <c r="L260" s="108">
+        <f t="shared" si="75"/>
+        <v>0</v>
+      </c>
+      <c r="M260" s="77"/>
+      <c r="N260" s="77"/>
+      <c r="O260" s="78"/>
+    </row>
+    <row r="261" spans="1:15" ht="18.75" customHeight="1">
+      <c r="A261" s="79">
+        <f t="shared" si="72"/>
         <v>54</v>
       </c>
-      <c r="E234" s="123">
-        <f>E232/C208</f>
-        <v>1893.6068461538462</v>
-      </c>
-      <c r="F234" s="24"/>
+      <c r="B261" s="80"/>
+      <c r="C261" s="117"/>
+      <c r="D261" s="82"/>
+      <c r="E261" s="122"/>
+      <c r="G261" s="83"/>
+      <c r="H261" s="83"/>
+      <c r="I261" s="75"/>
+      <c r="J261" s="75"/>
+      <c r="K261" s="75"/>
+      <c r="L261" s="108">
+        <f t="shared" si="75"/>
+        <v>0</v>
+      </c>
+      <c r="M261" s="77"/>
+      <c r="N261" s="77"/>
+      <c r="O261" s="78"/>
+    </row>
+    <row r="262" spans="1:15" ht="18.75" customHeight="1">
+      <c r="A262" s="79">
+        <f t="shared" si="72"/>
+        <v>55</v>
+      </c>
+      <c r="B262" s="80"/>
+      <c r="C262" s="117"/>
+      <c r="D262" s="82"/>
+      <c r="E262" s="122"/>
+      <c r="G262" s="83"/>
+      <c r="H262" s="83"/>
+      <c r="I262" s="75"/>
+      <c r="J262" s="75"/>
+      <c r="K262" s="75"/>
+      <c r="L262" s="108">
+        <f t="shared" si="71"/>
+        <v>0</v>
+      </c>
+      <c r="M262" s="77"/>
+      <c r="N262" s="77"/>
+      <c r="O262" s="78"/>
+    </row>
+    <row r="263" spans="1:15" ht="18.75" customHeight="1">
+      <c r="A263" s="79">
+        <f t="shared" si="72"/>
+        <v>56</v>
+      </c>
+      <c r="B263" s="80"/>
+      <c r="C263" s="117"/>
+      <c r="D263" s="82"/>
+      <c r="E263" s="122"/>
+      <c r="G263" s="83"/>
+      <c r="H263" s="83"/>
+      <c r="I263" s="75"/>
+      <c r="J263" s="75"/>
+      <c r="K263" s="75"/>
+      <c r="L263" s="108">
+        <f t="shared" si="71"/>
+        <v>0</v>
+      </c>
+      <c r="M263" s="77"/>
+      <c r="N263" s="77"/>
+      <c r="O263" s="78"/>
+    </row>
+    <row r="264" spans="1:15" ht="18.75" customHeight="1">
+      <c r="A264" s="79">
+        <f t="shared" si="72"/>
+        <v>57</v>
+      </c>
+      <c r="B264" s="80"/>
+      <c r="C264" s="117"/>
+      <c r="D264" s="82"/>
+      <c r="E264" s="122"/>
+      <c r="G264" s="83"/>
+      <c r="H264" s="83"/>
+      <c r="I264" s="75"/>
+      <c r="J264" s="75"/>
+      <c r="K264" s="75"/>
+      <c r="L264" s="108">
+        <f t="shared" si="71"/>
+        <v>0</v>
+      </c>
+      <c r="M264" s="77"/>
+      <c r="N264" s="77"/>
+      <c r="O264" s="78"/>
+    </row>
+    <row r="265" spans="1:15" ht="18.75" customHeight="1">
+      <c r="A265" s="79">
+        <f t="shared" si="72"/>
+        <v>58</v>
+      </c>
+      <c r="B265" s="80"/>
+      <c r="C265" s="117"/>
+      <c r="D265" s="82"/>
+      <c r="E265" s="122"/>
+      <c r="G265" s="83"/>
+      <c r="H265" s="83"/>
+      <c r="I265" s="75"/>
+      <c r="J265" s="75"/>
+      <c r="K265" s="75"/>
+      <c r="L265" s="108">
+        <f t="shared" si="71"/>
+        <v>0</v>
+      </c>
+      <c r="M265" s="77"/>
+      <c r="N265" s="77"/>
+      <c r="O265" s="78"/>
+    </row>
+    <row r="266" spans="1:15" ht="18.75" customHeight="1">
+      <c r="A266" s="79">
+        <f t="shared" si="72"/>
+        <v>59</v>
+      </c>
+      <c r="B266" s="80"/>
+      <c r="C266" s="117"/>
+      <c r="D266" s="82"/>
+      <c r="E266" s="122"/>
+      <c r="G266" s="83"/>
+      <c r="H266" s="83"/>
+      <c r="I266" s="75"/>
+      <c r="J266" s="75"/>
+      <c r="K266" s="75"/>
+      <c r="L266" s="108">
+        <f t="shared" si="71"/>
+        <v>0</v>
+      </c>
+      <c r="M266" s="77"/>
+      <c r="N266" s="77"/>
+      <c r="O266" s="78"/>
+    </row>
+    <row r="267" spans="1:15" ht="18.75" customHeight="1">
+      <c r="A267" s="79">
+        <f t="shared" si="72"/>
+        <v>60</v>
+      </c>
+      <c r="B267" s="80"/>
+      <c r="C267" s="117"/>
+      <c r="D267" s="82"/>
+      <c r="E267" s="122"/>
+      <c r="G267" s="83"/>
+      <c r="H267" s="83"/>
+      <c r="I267" s="75"/>
+      <c r="J267" s="75"/>
+      <c r="K267" s="75"/>
+      <c r="L267" s="108">
+        <f t="shared" si="71"/>
+        <v>0</v>
+      </c>
+      <c r="M267" s="77"/>
+      <c r="N267" s="77"/>
+      <c r="O267" s="78"/>
+    </row>
+    <row r="268" spans="1:15" ht="18.75" customHeight="1">
+      <c r="A268" s="79">
+        <f t="shared" si="72"/>
+        <v>61</v>
+      </c>
+      <c r="B268" s="80"/>
+      <c r="C268" s="117"/>
+      <c r="D268" s="82"/>
+      <c r="E268" s="122"/>
+      <c r="G268" s="83"/>
+      <c r="H268" s="83"/>
+      <c r="I268" s="75"/>
+      <c r="J268" s="75"/>
+      <c r="K268" s="75"/>
+      <c r="L268" s="108">
+        <f t="shared" si="71"/>
+        <v>0</v>
+      </c>
+      <c r="M268" s="77"/>
+      <c r="N268" s="77"/>
+      <c r="O268" s="78"/>
+    </row>
+    <row r="269" spans="1:15" ht="7.5" customHeight="1">
+      <c r="A269" s="79"/>
+      <c r="B269" s="80"/>
+      <c r="C269" s="117"/>
+      <c r="D269" s="82"/>
+      <c r="E269" s="122"/>
+      <c r="G269" s="85"/>
+      <c r="H269" s="85"/>
+      <c r="I269" s="86"/>
+      <c r="J269" s="86"/>
+      <c r="K269" s="86"/>
+      <c r="L269" s="87"/>
+      <c r="M269" s="88"/>
+      <c r="N269" s="88"/>
+    </row>
+    <row r="270" spans="1:15" ht="18.75" customHeight="1">
+      <c r="A270" s="89"/>
+      <c r="B270" s="89" t="s">
+        <v>53</v>
+      </c>
+      <c r="C270" s="118"/>
+      <c r="D270" s="91"/>
+      <c r="E270" s="93">
+        <f>SUM(E246:E269)</f>
+        <v>663299392</v>
+      </c>
+      <c r="F270" s="23"/>
+      <c r="G270" s="92"/>
+      <c r="H270" s="92"/>
+      <c r="I270" s="92" t="s">
+        <v>53</v>
+      </c>
+      <c r="J270" s="92"/>
+      <c r="K270" s="109">
+        <f>SUM(K246:K269)</f>
+        <v>1718</v>
+      </c>
+      <c r="L270" s="109">
+        <f>SUM(L246:L269)</f>
+        <v>22334</v>
+      </c>
+      <c r="M270" s="109"/>
+      <c r="N270" s="93">
+        <f>SUM(N246:N269)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="271" spans="1:15" ht="7.5" customHeight="1"/>
+    <row r="272" spans="1:15" s="22" customFormat="1">
+      <c r="A272" s="24"/>
+      <c r="B272" s="24"/>
+      <c r="C272" s="119"/>
+      <c r="D272" s="26" t="s">
+        <v>54</v>
+      </c>
+      <c r="E272" s="123">
+        <f>E270/C246</f>
+        <v>1813.5073806236414</v>
+      </c>
+      <c r="F272" s="24"/>
     </row>
   </sheetData>
-  <mergeCells count="66">
-    <mergeCell ref="F128:H128"/>
-    <mergeCell ref="F129:H129"/>
-    <mergeCell ref="F130:H130"/>
-    <mergeCell ref="F132:H132"/>
-    <mergeCell ref="F133:H133"/>
-    <mergeCell ref="F100:H100"/>
-    <mergeCell ref="F94:H94"/>
-    <mergeCell ref="F92:H92"/>
-    <mergeCell ref="F93:H93"/>
-    <mergeCell ref="F96:H96"/>
-    <mergeCell ref="F98:H98"/>
-    <mergeCell ref="F99:H99"/>
-    <mergeCell ref="F95:H95"/>
-    <mergeCell ref="F97:H97"/>
-    <mergeCell ref="F89:H89"/>
-    <mergeCell ref="F90:H90"/>
-    <mergeCell ref="F85:H85"/>
-    <mergeCell ref="F86:H86"/>
-    <mergeCell ref="F87:H87"/>
-    <mergeCell ref="F88:H88"/>
-    <mergeCell ref="A1:E1"/>
-    <mergeCell ref="A32:E32"/>
-    <mergeCell ref="A21:E21"/>
-    <mergeCell ref="A55:E55"/>
-    <mergeCell ref="A105:E105"/>
-    <mergeCell ref="B77:D77"/>
-    <mergeCell ref="B78:D78"/>
-    <mergeCell ref="B79:D79"/>
-    <mergeCell ref="B80:D80"/>
-    <mergeCell ref="B81:D81"/>
-    <mergeCell ref="B82:D82"/>
-    <mergeCell ref="B83:D83"/>
-    <mergeCell ref="F135:H135"/>
-    <mergeCell ref="F136:H136"/>
-    <mergeCell ref="F137:H137"/>
-    <mergeCell ref="F131:H131"/>
-    <mergeCell ref="F139:H139"/>
-    <mergeCell ref="F134:H134"/>
-    <mergeCell ref="F144:H144"/>
-    <mergeCell ref="F145:H145"/>
-    <mergeCell ref="F146:H146"/>
-    <mergeCell ref="F147:H147"/>
-    <mergeCell ref="F140:H140"/>
-    <mergeCell ref="F141:H141"/>
-    <mergeCell ref="F142:H142"/>
-    <mergeCell ref="F143:H143"/>
-    <mergeCell ref="A150:E150"/>
-    <mergeCell ref="F188:H188"/>
-    <mergeCell ref="F189:H189"/>
-    <mergeCell ref="F194:H194"/>
-    <mergeCell ref="F190:H190"/>
-    <mergeCell ref="F191:H191"/>
+  <mergeCells count="77">
+    <mergeCell ref="F226:H226"/>
+    <mergeCell ref="F232:H232"/>
     <mergeCell ref="A205:E205"/>
     <mergeCell ref="F177:H177"/>
     <mergeCell ref="F178:H178"/>
@@ -10899,9 +12746,1381 @@
     <mergeCell ref="F182:H182"/>
     <mergeCell ref="F183:H183"/>
     <mergeCell ref="F184:H184"/>
+    <mergeCell ref="A150:E150"/>
+    <mergeCell ref="F188:H188"/>
+    <mergeCell ref="F189:H189"/>
+    <mergeCell ref="F194:H194"/>
+    <mergeCell ref="F190:H190"/>
+    <mergeCell ref="F191:H191"/>
+    <mergeCell ref="F145:H145"/>
+    <mergeCell ref="F146:H146"/>
+    <mergeCell ref="F147:H147"/>
+    <mergeCell ref="F140:H140"/>
+    <mergeCell ref="F141:H141"/>
+    <mergeCell ref="F142:H142"/>
+    <mergeCell ref="F143:H143"/>
+    <mergeCell ref="A1:E1"/>
+    <mergeCell ref="A32:E32"/>
+    <mergeCell ref="A21:E21"/>
+    <mergeCell ref="A55:E55"/>
+    <mergeCell ref="A105:E105"/>
+    <mergeCell ref="B77:D77"/>
+    <mergeCell ref="B78:D78"/>
+    <mergeCell ref="B79:D79"/>
+    <mergeCell ref="B80:D80"/>
+    <mergeCell ref="B81:D81"/>
+    <mergeCell ref="B82:D82"/>
+    <mergeCell ref="B83:D83"/>
+    <mergeCell ref="F89:H89"/>
+    <mergeCell ref="F90:H90"/>
+    <mergeCell ref="F85:H85"/>
+    <mergeCell ref="F86:H86"/>
+    <mergeCell ref="F87:H87"/>
+    <mergeCell ref="F88:H88"/>
+    <mergeCell ref="F100:H100"/>
+    <mergeCell ref="F94:H94"/>
+    <mergeCell ref="F92:H92"/>
+    <mergeCell ref="F93:H93"/>
+    <mergeCell ref="F96:H96"/>
+    <mergeCell ref="F98:H98"/>
+    <mergeCell ref="F99:H99"/>
+    <mergeCell ref="F95:H95"/>
+    <mergeCell ref="F97:H97"/>
+    <mergeCell ref="F227:H227"/>
+    <mergeCell ref="F228:H228"/>
+    <mergeCell ref="F230:H230"/>
+    <mergeCell ref="F231:H231"/>
+    <mergeCell ref="F128:H128"/>
+    <mergeCell ref="F129:H129"/>
+    <mergeCell ref="F130:H130"/>
+    <mergeCell ref="F132:H132"/>
+    <mergeCell ref="F133:H133"/>
+    <mergeCell ref="F135:H135"/>
+    <mergeCell ref="F136:H136"/>
+    <mergeCell ref="F137:H137"/>
+    <mergeCell ref="F131:H131"/>
+    <mergeCell ref="F139:H139"/>
+    <mergeCell ref="F134:H134"/>
+    <mergeCell ref="F144:H144"/>
+    <mergeCell ref="F233:H233"/>
+    <mergeCell ref="F234:H234"/>
+    <mergeCell ref="F235:H235"/>
+    <mergeCell ref="F236:H236"/>
+    <mergeCell ref="A243:E243"/>
   </mergeCells>
   <pageMargins left="0.16" right="0.16" top="0.19" bottom="0.25" header="0" footer="0"/>
   <pageSetup paperSize="9" scale="85" orientation="landscape" r:id="rId1"/>
   <headerFooter alignWithMargins="0"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A2:J19"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A5" sqref="A5:A13"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="6.85546875" style="187" customWidth="1"/>
+    <col min="2" max="2" width="10.42578125" style="183" customWidth="1"/>
+    <col min="3" max="3" width="9.140625" style="183"/>
+    <col min="4" max="4" width="24.28515625" style="183" customWidth="1"/>
+    <col min="5" max="5" width="10.85546875" style="183" customWidth="1"/>
+    <col min="6" max="6" width="10.5703125" style="183" customWidth="1"/>
+    <col min="7" max="7" width="13.7109375" style="183" customWidth="1"/>
+    <col min="8" max="8" width="12.140625" style="183" customWidth="1"/>
+    <col min="9" max="9" width="9.140625" style="183"/>
+    <col min="10" max="10" width="11.28515625" style="183" bestFit="1" customWidth="1"/>
+    <col min="11" max="16384" width="9.140625" style="183"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="1:10" s="178" customFormat="1" ht="28.5" customHeight="1">
+      <c r="A2" s="240" t="s">
+        <v>209</v>
+      </c>
+      <c r="B2" s="240"/>
+      <c r="C2" s="240"/>
+      <c r="D2" s="240"/>
+      <c r="E2" s="240"/>
+      <c r="F2" s="240"/>
+      <c r="G2" s="240"/>
+      <c r="H2" s="240"/>
+      <c r="I2" s="240"/>
+    </row>
+    <row r="3" spans="1:10" s="180" customFormat="1" ht="33.75" customHeight="1">
+      <c r="A3" s="179" t="s">
+        <v>1</v>
+      </c>
+      <c r="B3" s="179" t="s">
+        <v>210</v>
+      </c>
+      <c r="C3" s="179" t="s">
+        <v>211</v>
+      </c>
+      <c r="D3" s="179" t="s">
+        <v>212</v>
+      </c>
+      <c r="E3" s="179" t="s">
+        <v>10</v>
+      </c>
+      <c r="F3" s="179" t="s">
+        <v>11</v>
+      </c>
+      <c r="G3" s="179" t="s">
+        <v>12</v>
+      </c>
+      <c r="H3" s="179" t="s">
+        <v>213</v>
+      </c>
+      <c r="I3" s="179" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" ht="21" customHeight="1">
+      <c r="A4" s="181">
+        <v>1</v>
+      </c>
+      <c r="B4" s="188">
+        <v>42683</v>
+      </c>
+      <c r="C4" s="189" t="s">
+        <v>214</v>
+      </c>
+      <c r="D4" s="182" t="s">
+        <v>223</v>
+      </c>
+      <c r="E4" s="176">
+        <v>4000</v>
+      </c>
+      <c r="F4" s="175">
+        <v>4500</v>
+      </c>
+      <c r="G4" s="175">
+        <f t="shared" ref="G4:G12" si="0">E4*F4</f>
+        <v>18000000</v>
+      </c>
+      <c r="H4" s="175">
+        <f t="shared" ref="H4:H13" si="1">G4*10%</f>
+        <v>1800000</v>
+      </c>
+      <c r="I4" s="184"/>
+      <c r="J4" s="194"/>
+    </row>
+    <row r="5" spans="1:10" ht="21" customHeight="1">
+      <c r="A5" s="181">
+        <v>2</v>
+      </c>
+      <c r="B5" s="188">
+        <v>42684</v>
+      </c>
+      <c r="C5" s="189" t="s">
+        <v>215</v>
+      </c>
+      <c r="D5" s="182" t="s">
+        <v>223</v>
+      </c>
+      <c r="E5" s="176">
+        <v>4000</v>
+      </c>
+      <c r="F5" s="175">
+        <v>4500</v>
+      </c>
+      <c r="G5" s="175">
+        <f t="shared" si="0"/>
+        <v>18000000</v>
+      </c>
+      <c r="H5" s="175">
+        <f t="shared" si="1"/>
+        <v>1800000</v>
+      </c>
+      <c r="I5" s="184"/>
+      <c r="J5" s="194"/>
+    </row>
+    <row r="6" spans="1:10" ht="21" customHeight="1">
+      <c r="A6" s="181">
+        <v>3</v>
+      </c>
+      <c r="B6" s="188">
+        <v>42689</v>
+      </c>
+      <c r="C6" s="193" t="s">
+        <v>229</v>
+      </c>
+      <c r="D6" s="182" t="s">
+        <v>223</v>
+      </c>
+      <c r="E6" s="176">
+        <v>3900</v>
+      </c>
+      <c r="F6" s="175">
+        <v>4500</v>
+      </c>
+      <c r="G6" s="175">
+        <f t="shared" si="0"/>
+        <v>17550000</v>
+      </c>
+      <c r="H6" s="175">
+        <f t="shared" si="1"/>
+        <v>1755000</v>
+      </c>
+      <c r="I6" s="184"/>
+      <c r="J6" s="194"/>
+    </row>
+    <row r="7" spans="1:10" ht="42" customHeight="1">
+      <c r="A7" s="181">
+        <v>4</v>
+      </c>
+      <c r="B7" s="188">
+        <v>42693</v>
+      </c>
+      <c r="C7" s="193" t="s">
+        <v>216</v>
+      </c>
+      <c r="D7" s="195" t="s">
+        <v>224</v>
+      </c>
+      <c r="E7" s="176">
+        <v>4000</v>
+      </c>
+      <c r="F7" s="175">
+        <v>4500</v>
+      </c>
+      <c r="G7" s="175">
+        <f t="shared" si="0"/>
+        <v>18000000</v>
+      </c>
+      <c r="H7" s="175">
+        <f t="shared" si="1"/>
+        <v>1800000</v>
+      </c>
+      <c r="I7" s="184"/>
+      <c r="J7" s="194"/>
+    </row>
+    <row r="8" spans="1:10" ht="21" customHeight="1">
+      <c r="A8" s="181">
+        <v>5</v>
+      </c>
+      <c r="B8" s="188">
+        <v>42697</v>
+      </c>
+      <c r="C8" s="193" t="s">
+        <v>217</v>
+      </c>
+      <c r="D8" s="182" t="s">
+        <v>223</v>
+      </c>
+      <c r="E8" s="176">
+        <v>3353</v>
+      </c>
+      <c r="F8" s="175">
+        <v>4500</v>
+      </c>
+      <c r="G8" s="175">
+        <f t="shared" si="0"/>
+        <v>15088500</v>
+      </c>
+      <c r="H8" s="175">
+        <f t="shared" si="1"/>
+        <v>1508850</v>
+      </c>
+      <c r="I8" s="184"/>
+      <c r="J8" s="194"/>
+    </row>
+    <row r="9" spans="1:10" ht="38.25" customHeight="1">
+      <c r="A9" s="181">
+        <v>6</v>
+      </c>
+      <c r="B9" s="188">
+        <v>42701</v>
+      </c>
+      <c r="C9" s="193" t="s">
+        <v>218</v>
+      </c>
+      <c r="D9" s="195" t="s">
+        <v>225</v>
+      </c>
+      <c r="E9" s="176">
+        <v>4000</v>
+      </c>
+      <c r="F9" s="175">
+        <v>4500</v>
+      </c>
+      <c r="G9" s="175">
+        <f t="shared" si="0"/>
+        <v>18000000</v>
+      </c>
+      <c r="H9" s="175">
+        <f t="shared" si="1"/>
+        <v>1800000</v>
+      </c>
+      <c r="I9" s="184"/>
+      <c r="J9" s="194"/>
+    </row>
+    <row r="10" spans="1:10" ht="21" customHeight="1">
+      <c r="A10" s="181">
+        <v>7</v>
+      </c>
+      <c r="B10" s="188">
+        <v>42702</v>
+      </c>
+      <c r="C10" s="193" t="s">
+        <v>219</v>
+      </c>
+      <c r="D10" s="182" t="s">
+        <v>223</v>
+      </c>
+      <c r="E10" s="176">
+        <v>1700</v>
+      </c>
+      <c r="F10" s="175">
+        <v>4500</v>
+      </c>
+      <c r="G10" s="175">
+        <f t="shared" si="0"/>
+        <v>7650000</v>
+      </c>
+      <c r="H10" s="175">
+        <f t="shared" si="1"/>
+        <v>765000</v>
+      </c>
+      <c r="I10" s="184"/>
+      <c r="J10" s="194"/>
+    </row>
+    <row r="11" spans="1:10" ht="21" customHeight="1">
+      <c r="A11" s="181">
+        <v>8</v>
+      </c>
+      <c r="B11" s="188">
+        <v>42703</v>
+      </c>
+      <c r="C11" s="193" t="s">
+        <v>220</v>
+      </c>
+      <c r="D11" s="182" t="s">
+        <v>223</v>
+      </c>
+      <c r="E11" s="176">
+        <v>4000</v>
+      </c>
+      <c r="F11" s="175">
+        <v>4500</v>
+      </c>
+      <c r="G11" s="175">
+        <f t="shared" si="0"/>
+        <v>18000000</v>
+      </c>
+      <c r="H11" s="175">
+        <f t="shared" si="1"/>
+        <v>1800000</v>
+      </c>
+      <c r="I11" s="184"/>
+      <c r="J11" s="194"/>
+    </row>
+    <row r="12" spans="1:10" ht="21" customHeight="1">
+      <c r="A12" s="181">
+        <v>9</v>
+      </c>
+      <c r="B12" s="188">
+        <v>42705</v>
+      </c>
+      <c r="C12" s="193" t="s">
+        <v>222</v>
+      </c>
+      <c r="D12" s="182" t="s">
+        <v>223</v>
+      </c>
+      <c r="E12" s="176">
+        <v>4000</v>
+      </c>
+      <c r="F12" s="175">
+        <v>4500</v>
+      </c>
+      <c r="G12" s="175">
+        <f t="shared" si="0"/>
+        <v>18000000</v>
+      </c>
+      <c r="H12" s="175">
+        <f t="shared" si="1"/>
+        <v>1800000</v>
+      </c>
+      <c r="I12" s="184"/>
+      <c r="J12" s="194"/>
+    </row>
+    <row r="13" spans="1:10" ht="21" customHeight="1">
+      <c r="A13" s="181">
+        <v>10</v>
+      </c>
+      <c r="B13" s="188">
+        <v>42707</v>
+      </c>
+      <c r="C13" s="193" t="s">
+        <v>221</v>
+      </c>
+      <c r="D13" s="182" t="s">
+        <v>223</v>
+      </c>
+      <c r="E13" s="176">
+        <v>4000</v>
+      </c>
+      <c r="F13" s="175">
+        <v>4500</v>
+      </c>
+      <c r="G13" s="175">
+        <f t="shared" ref="G13" si="2">E13*F13</f>
+        <v>18000000</v>
+      </c>
+      <c r="H13" s="175">
+        <f t="shared" si="1"/>
+        <v>1800000</v>
+      </c>
+      <c r="I13" s="184"/>
+      <c r="J13" s="194"/>
+    </row>
+    <row r="14" spans="1:10" ht="21" customHeight="1">
+      <c r="A14" s="185"/>
+      <c r="B14" s="186"/>
+      <c r="C14" s="186"/>
+      <c r="D14" s="186"/>
+      <c r="E14" s="177"/>
+      <c r="F14" s="177"/>
+      <c r="G14" s="177"/>
+      <c r="H14" s="177"/>
+      <c r="I14" s="186"/>
+    </row>
+    <row r="15" spans="1:10" s="192" customFormat="1" ht="21" customHeight="1">
+      <c r="A15" s="216" t="s">
+        <v>24</v>
+      </c>
+      <c r="B15" s="216"/>
+      <c r="C15" s="216"/>
+      <c r="D15" s="216"/>
+      <c r="E15" s="190"/>
+      <c r="F15" s="190"/>
+      <c r="G15" s="190">
+        <f>SUM(G4:G14)</f>
+        <v>166288500</v>
+      </c>
+      <c r="H15" s="190">
+        <f>SUM(H4:H14)</f>
+        <v>16628850</v>
+      </c>
+      <c r="I15" s="191"/>
+    </row>
+    <row r="17" spans="1:1" s="178" customFormat="1" ht="14.25">
+      <c r="A17" s="178" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="18" spans="1:1" s="178" customFormat="1" ht="14.25">
+      <c r="A18" s="178" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="19" spans="1:1" s="178" customFormat="1" ht="14.25">
+      <c r="A19" s="178" t="s">
+        <v>228</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="A2:I2"/>
+    <mergeCell ref="A15:D15"/>
+  </mergeCells>
+  <pageMargins left="0.72" right="0.13" top="0.16" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup scale="90" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:E121"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C23" sqref="C23"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="12.75"/>
+  <cols>
+    <col min="1" max="2" width="14.28515625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.85546875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.28515625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" ht="15">
+      <c r="A1" s="197"/>
+      <c r="B1" s="197"/>
+      <c r="C1" s="197"/>
+      <c r="D1" s="197"/>
+      <c r="E1" s="197"/>
+    </row>
+    <row r="2" spans="1:5" ht="15">
+      <c r="A2" s="197"/>
+      <c r="B2" s="197"/>
+      <c r="C2" s="197"/>
+      <c r="D2" s="197"/>
+      <c r="E2" s="197"/>
+    </row>
+    <row r="3" spans="1:5" ht="15">
+      <c r="A3" s="197"/>
+      <c r="B3" s="197"/>
+      <c r="C3" s="197"/>
+      <c r="D3" s="197"/>
+      <c r="E3" s="197"/>
+    </row>
+    <row r="4" spans="1:5" ht="15">
+      <c r="A4" s="198"/>
+      <c r="B4" s="198"/>
+      <c r="C4" s="198"/>
+      <c r="D4" s="198"/>
+      <c r="E4" s="198"/>
+    </row>
+    <row r="5" spans="1:5">
+      <c r="A5" s="199"/>
+      <c r="B5" s="199"/>
+      <c r="C5" s="199"/>
+      <c r="D5" s="199"/>
+      <c r="E5" s="199"/>
+    </row>
+    <row r="6" spans="1:5">
+      <c r="A6" s="199"/>
+      <c r="B6" s="199"/>
+      <c r="C6" s="199"/>
+      <c r="D6" s="199"/>
+      <c r="E6" s="199"/>
+    </row>
+    <row r="7" spans="1:5">
+      <c r="A7" s="199"/>
+      <c r="B7" s="199"/>
+      <c r="C7" s="199"/>
+      <c r="D7" s="199"/>
+      <c r="E7" s="199"/>
+    </row>
+    <row r="8" spans="1:5">
+      <c r="A8" s="199"/>
+      <c r="B8" s="199"/>
+      <c r="C8" s="199"/>
+      <c r="D8" s="199"/>
+      <c r="E8" s="199"/>
+    </row>
+    <row r="9" spans="1:5">
+      <c r="A9" s="199"/>
+      <c r="B9" s="199"/>
+      <c r="C9" s="199"/>
+      <c r="D9" s="199"/>
+      <c r="E9" s="199"/>
+    </row>
+    <row r="10" spans="1:5">
+      <c r="A10" s="199"/>
+      <c r="B10" s="199"/>
+      <c r="C10" s="199"/>
+      <c r="D10" s="199"/>
+      <c r="E10" s="199"/>
+    </row>
+    <row r="11" spans="1:5">
+      <c r="A11" s="199"/>
+      <c r="B11" s="199"/>
+      <c r="C11" s="199"/>
+      <c r="D11" s="199"/>
+      <c r="E11" s="199"/>
+    </row>
+    <row r="12" spans="1:5">
+      <c r="A12" s="199"/>
+      <c r="B12" s="199"/>
+      <c r="C12" s="199"/>
+      <c r="D12" s="199"/>
+      <c r="E12" s="199"/>
+    </row>
+    <row r="13" spans="1:5">
+      <c r="A13" s="199"/>
+      <c r="B13" s="199"/>
+      <c r="C13" s="199"/>
+      <c r="D13" s="199"/>
+      <c r="E13" s="199"/>
+    </row>
+    <row r="14" spans="1:5">
+      <c r="A14" s="199"/>
+      <c r="B14" s="199"/>
+      <c r="C14" s="199"/>
+      <c r="D14" s="199"/>
+      <c r="E14" s="199"/>
+    </row>
+    <row r="15" spans="1:5">
+      <c r="A15" s="199"/>
+      <c r="B15" s="199"/>
+      <c r="C15" s="199"/>
+      <c r="D15" s="199"/>
+      <c r="E15" s="199"/>
+    </row>
+    <row r="16" spans="1:5">
+      <c r="A16" s="199"/>
+      <c r="B16" s="199"/>
+      <c r="C16" s="199"/>
+      <c r="D16" s="199"/>
+      <c r="E16" s="199"/>
+    </row>
+    <row r="17" spans="1:5">
+      <c r="A17" s="200">
+        <v>1824920500</v>
+      </c>
+      <c r="B17" s="201">
+        <v>309738000</v>
+      </c>
+      <c r="C17" s="199"/>
+      <c r="D17" s="199"/>
+      <c r="E17" s="199"/>
+    </row>
+    <row r="18" spans="1:5">
+      <c r="A18" s="199"/>
+      <c r="B18" s="200">
+        <v>974415000</v>
+      </c>
+      <c r="C18" s="199"/>
+      <c r="D18" s="199"/>
+      <c r="E18" s="199"/>
+    </row>
+    <row r="19" spans="1:5">
+      <c r="A19" s="199"/>
+      <c r="B19" s="201">
+        <v>1284153000</v>
+      </c>
+      <c r="C19" s="200">
+        <v>21400</v>
+      </c>
+      <c r="D19" s="200">
+        <v>60000</v>
+      </c>
+      <c r="E19" s="200">
+        <v>1284000000</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5">
+      <c r="A20" s="199"/>
+      <c r="B20" s="201">
+        <v>21402.55</v>
+      </c>
+      <c r="C20" s="201">
+        <v>2</v>
+      </c>
+      <c r="D20" s="199">
+        <v>76500</v>
+      </c>
+      <c r="E20" s="201">
+        <v>153000</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5">
+      <c r="A21" s="199"/>
+      <c r="B21" s="199"/>
+      <c r="C21" s="199"/>
+      <c r="D21" s="199"/>
+      <c r="E21" s="199"/>
+    </row>
+    <row r="22" spans="1:5">
+      <c r="A22" s="199"/>
+      <c r="B22" s="199"/>
+      <c r="C22" s="201">
+        <v>153000</v>
+      </c>
+      <c r="D22" s="199"/>
+      <c r="E22" s="199"/>
+    </row>
+    <row r="23" spans="1:5">
+      <c r="A23" s="199"/>
+      <c r="B23" s="199"/>
+      <c r="C23" s="199"/>
+      <c r="D23" s="199"/>
+      <c r="E23" s="199"/>
+    </row>
+    <row r="24" spans="1:5">
+      <c r="A24" s="199"/>
+      <c r="B24" s="199"/>
+      <c r="C24" s="199"/>
+      <c r="D24" s="199"/>
+      <c r="E24" s="199"/>
+    </row>
+    <row r="25" spans="1:5">
+      <c r="A25" s="199"/>
+      <c r="B25" s="199"/>
+      <c r="C25" s="199"/>
+      <c r="D25" s="199"/>
+      <c r="E25" s="199"/>
+    </row>
+    <row r="26" spans="1:5">
+      <c r="A26" s="199"/>
+      <c r="B26" s="199"/>
+      <c r="C26" s="199"/>
+      <c r="D26" s="199"/>
+      <c r="E26" s="199"/>
+    </row>
+    <row r="27" spans="1:5">
+      <c r="A27" s="199"/>
+      <c r="B27" s="199"/>
+      <c r="C27" s="199"/>
+      <c r="D27" s="199"/>
+      <c r="E27" s="199"/>
+    </row>
+    <row r="28" spans="1:5">
+      <c r="A28" s="199"/>
+      <c r="B28" s="199"/>
+      <c r="C28" s="199"/>
+      <c r="D28" s="199"/>
+      <c r="E28" s="199"/>
+    </row>
+    <row r="29" spans="1:5">
+      <c r="A29" s="199"/>
+      <c r="B29" s="199"/>
+      <c r="C29" s="199"/>
+      <c r="D29" s="199"/>
+      <c r="E29" s="199"/>
+    </row>
+    <row r="30" spans="1:5">
+      <c r="A30" s="199"/>
+      <c r="B30" s="199"/>
+      <c r="C30" s="199"/>
+      <c r="D30" s="199"/>
+      <c r="E30" s="199"/>
+    </row>
+    <row r="31" spans="1:5">
+      <c r="A31" s="199"/>
+      <c r="B31" s="199"/>
+      <c r="C31" s="199"/>
+      <c r="D31" s="199"/>
+      <c r="E31" s="199"/>
+    </row>
+    <row r="32" spans="1:5">
+      <c r="A32" s="199"/>
+      <c r="B32" s="199"/>
+      <c r="C32" s="199"/>
+      <c r="D32" s="199"/>
+      <c r="E32" s="199"/>
+    </row>
+    <row r="33" spans="1:5">
+      <c r="A33" s="199"/>
+      <c r="B33" s="199"/>
+      <c r="C33" s="199"/>
+      <c r="D33" s="199"/>
+      <c r="E33" s="199"/>
+    </row>
+    <row r="34" spans="1:5">
+      <c r="A34" s="199"/>
+      <c r="B34" s="199"/>
+      <c r="C34" s="199"/>
+      <c r="D34" s="199"/>
+      <c r="E34" s="199"/>
+    </row>
+    <row r="35" spans="1:5">
+      <c r="A35" s="199"/>
+      <c r="B35" s="199"/>
+      <c r="C35" s="199"/>
+      <c r="D35" s="199"/>
+      <c r="E35" s="199"/>
+    </row>
+    <row r="36" spans="1:5">
+      <c r="A36" s="199"/>
+      <c r="B36" s="199"/>
+      <c r="C36" s="199"/>
+      <c r="D36" s="199"/>
+      <c r="E36" s="199"/>
+    </row>
+    <row r="37" spans="1:5">
+      <c r="A37" s="199"/>
+      <c r="B37" s="199"/>
+      <c r="C37" s="199"/>
+      <c r="D37" s="199"/>
+      <c r="E37" s="199"/>
+    </row>
+    <row r="38" spans="1:5">
+      <c r="A38" s="199"/>
+      <c r="B38" s="199"/>
+      <c r="C38" s="199"/>
+      <c r="D38" s="199"/>
+      <c r="E38" s="199"/>
+    </row>
+    <row r="39" spans="1:5">
+      <c r="A39" s="199"/>
+      <c r="B39" s="199"/>
+      <c r="C39" s="199"/>
+      <c r="D39" s="199"/>
+      <c r="E39" s="199"/>
+    </row>
+    <row r="40" spans="1:5">
+      <c r="A40" s="199"/>
+      <c r="B40" s="199"/>
+      <c r="C40" s="199"/>
+      <c r="D40" s="199"/>
+      <c r="E40" s="199"/>
+    </row>
+    <row r="41" spans="1:5">
+      <c r="A41" s="199"/>
+      <c r="B41" s="199"/>
+      <c r="C41" s="199"/>
+      <c r="D41" s="199"/>
+      <c r="E41" s="199"/>
+    </row>
+    <row r="42" spans="1:5">
+      <c r="A42" s="199"/>
+      <c r="B42" s="199"/>
+      <c r="C42" s="199"/>
+      <c r="D42" s="199"/>
+      <c r="E42" s="199"/>
+    </row>
+    <row r="43" spans="1:5">
+      <c r="A43" s="199"/>
+      <c r="B43" s="199"/>
+      <c r="C43" s="199"/>
+      <c r="D43" s="199"/>
+      <c r="E43" s="199"/>
+    </row>
+    <row r="44" spans="1:5">
+      <c r="A44" s="199"/>
+      <c r="B44" s="199"/>
+      <c r="C44" s="199"/>
+      <c r="D44" s="199"/>
+      <c r="E44" s="199"/>
+    </row>
+    <row r="45" spans="1:5">
+      <c r="A45" s="199"/>
+      <c r="B45" s="199"/>
+      <c r="C45" s="199"/>
+      <c r="D45" s="199"/>
+      <c r="E45" s="199"/>
+    </row>
+    <row r="46" spans="1:5">
+      <c r="A46" s="199"/>
+      <c r="B46" s="199"/>
+      <c r="C46" s="199"/>
+      <c r="D46" s="199"/>
+      <c r="E46" s="199"/>
+    </row>
+    <row r="47" spans="1:5">
+      <c r="A47" s="199"/>
+      <c r="B47" s="199"/>
+      <c r="C47" s="199"/>
+      <c r="D47" s="199"/>
+      <c r="E47" s="199"/>
+    </row>
+    <row r="48" spans="1:5">
+      <c r="A48" s="199"/>
+      <c r="B48" s="199"/>
+      <c r="C48" s="199"/>
+      <c r="D48" s="199"/>
+      <c r="E48" s="199"/>
+    </row>
+    <row r="49" spans="1:5">
+      <c r="A49" s="199"/>
+      <c r="B49" s="199"/>
+      <c r="C49" s="199"/>
+      <c r="D49" s="199"/>
+      <c r="E49" s="199"/>
+    </row>
+    <row r="50" spans="1:5">
+      <c r="A50" s="199"/>
+      <c r="B50" s="199"/>
+      <c r="C50" s="199"/>
+      <c r="D50" s="199"/>
+      <c r="E50" s="199"/>
+    </row>
+    <row r="51" spans="1:5">
+      <c r="A51" s="199"/>
+      <c r="B51" s="199"/>
+      <c r="C51" s="199"/>
+      <c r="D51" s="199"/>
+      <c r="E51" s="199"/>
+    </row>
+    <row r="52" spans="1:5">
+      <c r="A52" s="199"/>
+      <c r="B52" s="199"/>
+      <c r="C52" s="199"/>
+      <c r="D52" s="199"/>
+      <c r="E52" s="199"/>
+    </row>
+    <row r="53" spans="1:5">
+      <c r="A53" s="199"/>
+      <c r="B53" s="199"/>
+      <c r="C53" s="199"/>
+      <c r="D53" s="199"/>
+      <c r="E53" s="199"/>
+    </row>
+    <row r="54" spans="1:5">
+      <c r="A54" s="199"/>
+      <c r="B54" s="199"/>
+      <c r="C54" s="199"/>
+      <c r="D54" s="199"/>
+      <c r="E54" s="199"/>
+    </row>
+    <row r="55" spans="1:5">
+      <c r="A55" s="199"/>
+      <c r="B55" s="199"/>
+      <c r="C55" s="199"/>
+      <c r="D55" s="199"/>
+      <c r="E55" s="199"/>
+    </row>
+    <row r="56" spans="1:5">
+      <c r="A56" s="199"/>
+      <c r="B56" s="199"/>
+      <c r="C56" s="199"/>
+      <c r="D56" s="199"/>
+      <c r="E56" s="199"/>
+    </row>
+    <row r="57" spans="1:5">
+      <c r="A57" s="199"/>
+      <c r="B57" s="199"/>
+      <c r="C57" s="199"/>
+      <c r="D57" s="199"/>
+      <c r="E57" s="199"/>
+    </row>
+    <row r="58" spans="1:5">
+      <c r="A58" s="199"/>
+      <c r="B58" s="199"/>
+      <c r="C58" s="199"/>
+      <c r="D58" s="199"/>
+      <c r="E58" s="199"/>
+    </row>
+    <row r="59" spans="1:5">
+      <c r="A59" s="199"/>
+      <c r="B59" s="199"/>
+      <c r="C59" s="199"/>
+      <c r="D59" s="199"/>
+      <c r="E59" s="199"/>
+    </row>
+    <row r="60" spans="1:5">
+      <c r="A60" s="199"/>
+      <c r="B60" s="199"/>
+      <c r="C60" s="199"/>
+      <c r="D60" s="199"/>
+      <c r="E60" s="199"/>
+    </row>
+    <row r="61" spans="1:5">
+      <c r="A61" s="199"/>
+      <c r="B61" s="199"/>
+      <c r="C61" s="199"/>
+      <c r="D61" s="199"/>
+      <c r="E61" s="199"/>
+    </row>
+    <row r="62" spans="1:5">
+      <c r="A62" s="199"/>
+      <c r="B62" s="199"/>
+      <c r="C62" s="199"/>
+      <c r="D62" s="199"/>
+      <c r="E62" s="199"/>
+    </row>
+    <row r="63" spans="1:5">
+      <c r="A63" s="199"/>
+      <c r="B63" s="199"/>
+      <c r="C63" s="199"/>
+      <c r="D63" s="199"/>
+      <c r="E63" s="199"/>
+    </row>
+    <row r="64" spans="1:5">
+      <c r="A64" s="199"/>
+      <c r="B64" s="199"/>
+      <c r="C64" s="199"/>
+      <c r="D64" s="199"/>
+      <c r="E64" s="199"/>
+    </row>
+    <row r="65" spans="1:5">
+      <c r="A65" s="199"/>
+      <c r="B65" s="199"/>
+      <c r="C65" s="199"/>
+      <c r="D65" s="199"/>
+      <c r="E65" s="199"/>
+    </row>
+    <row r="66" spans="1:5">
+      <c r="A66" s="199"/>
+      <c r="B66" s="199"/>
+      <c r="C66" s="199"/>
+      <c r="D66" s="199"/>
+      <c r="E66" s="199"/>
+    </row>
+    <row r="67" spans="1:5">
+      <c r="A67" s="199"/>
+      <c r="B67" s="199"/>
+      <c r="C67" s="199"/>
+      <c r="D67" s="199"/>
+      <c r="E67" s="199"/>
+    </row>
+    <row r="68" spans="1:5">
+      <c r="A68" s="199"/>
+      <c r="B68" s="199"/>
+      <c r="C68" s="199"/>
+      <c r="D68" s="199"/>
+      <c r="E68" s="199"/>
+    </row>
+    <row r="69" spans="1:5">
+      <c r="A69" s="199"/>
+      <c r="B69" s="199"/>
+      <c r="C69" s="199"/>
+      <c r="D69" s="199"/>
+      <c r="E69" s="199"/>
+    </row>
+    <row r="70" spans="1:5">
+      <c r="A70" s="199"/>
+      <c r="B70" s="199"/>
+      <c r="C70" s="199"/>
+      <c r="D70" s="199"/>
+      <c r="E70" s="199"/>
+    </row>
+    <row r="71" spans="1:5">
+      <c r="A71" s="199"/>
+      <c r="B71" s="199"/>
+      <c r="C71" s="199"/>
+      <c r="D71" s="199"/>
+      <c r="E71" s="199"/>
+    </row>
+    <row r="72" spans="1:5">
+      <c r="A72" s="199"/>
+      <c r="B72" s="199"/>
+      <c r="C72" s="199"/>
+      <c r="D72" s="199"/>
+      <c r="E72" s="199"/>
+    </row>
+    <row r="73" spans="1:5">
+      <c r="A73" s="199"/>
+      <c r="B73" s="199"/>
+      <c r="C73" s="199"/>
+      <c r="D73" s="199"/>
+      <c r="E73" s="199"/>
+    </row>
+    <row r="74" spans="1:5">
+      <c r="A74" s="199"/>
+      <c r="B74" s="199"/>
+      <c r="C74" s="199"/>
+      <c r="D74" s="199"/>
+      <c r="E74" s="199"/>
+    </row>
+    <row r="75" spans="1:5">
+      <c r="A75" s="199"/>
+      <c r="B75" s="199"/>
+      <c r="C75" s="199"/>
+      <c r="D75" s="199"/>
+      <c r="E75" s="199"/>
+    </row>
+    <row r="76" spans="1:5">
+      <c r="A76" s="199"/>
+      <c r="B76" s="199"/>
+      <c r="C76" s="199"/>
+      <c r="D76" s="199"/>
+      <c r="E76" s="199"/>
+    </row>
+    <row r="77" spans="1:5">
+      <c r="A77" s="199"/>
+      <c r="B77" s="199"/>
+      <c r="C77" s="199"/>
+      <c r="D77" s="199"/>
+      <c r="E77" s="199"/>
+    </row>
+    <row r="78" spans="1:5">
+      <c r="A78" s="199"/>
+      <c r="B78" s="199"/>
+      <c r="C78" s="199"/>
+      <c r="D78" s="199"/>
+      <c r="E78" s="199"/>
+    </row>
+    <row r="79" spans="1:5">
+      <c r="A79" s="199"/>
+      <c r="B79" s="199"/>
+      <c r="C79" s="199"/>
+      <c r="D79" s="199"/>
+      <c r="E79" s="199"/>
+    </row>
+    <row r="80" spans="1:5">
+      <c r="A80" s="199"/>
+      <c r="B80" s="199"/>
+      <c r="C80" s="199"/>
+      <c r="D80" s="199"/>
+      <c r="E80" s="199"/>
+    </row>
+    <row r="81" spans="1:5">
+      <c r="A81" s="199"/>
+      <c r="B81" s="199"/>
+      <c r="C81" s="199"/>
+      <c r="D81" s="199"/>
+      <c r="E81" s="199"/>
+    </row>
+    <row r="82" spans="1:5">
+      <c r="A82" s="199"/>
+      <c r="B82" s="199"/>
+      <c r="C82" s="199"/>
+      <c r="D82" s="199"/>
+      <c r="E82" s="199"/>
+    </row>
+    <row r="83" spans="1:5">
+      <c r="A83" s="199"/>
+      <c r="B83" s="199"/>
+      <c r="C83" s="199"/>
+      <c r="D83" s="199"/>
+      <c r="E83" s="199"/>
+    </row>
+    <row r="84" spans="1:5">
+      <c r="A84" s="199"/>
+      <c r="B84" s="199"/>
+      <c r="C84" s="199"/>
+      <c r="D84" s="199"/>
+      <c r="E84" s="199"/>
+    </row>
+    <row r="85" spans="1:5">
+      <c r="A85" s="199"/>
+      <c r="B85" s="199"/>
+      <c r="C85" s="199"/>
+      <c r="D85" s="199"/>
+      <c r="E85" s="199"/>
+    </row>
+    <row r="86" spans="1:5">
+      <c r="A86" s="199"/>
+      <c r="B86" s="199"/>
+      <c r="C86" s="199"/>
+      <c r="D86" s="199"/>
+      <c r="E86" s="199"/>
+    </row>
+    <row r="87" spans="1:5">
+      <c r="A87" s="199"/>
+      <c r="B87" s="199"/>
+      <c r="C87" s="199"/>
+      <c r="D87" s="199"/>
+      <c r="E87" s="199"/>
+    </row>
+    <row r="88" spans="1:5">
+      <c r="A88" s="199"/>
+      <c r="B88" s="199"/>
+      <c r="C88" s="199"/>
+      <c r="D88" s="199"/>
+      <c r="E88" s="199"/>
+    </row>
+    <row r="89" spans="1:5">
+      <c r="A89" s="199"/>
+      <c r="B89" s="199"/>
+      <c r="C89" s="199"/>
+      <c r="D89" s="199"/>
+      <c r="E89" s="199"/>
+    </row>
+    <row r="90" spans="1:5">
+      <c r="A90" s="199"/>
+      <c r="B90" s="199"/>
+      <c r="C90" s="199"/>
+      <c r="D90" s="199"/>
+      <c r="E90" s="199"/>
+    </row>
+    <row r="91" spans="1:5">
+      <c r="A91" s="199"/>
+      <c r="B91" s="199"/>
+      <c r="C91" s="199"/>
+      <c r="D91" s="199"/>
+      <c r="E91" s="199"/>
+    </row>
+    <row r="92" spans="1:5">
+      <c r="A92" s="199"/>
+      <c r="B92" s="199"/>
+      <c r="C92" s="199"/>
+      <c r="D92" s="199"/>
+      <c r="E92" s="199"/>
+    </row>
+    <row r="93" spans="1:5">
+      <c r="A93" s="199"/>
+      <c r="B93" s="199"/>
+      <c r="C93" s="199"/>
+      <c r="D93" s="199"/>
+      <c r="E93" s="199"/>
+    </row>
+    <row r="94" spans="1:5">
+      <c r="A94" s="199"/>
+      <c r="B94" s="199"/>
+      <c r="C94" s="199"/>
+      <c r="D94" s="199"/>
+      <c r="E94" s="199"/>
+    </row>
+    <row r="95" spans="1:5">
+      <c r="A95" s="199"/>
+      <c r="B95" s="199"/>
+      <c r="C95" s="199"/>
+      <c r="D95" s="199"/>
+      <c r="E95" s="199"/>
+    </row>
+    <row r="96" spans="1:5">
+      <c r="A96" s="199"/>
+      <c r="B96" s="199"/>
+      <c r="C96" s="199"/>
+      <c r="D96" s="199"/>
+      <c r="E96" s="199"/>
+    </row>
+    <row r="97" spans="1:5">
+      <c r="A97" s="199"/>
+      <c r="B97" s="199"/>
+      <c r="C97" s="199"/>
+      <c r="D97" s="199"/>
+      <c r="E97" s="199"/>
+    </row>
+    <row r="98" spans="1:5">
+      <c r="A98" s="199"/>
+      <c r="B98" s="199"/>
+      <c r="C98" s="199"/>
+      <c r="D98" s="199"/>
+      <c r="E98" s="199"/>
+    </row>
+    <row r="99" spans="1:5">
+      <c r="A99" s="199"/>
+      <c r="B99" s="199"/>
+      <c r="C99" s="199"/>
+      <c r="D99" s="199"/>
+      <c r="E99" s="199"/>
+    </row>
+    <row r="100" spans="1:5">
+      <c r="A100" s="199"/>
+      <c r="B100" s="199"/>
+      <c r="C100" s="199"/>
+      <c r="D100" s="199"/>
+      <c r="E100" s="199"/>
+    </row>
+    <row r="101" spans="1:5">
+      <c r="A101" s="199"/>
+      <c r="B101" s="199"/>
+      <c r="C101" s="199"/>
+      <c r="D101" s="199"/>
+      <c r="E101" s="199"/>
+    </row>
+    <row r="102" spans="1:5">
+      <c r="A102" s="199"/>
+      <c r="B102" s="199"/>
+      <c r="C102" s="199"/>
+      <c r="D102" s="199"/>
+      <c r="E102" s="199"/>
+    </row>
+    <row r="103" spans="1:5">
+      <c r="A103" s="199"/>
+      <c r="B103" s="199"/>
+      <c r="C103" s="199"/>
+      <c r="D103" s="199"/>
+      <c r="E103" s="199"/>
+    </row>
+    <row r="104" spans="1:5">
+      <c r="A104" s="199"/>
+      <c r="B104" s="199"/>
+      <c r="C104" s="199"/>
+      <c r="D104" s="199"/>
+      <c r="E104" s="199"/>
+    </row>
+    <row r="105" spans="1:5">
+      <c r="A105" s="199"/>
+      <c r="B105" s="199"/>
+      <c r="C105" s="199"/>
+      <c r="D105" s="199"/>
+      <c r="E105" s="199"/>
+    </row>
+    <row r="106" spans="1:5">
+      <c r="A106" s="199"/>
+      <c r="B106" s="199"/>
+      <c r="C106" s="199"/>
+      <c r="D106" s="199"/>
+      <c r="E106" s="199"/>
+    </row>
+    <row r="107" spans="1:5">
+      <c r="A107" s="199"/>
+      <c r="B107" s="199"/>
+      <c r="C107" s="199"/>
+      <c r="D107" s="199"/>
+      <c r="E107" s="199"/>
+    </row>
+    <row r="108" spans="1:5">
+      <c r="A108" s="199"/>
+      <c r="B108" s="199"/>
+      <c r="C108" s="199"/>
+      <c r="D108" s="199"/>
+      <c r="E108" s="199"/>
+    </row>
+    <row r="109" spans="1:5">
+      <c r="A109" s="199"/>
+      <c r="B109" s="199"/>
+      <c r="C109" s="199"/>
+      <c r="D109" s="199"/>
+      <c r="E109" s="199"/>
+    </row>
+    <row r="110" spans="1:5">
+      <c r="A110" s="199"/>
+      <c r="B110" s="199"/>
+      <c r="C110" s="199"/>
+      <c r="D110" s="199"/>
+      <c r="E110" s="199"/>
+    </row>
+    <row r="111" spans="1:5">
+      <c r="A111" s="199"/>
+      <c r="B111" s="199"/>
+      <c r="C111" s="199"/>
+      <c r="D111" s="199"/>
+      <c r="E111" s="199"/>
+    </row>
+    <row r="112" spans="1:5">
+      <c r="A112" s="199"/>
+      <c r="B112" s="199"/>
+      <c r="C112" s="199"/>
+      <c r="D112" s="199"/>
+      <c r="E112" s="199"/>
+    </row>
+    <row r="113" spans="1:5">
+      <c r="A113" s="199"/>
+      <c r="B113" s="199"/>
+      <c r="C113" s="199"/>
+      <c r="D113" s="199"/>
+      <c r="E113" s="199"/>
+    </row>
+    <row r="114" spans="1:5">
+      <c r="A114" s="199"/>
+      <c r="B114" s="199"/>
+      <c r="C114" s="199"/>
+      <c r="D114" s="199"/>
+      <c r="E114" s="199"/>
+    </row>
+    <row r="115" spans="1:5">
+      <c r="A115" s="199"/>
+      <c r="B115" s="199"/>
+      <c r="C115" s="199"/>
+      <c r="D115" s="199"/>
+      <c r="E115" s="199"/>
+    </row>
+    <row r="116" spans="1:5">
+      <c r="A116" s="199"/>
+      <c r="B116" s="199"/>
+      <c r="C116" s="199"/>
+      <c r="D116" s="199"/>
+      <c r="E116" s="199"/>
+    </row>
+    <row r="117" spans="1:5">
+      <c r="A117" s="199"/>
+      <c r="B117" s="199"/>
+      <c r="C117" s="199"/>
+      <c r="D117" s="199"/>
+      <c r="E117" s="199"/>
+    </row>
+    <row r="118" spans="1:5">
+      <c r="A118" s="199"/>
+      <c r="B118" s="199"/>
+      <c r="C118" s="199"/>
+      <c r="D118" s="199"/>
+      <c r="E118" s="199"/>
+    </row>
+    <row r="119" spans="1:5">
+      <c r="A119" s="199"/>
+      <c r="B119" s="199"/>
+      <c r="C119" s="199"/>
+      <c r="D119" s="199"/>
+      <c r="E119" s="199"/>
+    </row>
+    <row r="120" spans="1:5">
+      <c r="A120" s="199"/>
+      <c r="B120" s="199"/>
+      <c r="C120" s="199"/>
+      <c r="D120" s="199"/>
+      <c r="E120" s="199"/>
+    </row>
+    <row r="121" spans="1:5">
+      <c r="A121" s="202"/>
+      <c r="B121" s="202"/>
+      <c r="C121" s="202"/>
+      <c r="D121" s="202"/>
+      <c r="E121" s="202"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>